--- a/Magno_Valera_Software_Testing.xlsx
+++ b/Magno_Valera_Software_Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua Ean\Documents\magno_valera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C053121-DBAF-4635-B2B0-8597A72553EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685B4986-6553-4534-8517-3B0707D640FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1004,212 +1004,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="8" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1229,8 +1028,209 @@
     <xf numFmtId="10" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1592,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH1056"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11:M12"/>
+    <sheetView tabSelected="1" topLeftCell="J65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41:N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1620,15 +1620,15 @@
   <sheetData>
     <row r="1" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="102" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="103"/>
+      <c r="F1" s="53"/>
       <c r="G1" s="12"/>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -1638,10 +1638,10 @@
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="104" t="s">
+      <c r="L1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="103"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="14">
         <f>COUNTA(K8:K80)</f>
         <v>25</v>
@@ -1679,15 +1679,15 @@
     </row>
     <row r="2" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="102" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="103"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="12"/>
       <c r="H2" s="3" t="s">
         <v>12</v>
@@ -1697,40 +1697,40 @@
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="104" t="s">
+      <c r="L2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="103"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="22">
         <f>COUNTIF(L8:L80,"Passed")</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O2" s="23"/>
-      <c r="P2" s="105">
+      <c r="P2" s="44">
         <f>(N2+N4)/N1</f>
-        <v>0.36</v>
-      </c>
-      <c r="Q2" s="105">
+        <v>0.52</v>
+      </c>
+      <c r="Q2" s="44">
         <f>(N2+N4)/N1</f>
-        <v>0.36</v>
-      </c>
-      <c r="R2" s="113">
+        <v>0.52</v>
+      </c>
+      <c r="R2" s="46">
         <f>(N2+N3+N4)/N1</f>
         <v>1</v>
       </c>
-      <c r="S2" s="114">
+      <c r="S2" s="47">
         <f>N3/N1</f>
-        <v>0.64</v>
-      </c>
-      <c r="T2" s="105">
+        <v>0.48</v>
+      </c>
+      <c r="T2" s="44">
         <f>N2/N1</f>
-        <v>0.36</v>
+        <v>0.52</v>
       </c>
       <c r="U2" s="24"/>
       <c r="V2" s="25"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="117"/>
-      <c r="Y2" s="118"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="51"/>
       <c r="Z2" s="11"/>
       <c r="AA2" s="11"/>
       <c r="AB2" s="11"/>
@@ -1743,39 +1743,39 @@
     </row>
     <row r="3" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="111">
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64">
         <v>45693</v>
       </c>
-      <c r="F3" s="103"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="12"/>
       <c r="H3" s="26"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="104" t="s">
+      <c r="L3" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="103"/>
+      <c r="M3" s="53"/>
       <c r="N3" s="27">
         <f>COUNTIF(L8:L80,"Failed")</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O3" s="28"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="106"/>
-      <c r="S3" s="106"/>
-      <c r="T3" s="106"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
       <c r="U3" s="29"/>
       <c r="V3" s="30"/>
-      <c r="W3" s="116"/>
-      <c r="X3" s="116"/>
-      <c r="Y3" s="116"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
       <c r="AB3" s="11"/>
@@ -1798,10 +1798,10 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="119" t="s">
+      <c r="L4" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="103"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="32">
         <f>COUNTIF(L8:L80,"NA")</f>
         <v>0</v>
@@ -1865,57 +1865,57 @@
     </row>
     <row r="6" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="92" t="s">
+      <c r="E6" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="92" t="s">
+      <c r="F6" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="92" t="s">
+      <c r="G6" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="92" t="s">
+      <c r="H6" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="92" t="s">
+      <c r="I6" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="92" t="s">
+      <c r="J6" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="92" t="s">
+      <c r="K6" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="108" t="s">
+      <c r="L6" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="109"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="92" t="s">
+      <c r="M6" s="58"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="112" t="s">
+      <c r="P6" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="92" t="s">
+      <c r="Q6" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="92" t="s">
+      <c r="R6" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="S6" s="94" t="s">
+      <c r="S6" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="T6" s="95"/>
+      <c r="T6" s="75"/>
       <c r="U6" s="37"/>
       <c r="V6" s="37"/>
       <c r="W6" s="37"/>
@@ -1933,16 +1933,16 @@
     </row>
     <row r="7" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
       <c r="L7" s="4" t="s">
         <v>33</v>
       </c>
@@ -1952,12 +1952,12 @@
       <c r="N7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="96"/>
-      <c r="T7" s="97"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="76"/>
+      <c r="T7" s="77"/>
       <c r="U7" s="37"/>
       <c r="V7" s="37"/>
       <c r="W7" s="37"/>
@@ -1975,59 +1975,59 @@
     </row>
     <row r="8" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="B8" s="56">
+      <c r="B8" s="70">
         <v>45697</v>
       </c>
-      <c r="C8" s="59">
+      <c r="C8" s="66">
         <v>1</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="66">
         <v>1</v>
       </c>
-      <c r="E8" s="59">
+      <c r="E8" s="66">
         <v>1</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="59" t="s">
+      <c r="H8" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="59" t="s">
+      <c r="I8" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="59" t="s">
+      <c r="J8" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="88" t="s">
+      <c r="K8" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="52" t="s">
+      <c r="L8" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="52" t="s">
+      <c r="M8" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="54" t="s">
+      <c r="N8" s="102" t="s">
         <v>13</v>
       </c>
       <c r="O8" s="39"/>
-      <c r="P8" s="82" t="s">
+      <c r="P8" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="56">
+      <c r="Q8" s="70">
         <v>45697</v>
       </c>
-      <c r="R8" s="56">
+      <c r="R8" s="70">
         <v>45697</v>
       </c>
-      <c r="S8" s="68" t="s">
+      <c r="S8" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="T8" s="45"/>
+      <c r="T8" s="87"/>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
@@ -2045,25 +2045,25 @@
     </row>
     <row r="9" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="55"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="104"/>
       <c r="O9" s="39"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="47"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="88"/>
+      <c r="T9" s="89"/>
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
       <c r="W9" s="10"/>
@@ -2081,15 +2081,15 @@
     </row>
     <row r="10" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
       <c r="K10" s="5" t="s">
         <v>44</v>
       </c>
@@ -2103,11 +2103,11 @@
         <v>13</v>
       </c>
       <c r="O10" s="39"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="47"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="88"/>
+      <c r="T10" s="89"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
@@ -2125,33 +2125,33 @@
     </row>
     <row r="11" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="90" t="s">
+      <c r="B11" s="71"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="52" t="s">
+      <c r="L11" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="52" t="s">
+      <c r="M11" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="N11" s="54" t="s">
+      <c r="N11" s="102" t="s">
         <v>13</v>
       </c>
       <c r="O11" s="39"/>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="47"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="88"/>
+      <c r="T11" s="89"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
@@ -2169,25 +2169,25 @@
     </row>
     <row r="12" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="55"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="101"/>
+      <c r="N12" s="104"/>
       <c r="O12" s="39"/>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="47"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="88"/>
+      <c r="T12" s="89"/>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
       <c r="W12" s="10"/>
@@ -2205,15 +2205,15 @@
     </row>
     <row r="13" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
       <c r="K13" s="7" t="s">
         <v>46</v>
       </c>
@@ -2227,11 +2227,11 @@
         <v>13</v>
       </c>
       <c r="O13" s="39"/>
-      <c r="P13" s="83"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="47"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="88"/>
+      <c r="T13" s="89"/>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
@@ -2249,15 +2249,15 @@
     </row>
     <row r="14" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
       <c r="K14" s="7" t="s">
         <v>47</v>
       </c>
@@ -2273,11 +2273,11 @@
       <c r="O14" s="41">
         <v>1</v>
       </c>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="47"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="88"/>
+      <c r="T14" s="89"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
@@ -2295,33 +2295,33 @@
     </row>
     <row r="15" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="90" t="s">
+      <c r="B15" s="71"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="L15" s="52" t="s">
+      <c r="L15" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="52" t="s">
+      <c r="M15" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="N15" s="54" t="s">
+      <c r="N15" s="102" t="s">
         <v>13</v>
       </c>
       <c r="O15" s="39"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="47"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="88"/>
+      <c r="T15" s="89"/>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
@@ -2339,25 +2339,25 @@
     </row>
     <row r="16" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="55"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="104"/>
       <c r="O16" s="39"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="47"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="88"/>
+      <c r="T16" s="89"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
       <c r="W16" s="10"/>
@@ -2375,33 +2375,33 @@
     </row>
     <row r="17" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="90" t="s">
+      <c r="B17" s="71"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="L17" s="52" t="s">
+      <c r="L17" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="M17" s="52" t="s">
+      <c r="M17" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="N17" s="54" t="s">
+      <c r="N17" s="102" t="s">
         <v>13</v>
       </c>
       <c r="O17" s="39"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="47"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="88"/>
+      <c r="T17" s="89"/>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
@@ -2419,25 +2419,25 @@
     </row>
     <row r="18" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="55"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="101"/>
+      <c r="N18" s="104"/>
       <c r="O18" s="39"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="47"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="88"/>
+      <c r="T18" s="89"/>
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
       <c r="W18" s="10"/>
@@ -2455,33 +2455,33 @@
     </row>
     <row r="19" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="90" t="s">
+      <c r="B19" s="71"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="L19" s="52" t="s">
+      <c r="L19" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="M19" s="52" t="s">
+      <c r="M19" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="N19" s="54" t="s">
+      <c r="N19" s="102" t="s">
         <v>13</v>
       </c>
       <c r="O19" s="39"/>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="47"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="88"/>
+      <c r="T19" s="89"/>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
@@ -2499,25 +2499,25 @@
     </row>
     <row r="20" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="55"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="101"/>
+      <c r="N20" s="104"/>
       <c r="O20" s="39"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="58"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="49"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="72"/>
+      <c r="S20" s="90"/>
+      <c r="T20" s="91"/>
       <c r="U20" s="10"/>
       <c r="V20" s="10"/>
       <c r="W20" s="10"/>
@@ -2535,31 +2535,31 @@
     </row>
     <row r="21" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
-      <c r="B21" s="56">
+      <c r="B21" s="70">
         <v>45725</v>
       </c>
-      <c r="C21" s="59">
+      <c r="C21" s="66">
         <v>2</v>
       </c>
-      <c r="D21" s="59">
+      <c r="D21" s="66">
         <v>2</v>
       </c>
-      <c r="E21" s="59">
+      <c r="E21" s="66">
         <v>2</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="F21" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="59" t="s">
+      <c r="G21" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="59" t="s">
+      <c r="H21" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="59" t="s">
+      <c r="I21" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="59" t="s">
+      <c r="J21" s="66" t="s">
         <v>53</v>
       </c>
       <c r="K21" s="8" t="s">
@@ -2575,19 +2575,19 @@
         <v>13</v>
       </c>
       <c r="O21" s="39"/>
-      <c r="P21" s="82" t="s">
+      <c r="P21" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="Q21" s="56">
+      <c r="Q21" s="70">
         <v>45725</v>
       </c>
-      <c r="R21" s="56">
+      <c r="R21" s="70">
         <v>45725</v>
       </c>
-      <c r="S21" s="44" t="s">
+      <c r="S21" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="T21" s="45"/>
+      <c r="T21" s="87"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
@@ -2604,33 +2604,33 @@
     </row>
     <row r="22" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="90" t="s">
+      <c r="B22" s="71"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="L22" s="52" t="s">
+      <c r="L22" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="M22" s="52" t="s">
+      <c r="M22" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="N22" s="54" t="s">
+      <c r="N22" s="102" t="s">
         <v>15</v>
       </c>
       <c r="O22" s="39"/>
-      <c r="P22" s="83"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="47"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="88"/>
+      <c r="T22" s="89"/>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
@@ -2647,25 +2647,25 @@
     </row>
     <row r="23" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="55"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="101"/>
+      <c r="N23" s="104"/>
       <c r="O23" s="39"/>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="47"/>
+      <c r="P23" s="93"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="88"/>
+      <c r="T23" s="89"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
       <c r="W23" s="10"/>
@@ -2682,15 +2682,15 @@
     </row>
     <row r="24" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
       <c r="K24" s="8" t="s">
         <v>56</v>
       </c>
@@ -2704,11 +2704,11 @@
         <v>15</v>
       </c>
       <c r="O24" s="39"/>
-      <c r="P24" s="83"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="47"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="88"/>
+      <c r="T24" s="89"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
@@ -2726,33 +2726,33 @@
     </row>
     <row r="25" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="90" t="s">
+      <c r="B25" s="71"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="L25" s="52" t="s">
+      <c r="L25" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="M25" s="52" t="s">
+      <c r="M25" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="N25" s="54" t="s">
+      <c r="N25" s="102" t="s">
         <v>15</v>
       </c>
       <c r="O25" s="39"/>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="47"/>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="88"/>
+      <c r="T25" s="89"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
@@ -2770,25 +2770,25 @@
     </row>
     <row r="26" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="55"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="101"/>
+      <c r="M26" s="101"/>
+      <c r="N26" s="104"/>
       <c r="O26" s="39"/>
-      <c r="P26" s="83"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="47"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="88"/>
+      <c r="T26" s="89"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
@@ -2806,33 +2806,33 @@
     </row>
     <row r="27" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="90" t="s">
+      <c r="B27" s="71"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="L27" s="52" t="s">
+      <c r="L27" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="M27" s="52" t="s">
+      <c r="M27" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="N27" s="54" t="s">
+      <c r="N27" s="102" t="s">
         <v>15</v>
       </c>
       <c r="O27" s="39"/>
-      <c r="P27" s="83"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="57"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="47"/>
+      <c r="P27" s="93"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="88"/>
+      <c r="T27" s="89"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
@@ -2850,25 +2850,25 @@
     </row>
     <row r="28" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="91"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="55"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="101"/>
+      <c r="M28" s="101"/>
+      <c r="N28" s="104"/>
       <c r="O28" s="39"/>
-      <c r="P28" s="84"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="49"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="90"/>
+      <c r="T28" s="91"/>
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
       <c r="W28" s="10"/>
@@ -2886,59 +2886,59 @@
     </row>
     <row r="29" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="56">
+      <c r="B29" s="70">
         <v>45725</v>
       </c>
-      <c r="C29" s="59">
+      <c r="C29" s="66">
         <v>3</v>
       </c>
-      <c r="D29" s="59">
+      <c r="D29" s="66">
         <v>2</v>
       </c>
-      <c r="E29" s="59">
+      <c r="E29" s="66">
         <v>3</v>
       </c>
-      <c r="F29" s="59" t="s">
+      <c r="F29" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="59" t="s">
+      <c r="G29" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="59" t="s">
+      <c r="H29" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="I29" s="59" t="s">
+      <c r="I29" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="J29" s="85" t="s">
+      <c r="J29" s="105" t="s">
         <v>89</v>
       </c>
-      <c r="K29" s="79" t="s">
+      <c r="K29" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="L29" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="M29" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="N29" s="54" t="s">
-        <v>15</v>
+      <c r="L29" s="99" t="s">
+        <v>13</v>
+      </c>
+      <c r="M29" s="99" t="s">
+        <v>13</v>
+      </c>
+      <c r="N29" s="102" t="s">
+        <v>13</v>
       </c>
       <c r="O29" s="39"/>
-      <c r="P29" s="82" t="s">
+      <c r="P29" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="Q29" s="56">
+      <c r="Q29" s="70">
         <v>45725</v>
       </c>
-      <c r="R29" s="56">
+      <c r="R29" s="70">
         <v>45725</v>
       </c>
-      <c r="S29" s="44" t="s">
+      <c r="S29" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="T29" s="45"/>
+      <c r="T29" s="87"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
@@ -2956,25 +2956,25 @@
     </row>
     <row r="30" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="73"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="106"/>
+      <c r="K30" s="97"/>
+      <c r="L30" s="100"/>
+      <c r="M30" s="100"/>
+      <c r="N30" s="103"/>
       <c r="O30" s="39"/>
-      <c r="P30" s="83"/>
-      <c r="Q30" s="57"/>
-      <c r="R30" s="57"/>
-      <c r="S30" s="46"/>
-      <c r="T30" s="47"/>
+      <c r="P30" s="93"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="88"/>
+      <c r="T30" s="89"/>
       <c r="U30" s="10"/>
       <c r="V30" s="10"/>
       <c r="W30" s="10"/>
@@ -2992,25 +2992,25 @@
     </row>
     <row r="31" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="73"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="106"/>
+      <c r="K31" s="97"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="100"/>
+      <c r="N31" s="103"/>
       <c r="O31" s="39"/>
-      <c r="P31" s="83"/>
-      <c r="Q31" s="57"/>
-      <c r="R31" s="57"/>
-      <c r="S31" s="46"/>
-      <c r="T31" s="47"/>
+      <c r="P31" s="93"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="88"/>
+      <c r="T31" s="89"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
@@ -3028,27 +3028,27 @@
     </row>
     <row r="32" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="86"/>
-      <c r="K32" s="80" t="s">
+      <c r="B32" s="71"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="106"/>
+      <c r="K32" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="55"/>
+      <c r="L32" s="101"/>
+      <c r="M32" s="101"/>
+      <c r="N32" s="104"/>
       <c r="O32" s="39"/>
-      <c r="P32" s="83"/>
-      <c r="Q32" s="57"/>
-      <c r="R32" s="57"/>
-      <c r="S32" s="46"/>
-      <c r="T32" s="47"/>
+      <c r="P32" s="93"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="71"/>
+      <c r="S32" s="88"/>
+      <c r="T32" s="89"/>
       <c r="U32" s="10"/>
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
@@ -3066,31 +3066,31 @@
     </row>
     <row r="33" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="M33" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="N33" s="52" t="s">
-        <v>15</v>
+      <c r="B33" s="71"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="106"/>
+      <c r="K33" s="97"/>
+      <c r="L33" s="99" t="s">
+        <v>13</v>
+      </c>
+      <c r="M33" s="99" t="s">
+        <v>13</v>
+      </c>
+      <c r="N33" s="99" t="s">
+        <v>13</v>
       </c>
       <c r="O33" s="39"/>
-      <c r="P33" s="83"/>
-      <c r="Q33" s="57"/>
-      <c r="R33" s="57"/>
-      <c r="S33" s="46"/>
-      <c r="T33" s="47"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="88"/>
+      <c r="T33" s="89"/>
       <c r="U33" s="10"/>
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
@@ -3108,25 +3108,25 @@
     </row>
     <row r="34" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="106"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="100"/>
+      <c r="M34" s="100"/>
+      <c r="N34" s="100"/>
       <c r="O34" s="39"/>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="57"/>
-      <c r="R34" s="57"/>
-      <c r="S34" s="46"/>
-      <c r="T34" s="47"/>
+      <c r="P34" s="93"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="88"/>
+      <c r="T34" s="89"/>
       <c r="U34" s="10"/>
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
@@ -3144,25 +3144,25 @@
     </row>
     <row r="35" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="81"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="107"/>
+      <c r="K35" s="98"/>
+      <c r="L35" s="101"/>
+      <c r="M35" s="101"/>
+      <c r="N35" s="101"/>
       <c r="O35" s="39"/>
-      <c r="P35" s="84"/>
-      <c r="Q35" s="58"/>
-      <c r="R35" s="58"/>
-      <c r="S35" s="48"/>
-      <c r="T35" s="49"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="72"/>
+      <c r="S35" s="90"/>
+      <c r="T35" s="91"/>
       <c r="U35" s="10"/>
       <c r="V35" s="10"/>
       <c r="W35" s="10"/>
@@ -3180,59 +3180,59 @@
     </row>
     <row r="36" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="56">
+      <c r="B36" s="70">
         <v>45725</v>
       </c>
-      <c r="C36" s="59">
+      <c r="C36" s="66">
         <v>4</v>
       </c>
-      <c r="D36" s="59">
+      <c r="D36" s="66">
         <v>2</v>
       </c>
-      <c r="E36" s="59">
+      <c r="E36" s="66">
         <v>4</v>
       </c>
-      <c r="F36" s="60" t="s">
+      <c r="F36" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="G36" s="59" t="s">
+      <c r="G36" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="H36" s="59" t="s">
+      <c r="H36" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="I36" s="59" t="s">
+      <c r="I36" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="J36" s="59" t="s">
+      <c r="J36" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="K36" s="79" t="s">
+      <c r="K36" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="L36" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="M36" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="N36" s="54" t="s">
-        <v>15</v>
+      <c r="L36" s="99" t="s">
+        <v>13</v>
+      </c>
+      <c r="M36" s="99" t="s">
+        <v>13</v>
+      </c>
+      <c r="N36" s="102" t="s">
+        <v>13</v>
       </c>
       <c r="O36" s="39"/>
-      <c r="P36" s="82" t="s">
+      <c r="P36" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="Q36" s="56">
+      <c r="Q36" s="70">
         <v>45725</v>
       </c>
-      <c r="R36" s="56">
+      <c r="R36" s="70">
         <v>45725</v>
       </c>
-      <c r="S36" s="44" t="s">
+      <c r="S36" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="T36" s="45"/>
+      <c r="T36" s="87"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
       <c r="W36" s="6"/>
@@ -3249,25 +3249,25 @@
     </row>
     <row r="37" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="73"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="97"/>
+      <c r="L37" s="100"/>
+      <c r="M37" s="100"/>
+      <c r="N37" s="103"/>
       <c r="O37" s="39"/>
-      <c r="P37" s="83"/>
-      <c r="Q37" s="57"/>
-      <c r="R37" s="57"/>
-      <c r="S37" s="46"/>
-      <c r="T37" s="47"/>
+      <c r="P37" s="93"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="71"/>
+      <c r="S37" s="88"/>
+      <c r="T37" s="89"/>
       <c r="U37" s="10"/>
       <c r="V37" s="10"/>
       <c r="W37" s="10"/>
@@ -3284,25 +3284,25 @@
     </row>
     <row r="38" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="80"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="73"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="97"/>
+      <c r="L38" s="100"/>
+      <c r="M38" s="100"/>
+      <c r="N38" s="103"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="83"/>
-      <c r="Q38" s="57"/>
-      <c r="R38" s="57"/>
-      <c r="S38" s="46"/>
-      <c r="T38" s="47"/>
+      <c r="P38" s="93"/>
+      <c r="Q38" s="71"/>
+      <c r="R38" s="71"/>
+      <c r="S38" s="88"/>
+      <c r="T38" s="89"/>
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
       <c r="W38" s="6"/>
@@ -3319,25 +3319,25 @@
     </row>
     <row r="39" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="80"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="62"/>
-      <c r="N39" s="73"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="97"/>
+      <c r="L39" s="100"/>
+      <c r="M39" s="100"/>
+      <c r="N39" s="103"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="83"/>
-      <c r="Q39" s="57"/>
-      <c r="R39" s="57"/>
-      <c r="S39" s="46"/>
-      <c r="T39" s="47"/>
+      <c r="P39" s="93"/>
+      <c r="Q39" s="71"/>
+      <c r="R39" s="71"/>
+      <c r="S39" s="88"/>
+      <c r="T39" s="89"/>
       <c r="U39" s="10"/>
       <c r="V39" s="10"/>
       <c r="W39" s="10"/>
@@ -3354,25 +3354,25 @@
     </row>
     <row r="40" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="81"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="55"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="98"/>
+      <c r="L40" s="101"/>
+      <c r="M40" s="101"/>
+      <c r="N40" s="104"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="83"/>
-      <c r="Q40" s="57"/>
-      <c r="R40" s="57"/>
-      <c r="S40" s="46"/>
-      <c r="T40" s="47"/>
+      <c r="P40" s="93"/>
+      <c r="Q40" s="71"/>
+      <c r="R40" s="71"/>
+      <c r="S40" s="88"/>
+      <c r="T40" s="89"/>
       <c r="U40" s="10"/>
       <c r="V40" s="10"/>
       <c r="W40" s="10"/>
@@ -3389,33 +3389,33 @@
     </row>
     <row r="41" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="79" t="s">
+      <c r="B41" s="71"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="L41" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="M41" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="N41" s="52" t="s">
-        <v>15</v>
+      <c r="L41" s="99" t="s">
+        <v>13</v>
+      </c>
+      <c r="M41" s="99" t="s">
+        <v>13</v>
+      </c>
+      <c r="N41" s="99" t="s">
+        <v>13</v>
       </c>
       <c r="O41" s="39"/>
-      <c r="P41" s="83"/>
-      <c r="Q41" s="57"/>
-      <c r="R41" s="57"/>
-      <c r="S41" s="46"/>
-      <c r="T41" s="47"/>
+      <c r="P41" s="93"/>
+      <c r="Q41" s="71"/>
+      <c r="R41" s="71"/>
+      <c r="S41" s="88"/>
+      <c r="T41" s="89"/>
       <c r="U41" s="10"/>
       <c r="V41" s="10"/>
       <c r="W41" s="10"/>
@@ -3432,25 +3432,25 @@
     </row>
     <row r="42" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="80"/>
-      <c r="L42" s="62"/>
-      <c r="M42" s="62"/>
-      <c r="N42" s="62"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="97"/>
+      <c r="L42" s="100"/>
+      <c r="M42" s="100"/>
+      <c r="N42" s="100"/>
       <c r="O42" s="39"/>
-      <c r="P42" s="83"/>
-      <c r="Q42" s="57"/>
-      <c r="R42" s="57"/>
-      <c r="S42" s="46"/>
-      <c r="T42" s="47"/>
+      <c r="P42" s="93"/>
+      <c r="Q42" s="71"/>
+      <c r="R42" s="71"/>
+      <c r="S42" s="88"/>
+      <c r="T42" s="89"/>
       <c r="U42" s="10"/>
       <c r="V42" s="10"/>
       <c r="W42" s="10"/>
@@ -3467,25 +3467,25 @@
     </row>
     <row r="43" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="80"/>
-      <c r="L43" s="62"/>
-      <c r="M43" s="62"/>
-      <c r="N43" s="62"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="97"/>
+      <c r="L43" s="100"/>
+      <c r="M43" s="100"/>
+      <c r="N43" s="100"/>
       <c r="O43" s="39"/>
-      <c r="P43" s="83"/>
-      <c r="Q43" s="57"/>
-      <c r="R43" s="57"/>
-      <c r="S43" s="46"/>
-      <c r="T43" s="47"/>
+      <c r="P43" s="93"/>
+      <c r="Q43" s="71"/>
+      <c r="R43" s="71"/>
+      <c r="S43" s="88"/>
+      <c r="T43" s="89"/>
       <c r="U43" s="10"/>
       <c r="V43" s="10"/>
       <c r="W43" s="10"/>
@@ -3502,25 +3502,25 @@
     </row>
     <row r="44" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="61"/>
-      <c r="J44" s="61"/>
-      <c r="K44" s="81"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="98"/>
+      <c r="L44" s="101"/>
+      <c r="M44" s="101"/>
+      <c r="N44" s="101"/>
       <c r="O44" s="39"/>
-      <c r="P44" s="84"/>
-      <c r="Q44" s="58"/>
-      <c r="R44" s="58"/>
-      <c r="S44" s="48"/>
-      <c r="T44" s="49"/>
+      <c r="P44" s="94"/>
+      <c r="Q44" s="72"/>
+      <c r="R44" s="72"/>
+      <c r="S44" s="90"/>
+      <c r="T44" s="91"/>
       <c r="U44" s="10"/>
       <c r="V44" s="10"/>
       <c r="W44" s="10"/>
@@ -3537,59 +3537,59 @@
     </row>
     <row r="45" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
-      <c r="B45" s="56">
+      <c r="B45" s="70">
         <v>45725</v>
       </c>
-      <c r="C45" s="59">
+      <c r="C45" s="66">
         <v>6</v>
       </c>
-      <c r="D45" s="59">
+      <c r="D45" s="66">
         <v>2</v>
       </c>
-      <c r="E45" s="59">
+      <c r="E45" s="66">
         <v>5</v>
       </c>
-      <c r="F45" s="59" t="s">
+      <c r="F45" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="G45" s="59" t="s">
+      <c r="G45" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="H45" s="59" t="s">
+      <c r="H45" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="I45" s="59" t="s">
+      <c r="I45" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="J45" s="59" t="s">
+      <c r="J45" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="K45" s="79" t="s">
+      <c r="K45" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="L45" s="52" t="s">
+      <c r="L45" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="M45" s="52" t="s">
+      <c r="M45" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="N45" s="54" t="s">
+      <c r="N45" s="102" t="s">
         <v>15</v>
       </c>
       <c r="O45" s="39"/>
-      <c r="P45" s="82" t="s">
+      <c r="P45" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="Q45" s="56">
+      <c r="Q45" s="70">
         <v>45725</v>
       </c>
-      <c r="R45" s="56">
+      <c r="R45" s="70">
         <v>45725</v>
       </c>
-      <c r="S45" s="44" t="s">
+      <c r="S45" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="T45" s="45"/>
+      <c r="T45" s="87"/>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
@@ -3606,25 +3606,25 @@
     </row>
     <row r="46" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="60"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="60"/>
-      <c r="K46" s="80"/>
-      <c r="L46" s="62"/>
-      <c r="M46" s="62"/>
-      <c r="N46" s="73"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="97"/>
+      <c r="L46" s="100"/>
+      <c r="M46" s="100"/>
+      <c r="N46" s="103"/>
       <c r="O46" s="39"/>
-      <c r="P46" s="83"/>
-      <c r="Q46" s="57"/>
-      <c r="R46" s="57"/>
-      <c r="S46" s="46"/>
-      <c r="T46" s="47"/>
+      <c r="P46" s="93"/>
+      <c r="Q46" s="71"/>
+      <c r="R46" s="71"/>
+      <c r="S46" s="88"/>
+      <c r="T46" s="89"/>
       <c r="U46" s="10"/>
       <c r="V46" s="10"/>
       <c r="W46" s="10"/>
@@ -3641,25 +3641,25 @@
     </row>
     <row r="47" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="60"/>
-      <c r="K47" s="80"/>
-      <c r="L47" s="62"/>
-      <c r="M47" s="62"/>
-      <c r="N47" s="73"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="97"/>
+      <c r="L47" s="100"/>
+      <c r="M47" s="100"/>
+      <c r="N47" s="103"/>
       <c r="O47" s="39"/>
-      <c r="P47" s="83"/>
-      <c r="Q47" s="57"/>
-      <c r="R47" s="57"/>
-      <c r="S47" s="46"/>
-      <c r="T47" s="47"/>
+      <c r="P47" s="93"/>
+      <c r="Q47" s="71"/>
+      <c r="R47" s="71"/>
+      <c r="S47" s="88"/>
+      <c r="T47" s="89"/>
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
       <c r="W47" s="6"/>
@@ -3676,25 +3676,25 @@
     </row>
     <row r="48" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="80"/>
-      <c r="L48" s="62"/>
-      <c r="M48" s="62"/>
-      <c r="N48" s="73"/>
+      <c r="B48" s="71"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="97"/>
+      <c r="L48" s="100"/>
+      <c r="M48" s="100"/>
+      <c r="N48" s="103"/>
       <c r="O48" s="39"/>
-      <c r="P48" s="83"/>
-      <c r="Q48" s="57"/>
-      <c r="R48" s="57"/>
-      <c r="S48" s="46"/>
-      <c r="T48" s="47"/>
+      <c r="P48" s="93"/>
+      <c r="Q48" s="71"/>
+      <c r="R48" s="71"/>
+      <c r="S48" s="88"/>
+      <c r="T48" s="89"/>
       <c r="U48" s="10"/>
       <c r="V48" s="10"/>
       <c r="W48" s="10"/>
@@ -3711,25 +3711,25 @@
     </row>
     <row r="49" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="80"/>
-      <c r="L49" s="62"/>
-      <c r="M49" s="62"/>
-      <c r="N49" s="73"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="97"/>
+      <c r="L49" s="100"/>
+      <c r="M49" s="100"/>
+      <c r="N49" s="103"/>
       <c r="O49" s="39"/>
-      <c r="P49" s="83"/>
-      <c r="Q49" s="57"/>
-      <c r="R49" s="57"/>
-      <c r="S49" s="46"/>
-      <c r="T49" s="47"/>
+      <c r="P49" s="93"/>
+      <c r="Q49" s="71"/>
+      <c r="R49" s="71"/>
+      <c r="S49" s="88"/>
+      <c r="T49" s="89"/>
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
       <c r="W49" s="6"/>
@@ -3746,25 +3746,25 @@
     </row>
     <row r="50" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="60"/>
-      <c r="I50" s="60"/>
-      <c r="J50" s="60"/>
-      <c r="K50" s="81"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="53"/>
-      <c r="N50" s="55"/>
+      <c r="B50" s="71"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="67"/>
+      <c r="K50" s="98"/>
+      <c r="L50" s="101"/>
+      <c r="M50" s="101"/>
+      <c r="N50" s="104"/>
       <c r="O50" s="39"/>
-      <c r="P50" s="83"/>
-      <c r="Q50" s="57"/>
-      <c r="R50" s="57"/>
-      <c r="S50" s="46"/>
-      <c r="T50" s="47"/>
+      <c r="P50" s="93"/>
+      <c r="Q50" s="71"/>
+      <c r="R50" s="71"/>
+      <c r="S50" s="88"/>
+      <c r="T50" s="89"/>
       <c r="U50" s="10"/>
       <c r="V50" s="10"/>
       <c r="W50" s="10"/>
@@ -3781,33 +3781,33 @@
     </row>
     <row r="51" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="60"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="79" t="s">
+      <c r="B51" s="71"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="L51" s="52" t="s">
+      <c r="L51" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="M51" s="52" t="s">
+      <c r="M51" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="N51" s="52" t="s">
+      <c r="N51" s="99" t="s">
         <v>15</v>
       </c>
       <c r="O51" s="39"/>
-      <c r="P51" s="83"/>
-      <c r="Q51" s="57"/>
-      <c r="R51" s="57"/>
-      <c r="S51" s="46"/>
-      <c r="T51" s="47"/>
+      <c r="P51" s="93"/>
+      <c r="Q51" s="71"/>
+      <c r="R51" s="71"/>
+      <c r="S51" s="88"/>
+      <c r="T51" s="89"/>
       <c r="U51" s="10"/>
       <c r="V51" s="10"/>
       <c r="W51" s="10"/>
@@ -3824,25 +3824,25 @@
     </row>
     <row r="52" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="80"/>
-      <c r="L52" s="62"/>
-      <c r="M52" s="62"/>
-      <c r="N52" s="62"/>
+      <c r="B52" s="71"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="67"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="67"/>
+      <c r="J52" s="67"/>
+      <c r="K52" s="97"/>
+      <c r="L52" s="100"/>
+      <c r="M52" s="100"/>
+      <c r="N52" s="100"/>
       <c r="O52" s="39"/>
-      <c r="P52" s="83"/>
-      <c r="Q52" s="57"/>
-      <c r="R52" s="57"/>
-      <c r="S52" s="46"/>
-      <c r="T52" s="47"/>
+      <c r="P52" s="93"/>
+      <c r="Q52" s="71"/>
+      <c r="R52" s="71"/>
+      <c r="S52" s="88"/>
+      <c r="T52" s="89"/>
       <c r="U52" s="10"/>
       <c r="V52" s="10"/>
       <c r="W52" s="10"/>
@@ -3859,25 +3859,25 @@
     </row>
     <row r="53" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="80"/>
-      <c r="L53" s="62"/>
-      <c r="M53" s="62"/>
-      <c r="N53" s="62"/>
+      <c r="B53" s="71"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="67"/>
+      <c r="K53" s="97"/>
+      <c r="L53" s="100"/>
+      <c r="M53" s="100"/>
+      <c r="N53" s="100"/>
       <c r="O53" s="39"/>
-      <c r="P53" s="83"/>
-      <c r="Q53" s="57"/>
-      <c r="R53" s="57"/>
-      <c r="S53" s="46"/>
-      <c r="T53" s="47"/>
+      <c r="P53" s="93"/>
+      <c r="Q53" s="71"/>
+      <c r="R53" s="71"/>
+      <c r="S53" s="88"/>
+      <c r="T53" s="89"/>
       <c r="U53" s="10"/>
       <c r="V53" s="10"/>
       <c r="W53" s="10"/>
@@ -3894,25 +3894,25 @@
     </row>
     <row r="54" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="60"/>
-      <c r="I54" s="60"/>
-      <c r="J54" s="60"/>
-      <c r="K54" s="81"/>
-      <c r="L54" s="53"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="53"/>
+      <c r="B54" s="71"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="67"/>
+      <c r="K54" s="98"/>
+      <c r="L54" s="101"/>
+      <c r="M54" s="101"/>
+      <c r="N54" s="101"/>
       <c r="O54" s="39"/>
-      <c r="P54" s="83"/>
-      <c r="Q54" s="57"/>
-      <c r="R54" s="57"/>
-      <c r="S54" s="46"/>
-      <c r="T54" s="47"/>
+      <c r="P54" s="93"/>
+      <c r="Q54" s="71"/>
+      <c r="R54" s="71"/>
+      <c r="S54" s="88"/>
+      <c r="T54" s="89"/>
       <c r="U54" s="10"/>
       <c r="V54" s="10"/>
       <c r="W54" s="10"/>
@@ -3929,33 +3929,33 @@
     </row>
     <row r="55" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="79" t="s">
+      <c r="B55" s="71"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="67"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="67"/>
+      <c r="J55" s="67"/>
+      <c r="K55" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="L55" s="52" t="s">
+      <c r="L55" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="M55" s="52" t="s">
+      <c r="M55" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="N55" s="52" t="s">
+      <c r="N55" s="99" t="s">
         <v>15</v>
       </c>
       <c r="O55" s="39"/>
-      <c r="P55" s="83"/>
-      <c r="Q55" s="57"/>
-      <c r="R55" s="57"/>
-      <c r="S55" s="46"/>
-      <c r="T55" s="47"/>
+      <c r="P55" s="93"/>
+      <c r="Q55" s="71"/>
+      <c r="R55" s="71"/>
+      <c r="S55" s="88"/>
+      <c r="T55" s="89"/>
       <c r="U55" s="10"/>
       <c r="V55" s="10"/>
       <c r="W55" s="10"/>
@@ -3972,25 +3972,25 @@
     </row>
     <row r="56" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="60"/>
-      <c r="I56" s="60"/>
-      <c r="J56" s="60"/>
-      <c r="K56" s="80"/>
-      <c r="L56" s="62"/>
-      <c r="M56" s="62"/>
-      <c r="N56" s="62"/>
+      <c r="B56" s="71"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="67"/>
+      <c r="K56" s="97"/>
+      <c r="L56" s="100"/>
+      <c r="M56" s="100"/>
+      <c r="N56" s="100"/>
       <c r="O56" s="39"/>
-      <c r="P56" s="83"/>
-      <c r="Q56" s="57"/>
-      <c r="R56" s="57"/>
-      <c r="S56" s="46"/>
-      <c r="T56" s="47"/>
+      <c r="P56" s="93"/>
+      <c r="Q56" s="71"/>
+      <c r="R56" s="71"/>
+      <c r="S56" s="88"/>
+      <c r="T56" s="89"/>
       <c r="U56" s="10"/>
       <c r="V56" s="10"/>
       <c r="W56" s="10"/>
@@ -4007,25 +4007,25 @@
     </row>
     <row r="57" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
-      <c r="B57" s="57"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="60"/>
-      <c r="K57" s="80"/>
-      <c r="L57" s="62"/>
-      <c r="M57" s="62"/>
-      <c r="N57" s="62"/>
+      <c r="B57" s="71"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
+      <c r="J57" s="67"/>
+      <c r="K57" s="97"/>
+      <c r="L57" s="100"/>
+      <c r="M57" s="100"/>
+      <c r="N57" s="100"/>
       <c r="O57" s="39"/>
-      <c r="P57" s="83"/>
-      <c r="Q57" s="57"/>
-      <c r="R57" s="57"/>
-      <c r="S57" s="46"/>
-      <c r="T57" s="47"/>
+      <c r="P57" s="93"/>
+      <c r="Q57" s="71"/>
+      <c r="R57" s="71"/>
+      <c r="S57" s="88"/>
+      <c r="T57" s="89"/>
       <c r="U57" s="10"/>
       <c r="V57" s="10"/>
       <c r="W57" s="10"/>
@@ -4042,25 +4042,25 @@
     </row>
     <row r="58" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="61"/>
-      <c r="H58" s="61"/>
-      <c r="I58" s="61"/>
-      <c r="J58" s="60"/>
-      <c r="K58" s="81"/>
-      <c r="L58" s="53"/>
-      <c r="M58" s="53"/>
-      <c r="N58" s="53"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="68"/>
+      <c r="F58" s="68"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="68"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="67"/>
+      <c r="K58" s="98"/>
+      <c r="L58" s="101"/>
+      <c r="M58" s="101"/>
+      <c r="N58" s="101"/>
       <c r="O58" s="39"/>
-      <c r="P58" s="84"/>
-      <c r="Q58" s="58"/>
-      <c r="R58" s="58"/>
-      <c r="S58" s="48"/>
-      <c r="T58" s="49"/>
+      <c r="P58" s="94"/>
+      <c r="Q58" s="72"/>
+      <c r="R58" s="72"/>
+      <c r="S58" s="90"/>
+      <c r="T58" s="91"/>
       <c r="U58" s="10"/>
       <c r="V58" s="10"/>
       <c r="W58" s="10"/>
@@ -4077,59 +4077,59 @@
     </row>
     <row r="59" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
-      <c r="B59" s="56">
+      <c r="B59" s="70">
         <v>45725</v>
       </c>
-      <c r="C59" s="59">
+      <c r="C59" s="66">
         <v>7</v>
       </c>
-      <c r="D59" s="59">
+      <c r="D59" s="66">
         <v>2</v>
       </c>
-      <c r="E59" s="59">
+      <c r="E59" s="66">
         <v>6</v>
       </c>
-      <c r="F59" s="59" t="s">
+      <c r="F59" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="G59" s="98" t="s">
+      <c r="G59" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="H59" s="59" t="s">
+      <c r="H59" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="I59" s="59" t="s">
+      <c r="I59" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="J59" s="59" t="s">
+      <c r="J59" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="K59" s="79" t="s">
+      <c r="K59" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="L59" s="52" t="s">
+      <c r="L59" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="M59" s="52" t="s">
+      <c r="M59" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="N59" s="54" t="s">
+      <c r="N59" s="102" t="s">
         <v>15</v>
       </c>
       <c r="O59" s="39"/>
-      <c r="P59" s="82" t="s">
+      <c r="P59" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="Q59" s="56">
+      <c r="Q59" s="70">
         <v>45725</v>
       </c>
-      <c r="R59" s="56">
+      <c r="R59" s="70">
         <v>45725</v>
       </c>
-      <c r="S59" s="44" t="s">
+      <c r="S59" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="T59" s="45"/>
+      <c r="T59" s="87"/>
       <c r="U59" s="10"/>
       <c r="V59" s="10"/>
       <c r="W59" s="10"/>
@@ -4146,25 +4146,25 @@
     </row>
     <row r="60" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="60"/>
-      <c r="G60" s="60"/>
-      <c r="H60" s="60"/>
-      <c r="I60" s="60"/>
-      <c r="J60" s="60"/>
-      <c r="K60" s="80"/>
-      <c r="L60" s="62"/>
-      <c r="M60" s="62"/>
-      <c r="N60" s="73"/>
+      <c r="B60" s="71"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="67"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="67"/>
+      <c r="K60" s="97"/>
+      <c r="L60" s="100"/>
+      <c r="M60" s="100"/>
+      <c r="N60" s="103"/>
       <c r="O60" s="39"/>
-      <c r="P60" s="83"/>
-      <c r="Q60" s="57"/>
-      <c r="R60" s="57"/>
-      <c r="S60" s="46"/>
-      <c r="T60" s="47"/>
+      <c r="P60" s="93"/>
+      <c r="Q60" s="71"/>
+      <c r="R60" s="71"/>
+      <c r="S60" s="88"/>
+      <c r="T60" s="89"/>
       <c r="U60" s="10"/>
       <c r="V60" s="10"/>
       <c r="W60" s="10"/>
@@ -4181,25 +4181,25 @@
     </row>
     <row r="61" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
-      <c r="B61" s="57"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="80"/>
-      <c r="L61" s="62"/>
-      <c r="M61" s="62"/>
-      <c r="N61" s="73"/>
+      <c r="B61" s="71"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="67"/>
+      <c r="K61" s="97"/>
+      <c r="L61" s="100"/>
+      <c r="M61" s="100"/>
+      <c r="N61" s="103"/>
       <c r="O61" s="39"/>
-      <c r="P61" s="83"/>
-      <c r="Q61" s="57"/>
-      <c r="R61" s="57"/>
-      <c r="S61" s="46"/>
-      <c r="T61" s="47"/>
+      <c r="P61" s="93"/>
+      <c r="Q61" s="71"/>
+      <c r="R61" s="71"/>
+      <c r="S61" s="88"/>
+      <c r="T61" s="89"/>
       <c r="U61" s="10"/>
       <c r="V61" s="10"/>
       <c r="W61" s="10"/>
@@ -4216,25 +4216,25 @@
     </row>
     <row r="62" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
-      <c r="B62" s="57"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="60"/>
-      <c r="H62" s="60"/>
-      <c r="I62" s="60"/>
-      <c r="J62" s="60"/>
-      <c r="K62" s="80"/>
-      <c r="L62" s="62"/>
-      <c r="M62" s="62"/>
-      <c r="N62" s="73"/>
+      <c r="B62" s="71"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="67"/>
+      <c r="G62" s="67"/>
+      <c r="H62" s="67"/>
+      <c r="I62" s="67"/>
+      <c r="J62" s="67"/>
+      <c r="K62" s="97"/>
+      <c r="L62" s="100"/>
+      <c r="M62" s="100"/>
+      <c r="N62" s="103"/>
       <c r="O62" s="39"/>
-      <c r="P62" s="83"/>
-      <c r="Q62" s="57"/>
-      <c r="R62" s="57"/>
-      <c r="S62" s="46"/>
-      <c r="T62" s="47"/>
+      <c r="P62" s="93"/>
+      <c r="Q62" s="71"/>
+      <c r="R62" s="71"/>
+      <c r="S62" s="88"/>
+      <c r="T62" s="89"/>
       <c r="U62" s="10"/>
       <c r="V62" s="10"/>
       <c r="W62" s="10"/>
@@ -4251,25 +4251,25 @@
     </row>
     <row r="63" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
-      <c r="B63" s="57"/>
-      <c r="C63" s="60"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="60"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="60"/>
-      <c r="K63" s="81"/>
-      <c r="L63" s="53"/>
-      <c r="M63" s="53"/>
-      <c r="N63" s="55"/>
+      <c r="B63" s="71"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="67"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="67"/>
+      <c r="J63" s="67"/>
+      <c r="K63" s="98"/>
+      <c r="L63" s="101"/>
+      <c r="M63" s="101"/>
+      <c r="N63" s="104"/>
       <c r="O63" s="39"/>
-      <c r="P63" s="83"/>
-      <c r="Q63" s="57"/>
-      <c r="R63" s="57"/>
-      <c r="S63" s="46"/>
-      <c r="T63" s="47"/>
+      <c r="P63" s="93"/>
+      <c r="Q63" s="71"/>
+      <c r="R63" s="71"/>
+      <c r="S63" s="88"/>
+      <c r="T63" s="89"/>
       <c r="U63" s="6"/>
       <c r="V63" s="6"/>
       <c r="W63" s="6"/>
@@ -4286,33 +4286,33 @@
     </row>
     <row r="64" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
-      <c r="B64" s="57"/>
-      <c r="C64" s="60"/>
-      <c r="D64" s="60"/>
-      <c r="E64" s="60"/>
-      <c r="F64" s="60"/>
-      <c r="G64" s="60"/>
-      <c r="H64" s="60"/>
-      <c r="I64" s="60"/>
-      <c r="J64" s="60"/>
-      <c r="K64" s="79" t="s">
+      <c r="B64" s="71"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="67"/>
+      <c r="J64" s="67"/>
+      <c r="K64" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="L64" s="52" t="s">
+      <c r="L64" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="M64" s="52" t="s">
+      <c r="M64" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="N64" s="52" t="s">
+      <c r="N64" s="99" t="s">
         <v>15</v>
       </c>
       <c r="O64" s="39"/>
-      <c r="P64" s="83"/>
-      <c r="Q64" s="57"/>
-      <c r="R64" s="57"/>
-      <c r="S64" s="46"/>
-      <c r="T64" s="47"/>
+      <c r="P64" s="93"/>
+      <c r="Q64" s="71"/>
+      <c r="R64" s="71"/>
+      <c r="S64" s="88"/>
+      <c r="T64" s="89"/>
       <c r="U64" s="10"/>
       <c r="V64" s="10"/>
       <c r="W64" s="10"/>
@@ -4329,25 +4329,25 @@
     </row>
     <row r="65" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
-      <c r="B65" s="57"/>
-      <c r="C65" s="60"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="60"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="60"/>
-      <c r="K65" s="80"/>
-      <c r="L65" s="62"/>
-      <c r="M65" s="62"/>
-      <c r="N65" s="62"/>
+      <c r="B65" s="71"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="67"/>
+      <c r="I65" s="67"/>
+      <c r="J65" s="67"/>
+      <c r="K65" s="97"/>
+      <c r="L65" s="100"/>
+      <c r="M65" s="100"/>
+      <c r="N65" s="100"/>
       <c r="O65" s="39"/>
-      <c r="P65" s="83"/>
-      <c r="Q65" s="57"/>
-      <c r="R65" s="57"/>
-      <c r="S65" s="46"/>
-      <c r="T65" s="47"/>
+      <c r="P65" s="93"/>
+      <c r="Q65" s="71"/>
+      <c r="R65" s="71"/>
+      <c r="S65" s="88"/>
+      <c r="T65" s="89"/>
       <c r="U65" s="6"/>
       <c r="V65" s="6"/>
       <c r="W65" s="6"/>
@@ -4365,25 +4365,25 @@
     </row>
     <row r="66" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="60"/>
-      <c r="F66" s="60"/>
-      <c r="G66" s="60"/>
-      <c r="H66" s="60"/>
-      <c r="I66" s="60"/>
-      <c r="J66" s="60"/>
-      <c r="K66" s="80"/>
-      <c r="L66" s="62"/>
-      <c r="M66" s="62"/>
-      <c r="N66" s="62"/>
+      <c r="B66" s="71"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="67"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="67"/>
+      <c r="H66" s="67"/>
+      <c r="I66" s="67"/>
+      <c r="J66" s="67"/>
+      <c r="K66" s="97"/>
+      <c r="L66" s="100"/>
+      <c r="M66" s="100"/>
+      <c r="N66" s="100"/>
       <c r="O66" s="39"/>
-      <c r="P66" s="83"/>
-      <c r="Q66" s="57"/>
-      <c r="R66" s="57"/>
-      <c r="S66" s="46"/>
-      <c r="T66" s="47"/>
+      <c r="P66" s="93"/>
+      <c r="Q66" s="71"/>
+      <c r="R66" s="71"/>
+      <c r="S66" s="88"/>
+      <c r="T66" s="89"/>
       <c r="U66" s="10"/>
       <c r="V66" s="10"/>
       <c r="W66" s="10"/>
@@ -4401,25 +4401,25 @@
     </row>
     <row r="67" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="61"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="61"/>
-      <c r="G67" s="61"/>
-      <c r="H67" s="61"/>
-      <c r="I67" s="61"/>
-      <c r="J67" s="61"/>
-      <c r="K67" s="81"/>
-      <c r="L67" s="53"/>
-      <c r="M67" s="53"/>
-      <c r="N67" s="53"/>
+      <c r="B67" s="72"/>
+      <c r="C67" s="68"/>
+      <c r="D67" s="68"/>
+      <c r="E67" s="68"/>
+      <c r="F67" s="68"/>
+      <c r="G67" s="68"/>
+      <c r="H67" s="68"/>
+      <c r="I67" s="68"/>
+      <c r="J67" s="68"/>
+      <c r="K67" s="98"/>
+      <c r="L67" s="101"/>
+      <c r="M67" s="101"/>
+      <c r="N67" s="101"/>
       <c r="O67" s="39"/>
-      <c r="P67" s="84"/>
-      <c r="Q67" s="58"/>
-      <c r="R67" s="58"/>
-      <c r="S67" s="48"/>
-      <c r="T67" s="49"/>
+      <c r="P67" s="94"/>
+      <c r="Q67" s="72"/>
+      <c r="R67" s="72"/>
+      <c r="S67" s="90"/>
+      <c r="T67" s="91"/>
       <c r="U67" s="10"/>
       <c r="V67" s="10"/>
       <c r="W67" s="10"/>
@@ -4437,59 +4437,59 @@
     </row>
     <row r="68" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
-      <c r="B68" s="56">
+      <c r="B68" s="70">
         <v>45725</v>
       </c>
-      <c r="C68" s="59">
+      <c r="C68" s="66">
         <v>8</v>
       </c>
-      <c r="D68" s="59">
+      <c r="D68" s="66">
         <v>2</v>
       </c>
-      <c r="E68" s="59">
+      <c r="E68" s="66">
         <v>7</v>
       </c>
-      <c r="F68" s="59" t="s">
+      <c r="F68" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="G68" s="59" t="s">
+      <c r="G68" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="H68" s="59" t="s">
+      <c r="H68" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="I68" s="59" t="s">
+      <c r="I68" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="J68" s="59" t="s">
+      <c r="J68" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="K68" s="79" t="s">
+      <c r="K68" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="L68" s="52" t="s">
+      <c r="L68" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="M68" s="52" t="s">
+      <c r="M68" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="N68" s="54" t="s">
+      <c r="N68" s="102" t="s">
         <v>15</v>
       </c>
       <c r="O68" s="39"/>
-      <c r="P68" s="68" t="s">
+      <c r="P68" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="Q68" s="70">
+      <c r="Q68" s="80">
         <v>45725</v>
       </c>
-      <c r="R68" s="70">
+      <c r="R68" s="80">
         <v>45725</v>
       </c>
-      <c r="S68" s="50" t="s">
+      <c r="S68" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="T68" s="45"/>
+      <c r="T68" s="87"/>
       <c r="U68" s="10"/>
       <c r="V68" s="10"/>
       <c r="W68" s="10"/>
@@ -4507,25 +4507,25 @@
     </row>
     <row r="69" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
-      <c r="B69" s="57"/>
-      <c r="C69" s="60"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="60"/>
-      <c r="F69" s="60"/>
-      <c r="G69" s="60"/>
-      <c r="H69" s="60"/>
-      <c r="I69" s="60"/>
-      <c r="J69" s="60"/>
-      <c r="K69" s="80"/>
-      <c r="L69" s="62"/>
-      <c r="M69" s="62"/>
-      <c r="N69" s="73"/>
+      <c r="B69" s="71"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="67"/>
+      <c r="J69" s="67"/>
+      <c r="K69" s="97"/>
+      <c r="L69" s="100"/>
+      <c r="M69" s="100"/>
+      <c r="N69" s="103"/>
       <c r="O69" s="39"/>
-      <c r="P69" s="46"/>
-      <c r="Q69" s="71"/>
-      <c r="R69" s="71"/>
-      <c r="S69" s="51"/>
-      <c r="T69" s="47"/>
+      <c r="P69" s="88"/>
+      <c r="Q69" s="81"/>
+      <c r="R69" s="81"/>
+      <c r="S69" s="113"/>
+      <c r="T69" s="89"/>
       <c r="U69" s="10"/>
       <c r="V69" s="10"/>
       <c r="W69" s="10"/>
@@ -4543,25 +4543,25 @@
     </row>
     <row r="70" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
-      <c r="B70" s="57"/>
-      <c r="C70" s="60"/>
-      <c r="D70" s="60"/>
-      <c r="E70" s="60"/>
-      <c r="F70" s="60"/>
-      <c r="G70" s="60"/>
-      <c r="H70" s="60"/>
-      <c r="I70" s="60"/>
-      <c r="J70" s="60"/>
-      <c r="K70" s="80"/>
-      <c r="L70" s="62"/>
-      <c r="M70" s="62"/>
-      <c r="N70" s="73"/>
+      <c r="B70" s="71"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67"/>
+      <c r="J70" s="67"/>
+      <c r="K70" s="97"/>
+      <c r="L70" s="100"/>
+      <c r="M70" s="100"/>
+      <c r="N70" s="103"/>
       <c r="O70" s="39"/>
-      <c r="P70" s="46"/>
-      <c r="Q70" s="71"/>
-      <c r="R70" s="71"/>
-      <c r="S70" s="51"/>
-      <c r="T70" s="47"/>
+      <c r="P70" s="88"/>
+      <c r="Q70" s="81"/>
+      <c r="R70" s="81"/>
+      <c r="S70" s="113"/>
+      <c r="T70" s="89"/>
       <c r="U70" s="10"/>
       <c r="V70" s="10"/>
       <c r="W70" s="10"/>
@@ -4579,25 +4579,25 @@
     </row>
     <row r="71" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
-      <c r="B71" s="57"/>
-      <c r="C71" s="60"/>
-      <c r="D71" s="60"/>
-      <c r="E71" s="60"/>
-      <c r="F71" s="60"/>
-      <c r="G71" s="60"/>
-      <c r="H71" s="60"/>
-      <c r="I71" s="60"/>
-      <c r="J71" s="60"/>
-      <c r="K71" s="80"/>
-      <c r="L71" s="62"/>
-      <c r="M71" s="62"/>
-      <c r="N71" s="73"/>
+      <c r="B71" s="71"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="67"/>
+      <c r="H71" s="67"/>
+      <c r="I71" s="67"/>
+      <c r="J71" s="67"/>
+      <c r="K71" s="97"/>
+      <c r="L71" s="100"/>
+      <c r="M71" s="100"/>
+      <c r="N71" s="103"/>
       <c r="O71" s="39"/>
-      <c r="P71" s="46"/>
-      <c r="Q71" s="71"/>
-      <c r="R71" s="71"/>
-      <c r="S71" s="51"/>
-      <c r="T71" s="47"/>
+      <c r="P71" s="88"/>
+      <c r="Q71" s="81"/>
+      <c r="R71" s="81"/>
+      <c r="S71" s="113"/>
+      <c r="T71" s="89"/>
       <c r="U71" s="10"/>
       <c r="V71" s="10"/>
       <c r="W71" s="10"/>
@@ -4615,25 +4615,25 @@
     </row>
     <row r="72" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
-      <c r="B72" s="57"/>
-      <c r="C72" s="60"/>
-      <c r="D72" s="60"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="60"/>
-      <c r="H72" s="60"/>
-      <c r="I72" s="60"/>
-      <c r="J72" s="60"/>
-      <c r="K72" s="81"/>
-      <c r="L72" s="53"/>
-      <c r="M72" s="53"/>
-      <c r="N72" s="55"/>
+      <c r="B72" s="71"/>
+      <c r="C72" s="67"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="67"/>
+      <c r="H72" s="67"/>
+      <c r="I72" s="67"/>
+      <c r="J72" s="67"/>
+      <c r="K72" s="98"/>
+      <c r="L72" s="101"/>
+      <c r="M72" s="101"/>
+      <c r="N72" s="104"/>
       <c r="O72" s="39"/>
-      <c r="P72" s="46"/>
-      <c r="Q72" s="71"/>
-      <c r="R72" s="71"/>
-      <c r="S72" s="51"/>
-      <c r="T72" s="47"/>
+      <c r="P72" s="88"/>
+      <c r="Q72" s="81"/>
+      <c r="R72" s="81"/>
+      <c r="S72" s="113"/>
+      <c r="T72" s="89"/>
       <c r="U72" s="10"/>
       <c r="V72" s="10"/>
       <c r="W72" s="10"/>
@@ -4651,33 +4651,33 @@
     </row>
     <row r="73" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
-      <c r="B73" s="57"/>
-      <c r="C73" s="60"/>
-      <c r="D73" s="60"/>
-      <c r="E73" s="60"/>
-      <c r="F73" s="60"/>
-      <c r="G73" s="60"/>
-      <c r="H73" s="60"/>
-      <c r="I73" s="60"/>
-      <c r="J73" s="60"/>
-      <c r="K73" s="79" t="s">
+      <c r="B73" s="71"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="67"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="67"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="67"/>
+      <c r="J73" s="67"/>
+      <c r="K73" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="L73" s="52" t="s">
+      <c r="L73" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="M73" s="52" t="s">
+      <c r="M73" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="N73" s="52" t="s">
+      <c r="N73" s="99" t="s">
         <v>15</v>
       </c>
       <c r="O73" s="39"/>
-      <c r="P73" s="46"/>
-      <c r="Q73" s="71"/>
-      <c r="R73" s="71"/>
-      <c r="S73" s="51"/>
-      <c r="T73" s="47"/>
+      <c r="P73" s="88"/>
+      <c r="Q73" s="81"/>
+      <c r="R73" s="81"/>
+      <c r="S73" s="113"/>
+      <c r="T73" s="89"/>
       <c r="U73" s="6"/>
       <c r="V73" s="6"/>
       <c r="W73" s="6"/>
@@ -4695,25 +4695,25 @@
     </row>
     <row r="74" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
-      <c r="B74" s="57"/>
-      <c r="C74" s="60"/>
-      <c r="D74" s="60"/>
-      <c r="E74" s="60"/>
-      <c r="F74" s="60"/>
-      <c r="G74" s="60"/>
-      <c r="H74" s="60"/>
-      <c r="I74" s="60"/>
-      <c r="J74" s="60"/>
-      <c r="K74" s="80"/>
-      <c r="L74" s="62"/>
-      <c r="M74" s="62"/>
-      <c r="N74" s="62"/>
+      <c r="B74" s="71"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="67"/>
+      <c r="H74" s="67"/>
+      <c r="I74" s="67"/>
+      <c r="J74" s="67"/>
+      <c r="K74" s="97"/>
+      <c r="L74" s="100"/>
+      <c r="M74" s="100"/>
+      <c r="N74" s="100"/>
       <c r="O74" s="39"/>
-      <c r="P74" s="46"/>
-      <c r="Q74" s="71"/>
-      <c r="R74" s="71"/>
-      <c r="S74" s="51"/>
-      <c r="T74" s="47"/>
+      <c r="P74" s="88"/>
+      <c r="Q74" s="81"/>
+      <c r="R74" s="81"/>
+      <c r="S74" s="113"/>
+      <c r="T74" s="89"/>
       <c r="U74" s="10"/>
       <c r="V74" s="10"/>
       <c r="W74" s="10"/>
@@ -4731,25 +4731,25 @@
     </row>
     <row r="75" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
-      <c r="B75" s="57"/>
-      <c r="C75" s="60"/>
-      <c r="D75" s="60"/>
-      <c r="E75" s="60"/>
-      <c r="F75" s="60"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="60"/>
-      <c r="I75" s="60"/>
-      <c r="J75" s="60"/>
-      <c r="K75" s="80"/>
-      <c r="L75" s="62"/>
-      <c r="M75" s="62"/>
-      <c r="N75" s="62"/>
+      <c r="B75" s="71"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="67"/>
+      <c r="H75" s="67"/>
+      <c r="I75" s="67"/>
+      <c r="J75" s="67"/>
+      <c r="K75" s="97"/>
+      <c r="L75" s="100"/>
+      <c r="M75" s="100"/>
+      <c r="N75" s="100"/>
       <c r="O75" s="39"/>
-      <c r="P75" s="46"/>
-      <c r="Q75" s="71"/>
-      <c r="R75" s="71"/>
-      <c r="S75" s="51"/>
-      <c r="T75" s="47"/>
+      <c r="P75" s="88"/>
+      <c r="Q75" s="81"/>
+      <c r="R75" s="81"/>
+      <c r="S75" s="113"/>
+      <c r="T75" s="89"/>
       <c r="U75" s="10"/>
       <c r="V75" s="10"/>
       <c r="W75" s="10"/>
@@ -4767,25 +4767,25 @@
     </row>
     <row r="76" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
-      <c r="B76" s="57"/>
-      <c r="C76" s="60"/>
-      <c r="D76" s="60"/>
-      <c r="E76" s="60"/>
-      <c r="F76" s="60"/>
-      <c r="G76" s="60"/>
-      <c r="H76" s="60"/>
-      <c r="I76" s="60"/>
-      <c r="J76" s="60"/>
-      <c r="K76" s="80"/>
-      <c r="L76" s="62"/>
-      <c r="M76" s="62"/>
-      <c r="N76" s="62"/>
+      <c r="B76" s="71"/>
+      <c r="C76" s="67"/>
+      <c r="D76" s="67"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="67"/>
+      <c r="H76" s="67"/>
+      <c r="I76" s="67"/>
+      <c r="J76" s="67"/>
+      <c r="K76" s="97"/>
+      <c r="L76" s="100"/>
+      <c r="M76" s="100"/>
+      <c r="N76" s="100"/>
       <c r="O76" s="39"/>
-      <c r="P76" s="46"/>
-      <c r="Q76" s="71"/>
-      <c r="R76" s="71"/>
-      <c r="S76" s="51"/>
-      <c r="T76" s="47"/>
+      <c r="P76" s="88"/>
+      <c r="Q76" s="81"/>
+      <c r="R76" s="81"/>
+      <c r="S76" s="113"/>
+      <c r="T76" s="89"/>
       <c r="U76" s="10"/>
       <c r="V76" s="10"/>
       <c r="W76" s="10"/>
@@ -4803,25 +4803,25 @@
     </row>
     <row r="77" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
-      <c r="B77" s="58"/>
-      <c r="C77" s="61"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="61"/>
-      <c r="F77" s="61"/>
-      <c r="G77" s="61"/>
-      <c r="H77" s="61"/>
-      <c r="I77" s="61"/>
-      <c r="J77" s="61"/>
-      <c r="K77" s="81"/>
-      <c r="L77" s="53"/>
-      <c r="M77" s="53"/>
-      <c r="N77" s="53"/>
+      <c r="B77" s="72"/>
+      <c r="C77" s="68"/>
+      <c r="D77" s="68"/>
+      <c r="E77" s="68"/>
+      <c r="F77" s="68"/>
+      <c r="G77" s="68"/>
+      <c r="H77" s="68"/>
+      <c r="I77" s="68"/>
+      <c r="J77" s="68"/>
+      <c r="K77" s="98"/>
+      <c r="L77" s="101"/>
+      <c r="M77" s="101"/>
+      <c r="N77" s="101"/>
       <c r="O77" s="39"/>
-      <c r="P77" s="69"/>
-      <c r="Q77" s="72"/>
-      <c r="R77" s="72"/>
-      <c r="S77" s="51"/>
-      <c r="T77" s="47"/>
+      <c r="P77" s="114"/>
+      <c r="Q77" s="115"/>
+      <c r="R77" s="115"/>
+      <c r="S77" s="113"/>
+      <c r="T77" s="89"/>
       <c r="U77" s="10"/>
       <c r="V77" s="10"/>
       <c r="W77" s="10"/>
@@ -4839,59 +4839,59 @@
     </row>
     <row r="78" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
-      <c r="B78" s="70">
+      <c r="B78" s="80">
         <v>45725</v>
       </c>
-      <c r="C78" s="77">
+      <c r="C78" s="78">
         <v>9</v>
       </c>
-      <c r="D78" s="77">
+      <c r="D78" s="78">
         <v>2</v>
       </c>
-      <c r="E78" s="77">
+      <c r="E78" s="78">
         <v>8</v>
       </c>
-      <c r="F78" s="77" t="s">
+      <c r="F78" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="G78" s="77" t="s">
+      <c r="G78" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="H78" s="77" t="s">
+      <c r="H78" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="I78" s="77" t="s">
+      <c r="I78" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="J78" s="77" t="s">
+      <c r="J78" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="K78" s="74" t="s">
+      <c r="K78" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="L78" s="52" t="s">
+      <c r="L78" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="M78" s="52" t="s">
+      <c r="M78" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="N78" s="52" t="s">
+      <c r="N78" s="99" t="s">
         <v>15</v>
       </c>
       <c r="O78" s="39"/>
-      <c r="P78" s="63" t="s">
+      <c r="P78" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="Q78" s="65">
+      <c r="Q78" s="110">
         <v>45725</v>
       </c>
-      <c r="R78" s="65">
+      <c r="R78" s="110">
         <v>45725</v>
       </c>
-      <c r="S78" s="67" t="s">
+      <c r="S78" s="112" t="s">
         <v>91</v>
       </c>
-      <c r="T78" s="51"/>
+      <c r="T78" s="113"/>
       <c r="U78" s="6"/>
       <c r="V78" s="6"/>
       <c r="W78" s="6"/>
@@ -4909,25 +4909,25 @@
     </row>
     <row r="79" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
-      <c r="B79" s="71"/>
-      <c r="C79" s="78"/>
-      <c r="D79" s="78"/>
-      <c r="E79" s="78"/>
-      <c r="F79" s="78"/>
-      <c r="G79" s="78"/>
-      <c r="H79" s="78"/>
-      <c r="I79" s="78"/>
-      <c r="J79" s="78"/>
-      <c r="K79" s="75"/>
-      <c r="L79" s="62"/>
-      <c r="M79" s="62"/>
-      <c r="N79" s="62"/>
+      <c r="B79" s="81"/>
+      <c r="C79" s="79"/>
+      <c r="D79" s="79"/>
+      <c r="E79" s="79"/>
+      <c r="F79" s="79"/>
+      <c r="G79" s="79"/>
+      <c r="H79" s="79"/>
+      <c r="I79" s="79"/>
+      <c r="J79" s="79"/>
+      <c r="K79" s="117"/>
+      <c r="L79" s="100"/>
+      <c r="M79" s="100"/>
+      <c r="N79" s="100"/>
       <c r="O79" s="39"/>
-      <c r="P79" s="64"/>
-      <c r="Q79" s="66"/>
-      <c r="R79" s="66"/>
-      <c r="S79" s="51"/>
-      <c r="T79" s="51"/>
+      <c r="P79" s="109"/>
+      <c r="Q79" s="111"/>
+      <c r="R79" s="111"/>
+      <c r="S79" s="113"/>
+      <c r="T79" s="113"/>
       <c r="U79" s="10"/>
       <c r="V79" s="10"/>
       <c r="W79" s="10"/>
@@ -4945,25 +4945,25 @@
     </row>
     <row r="80" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
-      <c r="B80" s="71"/>
-      <c r="C80" s="78"/>
-      <c r="D80" s="78"/>
-      <c r="E80" s="78"/>
-      <c r="F80" s="78"/>
-      <c r="G80" s="78"/>
-      <c r="H80" s="78"/>
-      <c r="I80" s="78"/>
-      <c r="J80" s="78"/>
-      <c r="K80" s="75"/>
-      <c r="L80" s="62"/>
-      <c r="M80" s="62"/>
-      <c r="N80" s="62"/>
+      <c r="B80" s="81"/>
+      <c r="C80" s="79"/>
+      <c r="D80" s="79"/>
+      <c r="E80" s="79"/>
+      <c r="F80" s="79"/>
+      <c r="G80" s="79"/>
+      <c r="H80" s="79"/>
+      <c r="I80" s="79"/>
+      <c r="J80" s="79"/>
+      <c r="K80" s="117"/>
+      <c r="L80" s="100"/>
+      <c r="M80" s="100"/>
+      <c r="N80" s="100"/>
       <c r="O80" s="39"/>
-      <c r="P80" s="64"/>
-      <c r="Q80" s="66"/>
-      <c r="R80" s="66"/>
-      <c r="S80" s="51"/>
-      <c r="T80" s="51"/>
+      <c r="P80" s="109"/>
+      <c r="Q80" s="111"/>
+      <c r="R80" s="111"/>
+      <c r="S80" s="113"/>
+      <c r="T80" s="113"/>
       <c r="U80" s="10"/>
       <c r="V80" s="10"/>
       <c r="W80" s="10"/>
@@ -4981,25 +4981,25 @@
     </row>
     <row r="81" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
-      <c r="B81" s="71"/>
-      <c r="C81" s="78"/>
-      <c r="D81" s="78"/>
-      <c r="E81" s="78"/>
-      <c r="F81" s="78"/>
-      <c r="G81" s="78"/>
-      <c r="H81" s="78"/>
-      <c r="I81" s="78"/>
-      <c r="J81" s="78"/>
-      <c r="K81" s="75"/>
-      <c r="L81" s="62"/>
-      <c r="M81" s="62"/>
-      <c r="N81" s="62"/>
+      <c r="B81" s="81"/>
+      <c r="C81" s="79"/>
+      <c r="D81" s="79"/>
+      <c r="E81" s="79"/>
+      <c r="F81" s="79"/>
+      <c r="G81" s="79"/>
+      <c r="H81" s="79"/>
+      <c r="I81" s="79"/>
+      <c r="J81" s="79"/>
+      <c r="K81" s="117"/>
+      <c r="L81" s="100"/>
+      <c r="M81" s="100"/>
+      <c r="N81" s="100"/>
       <c r="O81" s="39"/>
-      <c r="P81" s="64"/>
-      <c r="Q81" s="66"/>
-      <c r="R81" s="66"/>
-      <c r="S81" s="51"/>
-      <c r="T81" s="51"/>
+      <c r="P81" s="109"/>
+      <c r="Q81" s="111"/>
+      <c r="R81" s="111"/>
+      <c r="S81" s="113"/>
+      <c r="T81" s="113"/>
       <c r="U81" s="10"/>
       <c r="V81" s="10"/>
       <c r="W81" s="10"/>
@@ -5017,25 +5017,25 @@
     </row>
     <row r="82" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
-      <c r="B82" s="71"/>
-      <c r="C82" s="78"/>
-      <c r="D82" s="78"/>
-      <c r="E82" s="78"/>
-      <c r="F82" s="78"/>
-      <c r="G82" s="78"/>
-      <c r="H82" s="78"/>
-      <c r="I82" s="78"/>
-      <c r="J82" s="78"/>
-      <c r="K82" s="76"/>
-      <c r="L82" s="53"/>
-      <c r="M82" s="53"/>
-      <c r="N82" s="53"/>
+      <c r="B82" s="81"/>
+      <c r="C82" s="79"/>
+      <c r="D82" s="79"/>
+      <c r="E82" s="79"/>
+      <c r="F82" s="79"/>
+      <c r="G82" s="79"/>
+      <c r="H82" s="79"/>
+      <c r="I82" s="79"/>
+      <c r="J82" s="79"/>
+      <c r="K82" s="118"/>
+      <c r="L82" s="101"/>
+      <c r="M82" s="101"/>
+      <c r="N82" s="101"/>
       <c r="O82" s="39"/>
-      <c r="P82" s="64"/>
-      <c r="Q82" s="66"/>
-      <c r="R82" s="66"/>
-      <c r="S82" s="51"/>
-      <c r="T82" s="51"/>
+      <c r="P82" s="109"/>
+      <c r="Q82" s="111"/>
+      <c r="R82" s="111"/>
+      <c r="S82" s="113"/>
+      <c r="T82" s="113"/>
       <c r="U82" s="10"/>
       <c r="V82" s="10"/>
       <c r="W82" s="10"/>
@@ -5053,33 +5053,33 @@
     </row>
     <row r="83" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
-      <c r="B83" s="71"/>
-      <c r="C83" s="78"/>
-      <c r="D83" s="78"/>
-      <c r="E83" s="78"/>
-      <c r="F83" s="78"/>
-      <c r="G83" s="78"/>
-      <c r="H83" s="78"/>
-      <c r="I83" s="78"/>
-      <c r="J83" s="78"/>
-      <c r="K83" s="74" t="s">
+      <c r="B83" s="81"/>
+      <c r="C83" s="79"/>
+      <c r="D83" s="79"/>
+      <c r="E83" s="79"/>
+      <c r="F83" s="79"/>
+      <c r="G83" s="79"/>
+      <c r="H83" s="79"/>
+      <c r="I83" s="79"/>
+      <c r="J83" s="79"/>
+      <c r="K83" s="116" t="s">
         <v>88</v>
       </c>
-      <c r="L83" s="52" t="s">
+      <c r="L83" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="M83" s="52" t="s">
+      <c r="M83" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="N83" s="52" t="s">
+      <c r="N83" s="99" t="s">
         <v>15</v>
       </c>
       <c r="O83" s="39"/>
-      <c r="P83" s="64"/>
-      <c r="Q83" s="66"/>
-      <c r="R83" s="66"/>
-      <c r="S83" s="51"/>
-      <c r="T83" s="51"/>
+      <c r="P83" s="109"/>
+      <c r="Q83" s="111"/>
+      <c r="R83" s="111"/>
+      <c r="S83" s="113"/>
+      <c r="T83" s="113"/>
       <c r="U83" s="6"/>
       <c r="V83" s="6"/>
       <c r="W83" s="6"/>
@@ -5096,25 +5096,25 @@
     </row>
     <row r="84" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
-      <c r="B84" s="71"/>
-      <c r="C84" s="78"/>
-      <c r="D84" s="78"/>
-      <c r="E84" s="78"/>
-      <c r="F84" s="78"/>
-      <c r="G84" s="78"/>
-      <c r="H84" s="78"/>
-      <c r="I84" s="78"/>
-      <c r="J84" s="78"/>
-      <c r="K84" s="75"/>
-      <c r="L84" s="62"/>
-      <c r="M84" s="62"/>
-      <c r="N84" s="62"/>
+      <c r="B84" s="81"/>
+      <c r="C84" s="79"/>
+      <c r="D84" s="79"/>
+      <c r="E84" s="79"/>
+      <c r="F84" s="79"/>
+      <c r="G84" s="79"/>
+      <c r="H84" s="79"/>
+      <c r="I84" s="79"/>
+      <c r="J84" s="79"/>
+      <c r="K84" s="117"/>
+      <c r="L84" s="100"/>
+      <c r="M84" s="100"/>
+      <c r="N84" s="100"/>
       <c r="O84" s="39"/>
-      <c r="P84" s="64"/>
-      <c r="Q84" s="66"/>
-      <c r="R84" s="66"/>
-      <c r="S84" s="51"/>
-      <c r="T84" s="51"/>
+      <c r="P84" s="109"/>
+      <c r="Q84" s="111"/>
+      <c r="R84" s="111"/>
+      <c r="S84" s="113"/>
+      <c r="T84" s="113"/>
       <c r="U84" s="10"/>
       <c r="V84" s="10"/>
       <c r="W84" s="10"/>
@@ -5131,25 +5131,25 @@
     </row>
     <row r="85" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
-      <c r="B85" s="71"/>
-      <c r="C85" s="78"/>
-      <c r="D85" s="78"/>
-      <c r="E85" s="78"/>
-      <c r="F85" s="78"/>
-      <c r="G85" s="78"/>
-      <c r="H85" s="78"/>
-      <c r="I85" s="78"/>
-      <c r="J85" s="78"/>
-      <c r="K85" s="75"/>
-      <c r="L85" s="62"/>
-      <c r="M85" s="62"/>
-      <c r="N85" s="62"/>
+      <c r="B85" s="81"/>
+      <c r="C85" s="79"/>
+      <c r="D85" s="79"/>
+      <c r="E85" s="79"/>
+      <c r="F85" s="79"/>
+      <c r="G85" s="79"/>
+      <c r="H85" s="79"/>
+      <c r="I85" s="79"/>
+      <c r="J85" s="79"/>
+      <c r="K85" s="117"/>
+      <c r="L85" s="100"/>
+      <c r="M85" s="100"/>
+      <c r="N85" s="100"/>
       <c r="O85" s="39"/>
-      <c r="P85" s="64"/>
-      <c r="Q85" s="66"/>
-      <c r="R85" s="66"/>
-      <c r="S85" s="51"/>
-      <c r="T85" s="51"/>
+      <c r="P85" s="109"/>
+      <c r="Q85" s="111"/>
+      <c r="R85" s="111"/>
+      <c r="S85" s="113"/>
+      <c r="T85" s="113"/>
       <c r="U85" s="6"/>
       <c r="V85" s="6"/>
       <c r="W85" s="6"/>
@@ -5166,25 +5166,25 @@
     </row>
     <row r="86" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
-      <c r="B86" s="71"/>
-      <c r="C86" s="78"/>
-      <c r="D86" s="78"/>
-      <c r="E86" s="78"/>
-      <c r="F86" s="78"/>
-      <c r="G86" s="78"/>
-      <c r="H86" s="78"/>
-      <c r="I86" s="78"/>
-      <c r="J86" s="78"/>
-      <c r="K86" s="75"/>
-      <c r="L86" s="62"/>
-      <c r="M86" s="62"/>
-      <c r="N86" s="62"/>
+      <c r="B86" s="81"/>
+      <c r="C86" s="79"/>
+      <c r="D86" s="79"/>
+      <c r="E86" s="79"/>
+      <c r="F86" s="79"/>
+      <c r="G86" s="79"/>
+      <c r="H86" s="79"/>
+      <c r="I86" s="79"/>
+      <c r="J86" s="79"/>
+      <c r="K86" s="117"/>
+      <c r="L86" s="100"/>
+      <c r="M86" s="100"/>
+      <c r="N86" s="100"/>
       <c r="O86" s="39"/>
-      <c r="P86" s="64"/>
-      <c r="Q86" s="66"/>
-      <c r="R86" s="66"/>
-      <c r="S86" s="51"/>
-      <c r="T86" s="51"/>
+      <c r="P86" s="109"/>
+      <c r="Q86" s="111"/>
+      <c r="R86" s="111"/>
+      <c r="S86" s="113"/>
+      <c r="T86" s="113"/>
       <c r="U86" s="10"/>
       <c r="V86" s="10"/>
       <c r="W86" s="10"/>
@@ -5201,25 +5201,25 @@
     </row>
     <row r="87" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
-      <c r="B87" s="71"/>
-      <c r="C87" s="78"/>
-      <c r="D87" s="78"/>
-      <c r="E87" s="78"/>
-      <c r="F87" s="78"/>
-      <c r="G87" s="78"/>
-      <c r="H87" s="78"/>
-      <c r="I87" s="78"/>
-      <c r="J87" s="78"/>
-      <c r="K87" s="75"/>
-      <c r="L87" s="53"/>
-      <c r="M87" s="53"/>
-      <c r="N87" s="53"/>
+      <c r="B87" s="81"/>
+      <c r="C87" s="79"/>
+      <c r="D87" s="79"/>
+      <c r="E87" s="79"/>
+      <c r="F87" s="79"/>
+      <c r="G87" s="79"/>
+      <c r="H87" s="79"/>
+      <c r="I87" s="79"/>
+      <c r="J87" s="79"/>
+      <c r="K87" s="117"/>
+      <c r="L87" s="101"/>
+      <c r="M87" s="101"/>
+      <c r="N87" s="101"/>
       <c r="O87" s="39"/>
-      <c r="P87" s="64"/>
-      <c r="Q87" s="66"/>
-      <c r="R87" s="66"/>
-      <c r="S87" s="51"/>
-      <c r="T87" s="51"/>
+      <c r="P87" s="109"/>
+      <c r="Q87" s="111"/>
+      <c r="R87" s="111"/>
+      <c r="S87" s="113"/>
+      <c r="T87" s="113"/>
       <c r="U87" s="6"/>
       <c r="V87" s="6"/>
       <c r="W87" s="6"/>
@@ -14650,66 +14650,144 @@
     <row r="1056" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="222">
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="E45:E58"/>
-    <mergeCell ref="J8:J20"/>
-    <mergeCell ref="I8:I20"/>
-    <mergeCell ref="H8:H20"/>
-    <mergeCell ref="G8:G20"/>
-    <mergeCell ref="F8:F20"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="J21:J28"/>
-    <mergeCell ref="F21:F28"/>
-    <mergeCell ref="G21:G28"/>
-    <mergeCell ref="H21:H28"/>
-    <mergeCell ref="I21:I28"/>
-    <mergeCell ref="B68:B77"/>
-    <mergeCell ref="C68:C77"/>
-    <mergeCell ref="D68:D77"/>
-    <mergeCell ref="E68:E77"/>
-    <mergeCell ref="F59:F67"/>
-    <mergeCell ref="G59:G67"/>
-    <mergeCell ref="H59:H67"/>
-    <mergeCell ref="I59:I67"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="D59:D67"/>
-    <mergeCell ref="E59:E67"/>
-    <mergeCell ref="F45:F58"/>
-    <mergeCell ref="G45:G58"/>
-    <mergeCell ref="H45:H58"/>
-    <mergeCell ref="I45:I58"/>
-    <mergeCell ref="B45:B58"/>
-    <mergeCell ref="C45:C58"/>
+    <mergeCell ref="S36:T44"/>
+    <mergeCell ref="S45:T58"/>
+    <mergeCell ref="S59:T67"/>
+    <mergeCell ref="S68:T77"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="N29:N32"/>
+    <mergeCell ref="L33:L35"/>
+    <mergeCell ref="M33:M35"/>
+    <mergeCell ref="N33:N35"/>
+    <mergeCell ref="Q59:Q67"/>
+    <mergeCell ref="R59:R67"/>
+    <mergeCell ref="Q45:Q58"/>
+    <mergeCell ref="R45:R58"/>
+    <mergeCell ref="Q29:Q35"/>
+    <mergeCell ref="R29:R35"/>
+    <mergeCell ref="Q36:Q44"/>
+    <mergeCell ref="R36:R44"/>
+    <mergeCell ref="S29:T35"/>
+    <mergeCell ref="B8:B20"/>
+    <mergeCell ref="C8:C20"/>
+    <mergeCell ref="D8:D20"/>
+    <mergeCell ref="E8:E20"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="C21:C28"/>
+    <mergeCell ref="D21:D28"/>
+    <mergeCell ref="E21:E28"/>
+    <mergeCell ref="L83:L87"/>
+    <mergeCell ref="L68:L72"/>
+    <mergeCell ref="L73:L77"/>
+    <mergeCell ref="L78:L82"/>
+    <mergeCell ref="K78:K82"/>
+    <mergeCell ref="K83:K87"/>
+    <mergeCell ref="I68:I77"/>
+    <mergeCell ref="H68:H77"/>
+    <mergeCell ref="I78:I87"/>
+    <mergeCell ref="H78:H87"/>
+    <mergeCell ref="G78:G87"/>
+    <mergeCell ref="F78:F87"/>
+    <mergeCell ref="F68:F77"/>
+    <mergeCell ref="G68:G77"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M83:M87"/>
+    <mergeCell ref="N83:N87"/>
+    <mergeCell ref="P78:P87"/>
+    <mergeCell ref="Q78:Q87"/>
+    <mergeCell ref="R78:R87"/>
+    <mergeCell ref="S78:T87"/>
+    <mergeCell ref="P68:P77"/>
+    <mergeCell ref="Q68:Q77"/>
+    <mergeCell ref="R68:R77"/>
+    <mergeCell ref="M68:M72"/>
+    <mergeCell ref="N68:N72"/>
+    <mergeCell ref="M73:M77"/>
+    <mergeCell ref="N73:N77"/>
+    <mergeCell ref="M78:M82"/>
+    <mergeCell ref="N78:N82"/>
+    <mergeCell ref="N51:N54"/>
+    <mergeCell ref="L55:L58"/>
+    <mergeCell ref="M55:M58"/>
+    <mergeCell ref="N55:N58"/>
+    <mergeCell ref="L59:L63"/>
+    <mergeCell ref="M59:M63"/>
+    <mergeCell ref="N59:N63"/>
+    <mergeCell ref="L29:L32"/>
+    <mergeCell ref="M29:M32"/>
+    <mergeCell ref="R8:R20"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="J59:J67"/>
+    <mergeCell ref="J45:J58"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="P8:P20"/>
+    <mergeCell ref="Q8:Q20"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="K45:K50"/>
+    <mergeCell ref="K51:K54"/>
+    <mergeCell ref="K55:K58"/>
+    <mergeCell ref="K59:K63"/>
+    <mergeCell ref="K64:K67"/>
+    <mergeCell ref="L41:L44"/>
+    <mergeCell ref="M41:M44"/>
+    <mergeCell ref="N41:N44"/>
+    <mergeCell ref="L45:L50"/>
+    <mergeCell ref="M45:M50"/>
+    <mergeCell ref="N45:N50"/>
+    <mergeCell ref="L51:L54"/>
+    <mergeCell ref="M51:M54"/>
+    <mergeCell ref="S8:T20"/>
+    <mergeCell ref="P21:P28"/>
+    <mergeCell ref="Q21:Q28"/>
+    <mergeCell ref="R21:R28"/>
+    <mergeCell ref="S21:T28"/>
+    <mergeCell ref="J68:J77"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="K68:K72"/>
+    <mergeCell ref="K73:K77"/>
+    <mergeCell ref="L64:L67"/>
+    <mergeCell ref="M64:M67"/>
+    <mergeCell ref="N64:N67"/>
+    <mergeCell ref="P59:P67"/>
+    <mergeCell ref="P45:P58"/>
+    <mergeCell ref="P29:P35"/>
+    <mergeCell ref="P36:P44"/>
+    <mergeCell ref="K36:K40"/>
+    <mergeCell ref="K41:K44"/>
+    <mergeCell ref="L36:L40"/>
+    <mergeCell ref="M36:M40"/>
+    <mergeCell ref="N36:N40"/>
+    <mergeCell ref="J29:J35"/>
+    <mergeCell ref="J36:J44"/>
+    <mergeCell ref="E29:E35"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="K27:K28"/>
     <mergeCell ref="D45:D58"/>
     <mergeCell ref="Q6:Q7"/>
     <mergeCell ref="R6:R7"/>
@@ -14734,144 +14812,66 @@
     <mergeCell ref="B29:B35"/>
     <mergeCell ref="C29:C35"/>
     <mergeCell ref="D29:D35"/>
-    <mergeCell ref="E29:E35"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="S8:T20"/>
-    <mergeCell ref="P21:P28"/>
-    <mergeCell ref="Q21:Q28"/>
-    <mergeCell ref="R21:R28"/>
-    <mergeCell ref="S21:T28"/>
-    <mergeCell ref="J68:J77"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="K68:K72"/>
-    <mergeCell ref="K73:K77"/>
-    <mergeCell ref="L64:L67"/>
-    <mergeCell ref="M64:M67"/>
-    <mergeCell ref="N64:N67"/>
-    <mergeCell ref="P59:P67"/>
-    <mergeCell ref="P45:P58"/>
-    <mergeCell ref="P29:P35"/>
-    <mergeCell ref="P36:P44"/>
-    <mergeCell ref="K36:K40"/>
-    <mergeCell ref="K41:K44"/>
-    <mergeCell ref="L36:L40"/>
-    <mergeCell ref="M36:M40"/>
-    <mergeCell ref="N36:N40"/>
-    <mergeCell ref="J29:J35"/>
-    <mergeCell ref="J36:J44"/>
-    <mergeCell ref="J59:J67"/>
-    <mergeCell ref="J45:J58"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="P8:P20"/>
-    <mergeCell ref="Q8:Q20"/>
-    <mergeCell ref="R8:R20"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="K45:K50"/>
-    <mergeCell ref="K51:K54"/>
-    <mergeCell ref="K55:K58"/>
-    <mergeCell ref="K59:K63"/>
-    <mergeCell ref="K64:K67"/>
-    <mergeCell ref="L41:L44"/>
-    <mergeCell ref="M41:M44"/>
-    <mergeCell ref="N41:N44"/>
-    <mergeCell ref="L45:L50"/>
-    <mergeCell ref="M45:M50"/>
-    <mergeCell ref="N45:N50"/>
-    <mergeCell ref="L51:L54"/>
-    <mergeCell ref="M51:M54"/>
-    <mergeCell ref="N51:N54"/>
-    <mergeCell ref="L55:L58"/>
-    <mergeCell ref="M55:M58"/>
-    <mergeCell ref="N55:N58"/>
-    <mergeCell ref="L59:L63"/>
-    <mergeCell ref="M59:M63"/>
-    <mergeCell ref="N59:N63"/>
-    <mergeCell ref="L29:L32"/>
-    <mergeCell ref="M29:M32"/>
-    <mergeCell ref="M83:M87"/>
-    <mergeCell ref="N83:N87"/>
-    <mergeCell ref="P78:P87"/>
-    <mergeCell ref="Q78:Q87"/>
-    <mergeCell ref="R78:R87"/>
-    <mergeCell ref="S78:T87"/>
-    <mergeCell ref="P68:P77"/>
-    <mergeCell ref="Q68:Q77"/>
-    <mergeCell ref="R68:R77"/>
-    <mergeCell ref="M68:M72"/>
-    <mergeCell ref="N68:N72"/>
-    <mergeCell ref="M73:M77"/>
-    <mergeCell ref="N73:N77"/>
-    <mergeCell ref="M78:M82"/>
-    <mergeCell ref="N78:N82"/>
-    <mergeCell ref="B8:B20"/>
-    <mergeCell ref="C8:C20"/>
-    <mergeCell ref="D8:D20"/>
-    <mergeCell ref="E8:E20"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="C21:C28"/>
-    <mergeCell ref="D21:D28"/>
-    <mergeCell ref="E21:E28"/>
-    <mergeCell ref="L83:L87"/>
-    <mergeCell ref="L68:L72"/>
-    <mergeCell ref="L73:L77"/>
-    <mergeCell ref="L78:L82"/>
-    <mergeCell ref="K78:K82"/>
-    <mergeCell ref="K83:K87"/>
-    <mergeCell ref="I68:I77"/>
-    <mergeCell ref="H68:H77"/>
-    <mergeCell ref="I78:I87"/>
-    <mergeCell ref="H78:H87"/>
-    <mergeCell ref="G78:G87"/>
-    <mergeCell ref="F78:F87"/>
-    <mergeCell ref="F68:F77"/>
-    <mergeCell ref="G68:G77"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="S36:T44"/>
-    <mergeCell ref="S45:T58"/>
-    <mergeCell ref="S59:T67"/>
-    <mergeCell ref="S68:T77"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="N29:N32"/>
-    <mergeCell ref="L33:L35"/>
-    <mergeCell ref="M33:M35"/>
-    <mergeCell ref="N33:N35"/>
-    <mergeCell ref="Q59:Q67"/>
-    <mergeCell ref="R59:R67"/>
-    <mergeCell ref="Q45:Q58"/>
-    <mergeCell ref="R45:R58"/>
-    <mergeCell ref="Q29:Q35"/>
-    <mergeCell ref="R29:R35"/>
-    <mergeCell ref="Q36:Q44"/>
-    <mergeCell ref="R36:R44"/>
-    <mergeCell ref="S29:T35"/>
+    <mergeCell ref="B68:B77"/>
+    <mergeCell ref="C68:C77"/>
+    <mergeCell ref="D68:D77"/>
+    <mergeCell ref="E68:E77"/>
+    <mergeCell ref="F59:F67"/>
+    <mergeCell ref="G59:G67"/>
+    <mergeCell ref="H59:H67"/>
+    <mergeCell ref="I59:I67"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="D59:D67"/>
+    <mergeCell ref="E59:E67"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="E45:E58"/>
+    <mergeCell ref="J8:J20"/>
+    <mergeCell ref="I8:I20"/>
+    <mergeCell ref="H8:H20"/>
+    <mergeCell ref="G8:G20"/>
+    <mergeCell ref="F8:F20"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="J21:J28"/>
+    <mergeCell ref="F21:F28"/>
+    <mergeCell ref="G21:G28"/>
+    <mergeCell ref="H21:H28"/>
+    <mergeCell ref="I21:I28"/>
+    <mergeCell ref="F45:F58"/>
+    <mergeCell ref="G45:G58"/>
+    <mergeCell ref="H45:H58"/>
+    <mergeCell ref="I45:I58"/>
+    <mergeCell ref="B45:B58"/>
+    <mergeCell ref="C45:C58"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P2:P3"/>
   </mergeCells>
   <conditionalFormatting sqref="K88:L90 L91:M1043">
     <cfRule type="cellIs" dxfId="14" priority="32" operator="equal">

--- a/Magno_Valera_Software_Testing.xlsx
+++ b/Magno_Valera_Software_Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua Ean\Documents\magno_valera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685B4986-6553-4534-8517-3B0707D640FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5247AF-CCB2-43E7-8D3A-2B9EE545B7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="72">
   <si>
     <t>Resource Name</t>
   </si>
@@ -241,165 +241,7 @@
     <t>AND: Verify that the filter updates dynamically when switching between disaster types</t>
   </si>
   <si>
-    <t>As the user, I want to receive clear error messages so that went wrong and how to fix it.</t>
-  </si>
-  <si>
-    <t>Handling Errors and Warnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIVEN: My GPS is turned off       WHEN: I try to search for evacuation  centers                                         GIVEN: I have no internet connection                                   WHEN: I try to load the map    GIVEN: I search for an evacuation center in an isolated location                        WHEN: No centers are found                                  </t>
-  </si>
-  <si>
-    <t>THEN: Verify that the system notifies me to enable location services</t>
-  </si>
-  <si>
-    <t>THEN: Verify that an appropriate error message appers</t>
-  </si>
-  <si>
-    <t>THEN: Verify that a message informs me that no centers are available nearbly</t>
-  </si>
-  <si>
-    <t>As an admin, I want to ensure user data is encrypted so that their personal information is secure.</t>
-  </si>
-  <si>
-    <t>Ensuring Data Privacy &amp; Security</t>
-  </si>
-  <si>
-    <t>GIVEN: A user shares their location                                        WHEN: The system transmits data                                                     GIVEN: A user is unauthorized WHEN: They attempt to access restricted admin features</t>
-  </si>
-  <si>
-    <t>THEN: Verify that the location data is encrypted before transmission</t>
-  </si>
-  <si>
-    <t>THEN: Verify that access is denied</t>
-  </si>
-  <si>
-    <t>As an user, I want the app to respond quickly so that I can get information during emergencies without delay.</t>
-  </si>
-  <si>
-    <t>Ensuring System Perfomance Under Load</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>GIVEN: I request a rout to an evacuation center                          WHEN: The system process my request                                   GIVEN: There are</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> 1,000+ user online                                           </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>WHEN: The system is uncer high traffic</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">THEN: Verify that a result is turned within </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>5  seconds</t>
-    </r>
-  </si>
-  <si>
-    <t>THEN: Verify that app remains functional without crashing</t>
-  </si>
-  <si>
-    <t>As an user, I want to receive alerts about disaster so that I can take action immediately.</t>
-  </si>
-  <si>
-    <t>Receiving Disaster Alerts &amp; Updates</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>GIVEN: There is an incoming typhoon                                    WHEN: The local disaster management office issues an alert                                            GIVEN: The app is clossed</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">                    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>WHEN: A critical alert is sent</t>
-    </r>
-  </si>
-  <si>
-    <t>THEN: Verify that the system notifies all users</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">THEN: Verify that the user receives a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>push notification</t>
-    </r>
-  </si>
-  <si>
     <t>GIVEN: I am on the map interface                                     WHEN: I click on an evacuation center capacity,facilities, and contact info</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Improve the notifications system</t>
-  </si>
-  <si>
-    <t>Possibly connect and subscribe to the updates by the Local Disaster Management Office</t>
-  </si>
-  <si>
-    <t>Improve the security of the system</t>
-  </si>
-  <si>
-    <t>Improve error handling and show properly the error messages.</t>
   </si>
   <si>
     <t>Improve the Filter system to show properly the evacuations center</t>
@@ -418,7 +260,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-3409]dd\-mmm\-yy"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,12 +354,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -531,7 +367,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -580,14 +416,8 @@
         <bgColor rgb="FFDADADA"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD8D8D8"/>
-        <bgColor rgb="FFD8D8D8"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="27">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -811,69 +641,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1004,6 +776,156 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1028,209 +950,8 @@
     <xf numFmtId="10" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1592,8 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH1056"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41:N44"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U76" sqref="U76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1620,15 +1341,15 @@
   <sheetData>
     <row r="1" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="69" t="s">
+      <c r="C1" s="84"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="53"/>
+      <c r="F1" s="87"/>
       <c r="G1" s="12"/>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -1638,13 +1359,13 @@
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="53"/>
+      <c r="M1" s="87"/>
       <c r="N1" s="14">
-        <f>COUNTA(K8:K80)</f>
-        <v>25</v>
+        <f>COUNTA(K8:K44)</f>
+        <v>17</v>
       </c>
       <c r="O1" s="15"/>
       <c r="P1" s="16" t="s">
@@ -1679,15 +1400,15 @@
     </row>
     <row r="2" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="69" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="53"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="12"/>
       <c r="H2" s="3" t="s">
         <v>12</v>
@@ -1697,40 +1418,40 @@
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="52" t="s">
+      <c r="L2" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="53"/>
+      <c r="M2" s="87"/>
       <c r="N2" s="22">
-        <f>COUNTIF(L8:L80,"Passed")</f>
-        <v>13</v>
+        <f>COUNTIF(L8:L44,"Passed")</f>
+        <v>17</v>
       </c>
       <c r="O2" s="23"/>
-      <c r="P2" s="44">
+      <c r="P2" s="94">
         <f>(N2+N4)/N1</f>
-        <v>0.52</v>
-      </c>
-      <c r="Q2" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="94">
         <f>(N2+N4)/N1</f>
-        <v>0.52</v>
-      </c>
-      <c r="R2" s="46">
+        <v>1</v>
+      </c>
+      <c r="R2" s="96">
         <f>(N2+N3+N4)/N1</f>
         <v>1</v>
       </c>
-      <c r="S2" s="47">
+      <c r="S2" s="97">
         <f>N3/N1</f>
-        <v>0.48</v>
-      </c>
-      <c r="T2" s="44">
+        <v>0</v>
+      </c>
+      <c r="T2" s="94">
         <f>N2/N1</f>
-        <v>0.52</v>
+        <v>1</v>
       </c>
       <c r="U2" s="24"/>
       <c r="V2" s="25"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="51"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="101"/>
       <c r="Z2" s="11"/>
       <c r="AA2" s="11"/>
       <c r="AB2" s="11"/>
@@ -1743,39 +1464,39 @@
     </row>
     <row r="3" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="93">
         <v>45693</v>
       </c>
-      <c r="F3" s="53"/>
+      <c r="F3" s="87"/>
       <c r="G3" s="12"/>
       <c r="H3" s="26"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="52" t="s">
+      <c r="L3" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="53"/>
+      <c r="M3" s="87"/>
       <c r="N3" s="27">
-        <f>COUNTIF(L8:L80,"Failed")</f>
-        <v>12</v>
+        <f>COUNTIF(L8:L44,"Failed")</f>
+        <v>0</v>
       </c>
       <c r="O3" s="28"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
       <c r="U3" s="29"/>
       <c r="V3" s="30"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
+      <c r="W3" s="99"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
       <c r="AB3" s="11"/>
@@ -1798,12 +1519,12 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="54" t="s">
+      <c r="L4" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="53"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="32">
-        <f>COUNTIF(L8:L80,"NA")</f>
+        <f>COUNTIF(L8:L44,"NA")</f>
         <v>0</v>
       </c>
       <c r="O4" s="33"/>
@@ -1865,57 +1586,57 @@
     </row>
     <row r="6" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="55" t="s">
+      <c r="I6" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="55" t="s">
+      <c r="J6" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="55" t="s">
+      <c r="K6" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="57" t="s">
+      <c r="L6" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="58"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="55" t="s">
+      <c r="M6" s="91"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="65" t="s">
+      <c r="P6" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="55" t="s">
+      <c r="Q6" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="55" t="s">
+      <c r="R6" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="S6" s="74" t="s">
+      <c r="S6" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="T6" s="75"/>
+      <c r="T6" s="79"/>
       <c r="U6" s="37"/>
       <c r="V6" s="37"/>
       <c r="W6" s="37"/>
@@ -1933,16 +1654,16 @@
     </row>
     <row r="7" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
       <c r="L7" s="4" t="s">
         <v>33</v>
       </c>
@@ -1952,12 +1673,12 @@
       <c r="N7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="76"/>
-      <c r="T7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="81"/>
       <c r="U7" s="37"/>
       <c r="V7" s="37"/>
       <c r="W7" s="37"/>
@@ -1975,59 +1696,59 @@
     </row>
     <row r="8" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="B8" s="70">
+      <c r="B8" s="56">
         <v>45697</v>
       </c>
-      <c r="C8" s="66">
+      <c r="C8" s="59">
         <v>1</v>
       </c>
-      <c r="D8" s="66">
+      <c r="D8" s="59">
         <v>1</v>
       </c>
-      <c r="E8" s="66">
+      <c r="E8" s="59">
         <v>1</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G8" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="66" t="s">
+      <c r="H8" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="66" t="s">
+      <c r="I8" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="66" t="s">
+      <c r="J8" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="82" t="s">
+      <c r="K8" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="99" t="s">
+      <c r="L8" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="99" t="s">
+      <c r="M8" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="102" t="s">
+      <c r="N8" s="52" t="s">
         <v>13</v>
       </c>
       <c r="O8" s="39"/>
-      <c r="P8" s="92" t="s">
+      <c r="P8" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="70">
+      <c r="Q8" s="56">
         <v>45697</v>
       </c>
-      <c r="R8" s="70">
+      <c r="R8" s="56">
         <v>45697</v>
       </c>
-      <c r="S8" s="86" t="s">
+      <c r="S8" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="T8" s="87"/>
+      <c r="T8" s="45"/>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
@@ -2045,25 +1766,25 @@
     </row>
     <row r="9" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="104"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="53"/>
       <c r="O9" s="39"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="89"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="47"/>
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
       <c r="W9" s="10"/>
@@ -2081,15 +1802,15 @@
     </row>
     <row r="10" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
       <c r="K10" s="5" t="s">
         <v>44</v>
       </c>
@@ -2103,11 +1824,11 @@
         <v>13</v>
       </c>
       <c r="O10" s="39"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="88"/>
-      <c r="T10" s="89"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="47"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
@@ -2125,33 +1846,33 @@
     </row>
     <row r="11" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="84" t="s">
+      <c r="B11" s="57"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="99" t="s">
+      <c r="L11" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="99" t="s">
+      <c r="M11" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="N11" s="102" t="s">
+      <c r="N11" s="52" t="s">
         <v>13</v>
       </c>
       <c r="O11" s="39"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="88"/>
-      <c r="T11" s="89"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="47"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
@@ -2169,25 +1890,25 @@
     </row>
     <row r="12" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="104"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="53"/>
       <c r="O12" s="39"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="71"/>
-      <c r="S12" s="88"/>
-      <c r="T12" s="89"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="47"/>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
       <c r="W12" s="10"/>
@@ -2205,15 +1926,15 @@
     </row>
     <row r="13" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
       <c r="K13" s="7" t="s">
         <v>46</v>
       </c>
@@ -2227,11 +1948,11 @@
         <v>13</v>
       </c>
       <c r="O13" s="39"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="88"/>
-      <c r="T13" s="89"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="47"/>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
@@ -2249,15 +1970,15 @@
     </row>
     <row r="14" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
       <c r="K14" s="7" t="s">
         <v>47</v>
       </c>
@@ -2273,11 +1994,11 @@
       <c r="O14" s="41">
         <v>1</v>
       </c>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="88"/>
-      <c r="T14" s="89"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="47"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
@@ -2295,33 +2016,33 @@
     </row>
     <row r="15" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="84" t="s">
+      <c r="B15" s="57"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="L15" s="99" t="s">
+      <c r="L15" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="99" t="s">
+      <c r="M15" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="N15" s="102" t="s">
+      <c r="N15" s="52" t="s">
         <v>13</v>
       </c>
       <c r="O15" s="39"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="88"/>
-      <c r="T15" s="89"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="47"/>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
@@ -2339,25 +2060,25 @@
     </row>
     <row r="16" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="104"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="53"/>
       <c r="O16" s="39"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="88"/>
-      <c r="T16" s="89"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="47"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
       <c r="W16" s="10"/>
@@ -2375,33 +2096,33 @@
     </row>
     <row r="17" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="84" t="s">
+      <c r="B17" s="57"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="L17" s="99" t="s">
+      <c r="L17" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M17" s="99" t="s">
+      <c r="M17" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="N17" s="102" t="s">
+      <c r="N17" s="52" t="s">
         <v>13</v>
       </c>
       <c r="O17" s="39"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="88"/>
-      <c r="T17" s="89"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="47"/>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
@@ -2419,25 +2140,25 @@
     </row>
     <row r="18" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="104"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="53"/>
       <c r="O18" s="39"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="88"/>
-      <c r="T18" s="89"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="47"/>
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
       <c r="W18" s="10"/>
@@ -2455,33 +2176,33 @@
     </row>
     <row r="19" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="84" t="s">
+      <c r="B19" s="57"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="L19" s="99" t="s">
+      <c r="L19" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M19" s="99" t="s">
+      <c r="M19" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="N19" s="102" t="s">
+      <c r="N19" s="52" t="s">
         <v>13</v>
       </c>
       <c r="O19" s="39"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="71"/>
-      <c r="R19" s="71"/>
-      <c r="S19" s="88"/>
-      <c r="T19" s="89"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="47"/>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
@@ -2499,25 +2220,25 @@
     </row>
     <row r="20" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="104"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="53"/>
       <c r="O20" s="39"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="90"/>
-      <c r="T20" s="91"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="49"/>
       <c r="U20" s="10"/>
       <c r="V20" s="10"/>
       <c r="W20" s="10"/>
@@ -2535,31 +2256,31 @@
     </row>
     <row r="21" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
-      <c r="B21" s="70">
+      <c r="B21" s="56">
         <v>45725</v>
       </c>
-      <c r="C21" s="66">
+      <c r="C21" s="59">
         <v>2</v>
       </c>
-      <c r="D21" s="66">
+      <c r="D21" s="59">
         <v>2</v>
       </c>
-      <c r="E21" s="66">
+      <c r="E21" s="59">
         <v>2</v>
       </c>
-      <c r="F21" s="66" t="s">
+      <c r="F21" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="66" t="s">
+      <c r="G21" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="66" t="s">
+      <c r="H21" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="66" t="s">
+      <c r="I21" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="66" t="s">
+      <c r="J21" s="59" t="s">
         <v>53</v>
       </c>
       <c r="K21" s="8" t="s">
@@ -2575,19 +2296,19 @@
         <v>13</v>
       </c>
       <c r="O21" s="39"/>
-      <c r="P21" s="92" t="s">
+      <c r="P21" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="Q21" s="70">
+      <c r="Q21" s="56">
         <v>45725</v>
       </c>
-      <c r="R21" s="70">
+      <c r="R21" s="56">
         <v>45725</v>
       </c>
-      <c r="S21" s="95" t="s">
-        <v>97</v>
-      </c>
-      <c r="T21" s="87"/>
+      <c r="S21" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="T21" s="45"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
@@ -2604,33 +2325,33 @@
     </row>
     <row r="22" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="84" t="s">
+      <c r="B22" s="57"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="L22" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="M22" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="N22" s="102" t="s">
-        <v>15</v>
+      <c r="L22" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="N22" s="52" t="s">
+        <v>13</v>
       </c>
       <c r="O22" s="39"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="88"/>
-      <c r="T22" s="89"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="47"/>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
@@ -2647,25 +2368,25 @@
     </row>
     <row r="23" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="101"/>
-      <c r="N23" s="104"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="53"/>
       <c r="O23" s="39"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="88"/>
-      <c r="T23" s="89"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="47"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
       <c r="W23" s="10"/>
@@ -2682,33 +2403,33 @@
     </row>
     <row r="24" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
       <c r="K24" s="8" t="s">
         <v>56</v>
       </c>
       <c r="L24" s="42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M24" s="42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N24" s="38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O24" s="39"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="88"/>
-      <c r="T24" s="89"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="47"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
@@ -2726,33 +2447,33 @@
     </row>
     <row r="25" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="84" t="s">
+      <c r="B25" s="57"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="L25" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="M25" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="N25" s="102" t="s">
-        <v>15</v>
+      <c r="L25" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="M25" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="N25" s="52" t="s">
+        <v>13</v>
       </c>
       <c r="O25" s="39"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="88"/>
-      <c r="T25" s="89"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="47"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
@@ -2770,25 +2491,25 @@
     </row>
     <row r="26" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="104"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="53"/>
       <c r="O26" s="39"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="88"/>
-      <c r="T26" s="89"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="47"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
@@ -2806,33 +2527,33 @@
     </row>
     <row r="27" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="84" t="s">
+      <c r="B27" s="57"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="L27" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="M27" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="N27" s="102" t="s">
-        <v>15</v>
+      <c r="L27" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="N27" s="52" t="s">
+        <v>13</v>
       </c>
       <c r="O27" s="39"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="88"/>
-      <c r="T27" s="89"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="47"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
@@ -2850,25 +2571,25 @@
     </row>
     <row r="28" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="101"/>
-      <c r="M28" s="101"/>
-      <c r="N28" s="104"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="53"/>
       <c r="O28" s="39"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="72"/>
-      <c r="R28" s="72"/>
-      <c r="S28" s="90"/>
-      <c r="T28" s="91"/>
+      <c r="P28" s="65"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="49"/>
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
       <c r="W28" s="10"/>
@@ -2886,59 +2607,59 @@
     </row>
     <row r="29" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="70">
+      <c r="B29" s="56">
         <v>45725</v>
       </c>
-      <c r="C29" s="66">
+      <c r="C29" s="59">
         <v>3</v>
       </c>
-      <c r="D29" s="66">
+      <c r="D29" s="59">
         <v>2</v>
       </c>
-      <c r="E29" s="66">
+      <c r="E29" s="59">
         <v>3</v>
       </c>
-      <c r="F29" s="66" t="s">
+      <c r="F29" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="66" t="s">
+      <c r="G29" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="66" t="s">
+      <c r="H29" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="I29" s="66" t="s">
+      <c r="I29" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="J29" s="105" t="s">
-        <v>89</v>
-      </c>
-      <c r="K29" s="96" t="s">
+      <c r="J29" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="K29" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="L29" s="99" t="s">
+      <c r="L29" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M29" s="99" t="s">
+      <c r="M29" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="N29" s="102" t="s">
+      <c r="N29" s="52" t="s">
         <v>13</v>
       </c>
       <c r="O29" s="39"/>
-      <c r="P29" s="92" t="s">
+      <c r="P29" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="Q29" s="70">
+      <c r="Q29" s="56">
         <v>45725</v>
       </c>
-      <c r="R29" s="70">
+      <c r="R29" s="56">
         <v>45725</v>
       </c>
-      <c r="S29" s="95" t="s">
-        <v>96</v>
-      </c>
-      <c r="T29" s="87"/>
+      <c r="S29" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="T29" s="45"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
@@ -2956,25 +2677,25 @@
     </row>
     <row r="30" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="97"/>
-      <c r="L30" s="100"/>
-      <c r="M30" s="100"/>
-      <c r="N30" s="103"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="54"/>
       <c r="O30" s="39"/>
-      <c r="P30" s="93"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="88"/>
-      <c r="T30" s="89"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="46"/>
+      <c r="T30" s="47"/>
       <c r="U30" s="10"/>
       <c r="V30" s="10"/>
       <c r="W30" s="10"/>
@@ -2992,25 +2713,25 @@
     </row>
     <row r="31" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="106"/>
-      <c r="K31" s="97"/>
-      <c r="L31" s="100"/>
-      <c r="M31" s="100"/>
-      <c r="N31" s="103"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="54"/>
       <c r="O31" s="39"/>
-      <c r="P31" s="93"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="71"/>
-      <c r="S31" s="88"/>
-      <c r="T31" s="89"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="46"/>
+      <c r="T31" s="47"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
@@ -3028,27 +2749,27 @@
     </row>
     <row r="32" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="97" t="s">
+      <c r="B32" s="57"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="L32" s="101"/>
-      <c r="M32" s="101"/>
-      <c r="N32" s="104"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="53"/>
       <c r="O32" s="39"/>
-      <c r="P32" s="93"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="71"/>
-      <c r="S32" s="88"/>
-      <c r="T32" s="89"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="47"/>
       <c r="U32" s="10"/>
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
@@ -3066,31 +2787,31 @@
     </row>
     <row r="33" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="97"/>
-      <c r="L33" s="99" t="s">
+      <c r="B33" s="57"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M33" s="99" t="s">
+      <c r="M33" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="N33" s="99" t="s">
+      <c r="N33" s="50" t="s">
         <v>13</v>
       </c>
       <c r="O33" s="39"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="88"/>
-      <c r="T33" s="89"/>
+      <c r="P33" s="64"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="57"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="47"/>
       <c r="U33" s="10"/>
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
@@ -3108,25 +2829,25 @@
     </row>
     <row r="34" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="97"/>
-      <c r="L34" s="100"/>
-      <c r="M34" s="100"/>
-      <c r="N34" s="100"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
       <c r="O34" s="39"/>
-      <c r="P34" s="93"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="71"/>
-      <c r="S34" s="88"/>
-      <c r="T34" s="89"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="46"/>
+      <c r="T34" s="47"/>
       <c r="U34" s="10"/>
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
@@ -3144,25 +2865,25 @@
     </row>
     <row r="35" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="107"/>
-      <c r="K35" s="98"/>
-      <c r="L35" s="101"/>
-      <c r="M35" s="101"/>
-      <c r="N35" s="101"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
       <c r="O35" s="39"/>
-      <c r="P35" s="94"/>
-      <c r="Q35" s="72"/>
-      <c r="R35" s="72"/>
-      <c r="S35" s="90"/>
-      <c r="T35" s="91"/>
+      <c r="P35" s="65"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="49"/>
       <c r="U35" s="10"/>
       <c r="V35" s="10"/>
       <c r="W35" s="10"/>
@@ -3180,59 +2901,59 @@
     </row>
     <row r="36" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="70">
+      <c r="B36" s="56">
         <v>45725</v>
       </c>
-      <c r="C36" s="66">
+      <c r="C36" s="59">
         <v>4</v>
       </c>
-      <c r="D36" s="66">
+      <c r="D36" s="59">
         <v>2</v>
       </c>
-      <c r="E36" s="66">
+      <c r="E36" s="59">
         <v>4</v>
       </c>
-      <c r="F36" s="67" t="s">
+      <c r="F36" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="G36" s="66" t="s">
+      <c r="G36" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="H36" s="66" t="s">
+      <c r="H36" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="I36" s="66" t="s">
+      <c r="I36" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="J36" s="66" t="s">
+      <c r="J36" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="K36" s="96" t="s">
+      <c r="K36" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="L36" s="99" t="s">
+      <c r="L36" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M36" s="99" t="s">
+      <c r="M36" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="N36" s="102" t="s">
+      <c r="N36" s="52" t="s">
         <v>13</v>
       </c>
       <c r="O36" s="39"/>
-      <c r="P36" s="92" t="s">
+      <c r="P36" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="Q36" s="70">
+      <c r="Q36" s="56">
         <v>45725</v>
       </c>
-      <c r="R36" s="70">
+      <c r="R36" s="56">
         <v>45725</v>
       </c>
-      <c r="S36" s="95" t="s">
-        <v>95</v>
-      </c>
-      <c r="T36" s="87"/>
+      <c r="S36" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="T36" s="45"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
       <c r="W36" s="6"/>
@@ -3249,25 +2970,25 @@
     </row>
     <row r="37" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="97"/>
-      <c r="L37" s="100"/>
-      <c r="M37" s="100"/>
-      <c r="N37" s="103"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="54"/>
       <c r="O37" s="39"/>
-      <c r="P37" s="93"/>
-      <c r="Q37" s="71"/>
-      <c r="R37" s="71"/>
-      <c r="S37" s="88"/>
-      <c r="T37" s="89"/>
+      <c r="P37" s="64"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="57"/>
+      <c r="S37" s="46"/>
+      <c r="T37" s="47"/>
       <c r="U37" s="10"/>
       <c r="V37" s="10"/>
       <c r="W37" s="10"/>
@@ -3284,25 +3005,25 @@
     </row>
     <row r="38" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
-      <c r="B38" s="71"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="97"/>
-      <c r="L38" s="100"/>
-      <c r="M38" s="100"/>
-      <c r="N38" s="103"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="54"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="93"/>
-      <c r="Q38" s="71"/>
-      <c r="R38" s="71"/>
-      <c r="S38" s="88"/>
-      <c r="T38" s="89"/>
+      <c r="P38" s="64"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="57"/>
+      <c r="S38" s="46"/>
+      <c r="T38" s="47"/>
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
       <c r="W38" s="6"/>
@@ -3319,25 +3040,25 @@
     </row>
     <row r="39" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
-      <c r="B39" s="71"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="97"/>
-      <c r="L39" s="100"/>
-      <c r="M39" s="100"/>
-      <c r="N39" s="103"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="54"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="93"/>
-      <c r="Q39" s="71"/>
-      <c r="R39" s="71"/>
-      <c r="S39" s="88"/>
-      <c r="T39" s="89"/>
+      <c r="P39" s="64"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="57"/>
+      <c r="S39" s="46"/>
+      <c r="T39" s="47"/>
       <c r="U39" s="10"/>
       <c r="V39" s="10"/>
       <c r="W39" s="10"/>
@@ -3354,25 +3075,25 @@
     </row>
     <row r="40" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
-      <c r="B40" s="71"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="98"/>
-      <c r="L40" s="101"/>
-      <c r="M40" s="101"/>
-      <c r="N40" s="104"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="53"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="93"/>
-      <c r="Q40" s="71"/>
-      <c r="R40" s="71"/>
-      <c r="S40" s="88"/>
-      <c r="T40" s="89"/>
+      <c r="P40" s="64"/>
+      <c r="Q40" s="57"/>
+      <c r="R40" s="57"/>
+      <c r="S40" s="46"/>
+      <c r="T40" s="47"/>
       <c r="U40" s="10"/>
       <c r="V40" s="10"/>
       <c r="W40" s="10"/>
@@ -3389,33 +3110,33 @@
     </row>
     <row r="41" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
-      <c r="B41" s="71"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="67"/>
-      <c r="K41" s="96" t="s">
+      <c r="B41" s="57"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="L41" s="99" t="s">
+      <c r="L41" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M41" s="99" t="s">
+      <c r="M41" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="N41" s="99" t="s">
+      <c r="N41" s="50" t="s">
         <v>13</v>
       </c>
       <c r="O41" s="39"/>
-      <c r="P41" s="93"/>
-      <c r="Q41" s="71"/>
-      <c r="R41" s="71"/>
-      <c r="S41" s="88"/>
-      <c r="T41" s="89"/>
+      <c r="P41" s="64"/>
+      <c r="Q41" s="57"/>
+      <c r="R41" s="57"/>
+      <c r="S41" s="46"/>
+      <c r="T41" s="47"/>
       <c r="U41" s="10"/>
       <c r="V41" s="10"/>
       <c r="W41" s="10"/>
@@ -3432,25 +3153,25 @@
     </row>
     <row r="42" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
-      <c r="K42" s="97"/>
-      <c r="L42" s="100"/>
-      <c r="M42" s="100"/>
-      <c r="N42" s="100"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="55"/>
       <c r="O42" s="39"/>
-      <c r="P42" s="93"/>
-      <c r="Q42" s="71"/>
-      <c r="R42" s="71"/>
-      <c r="S42" s="88"/>
-      <c r="T42" s="89"/>
+      <c r="P42" s="64"/>
+      <c r="Q42" s="57"/>
+      <c r="R42" s="57"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="47"/>
       <c r="U42" s="10"/>
       <c r="V42" s="10"/>
       <c r="W42" s="10"/>
@@ -3467,25 +3188,25 @@
     </row>
     <row r="43" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
-      <c r="B43" s="71"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="67"/>
-      <c r="K43" s="97"/>
-      <c r="L43" s="100"/>
-      <c r="M43" s="100"/>
-      <c r="N43" s="100"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="55"/>
+      <c r="N43" s="55"/>
       <c r="O43" s="39"/>
-      <c r="P43" s="93"/>
-      <c r="Q43" s="71"/>
-      <c r="R43" s="71"/>
-      <c r="S43" s="88"/>
-      <c r="T43" s="89"/>
+      <c r="P43" s="64"/>
+      <c r="Q43" s="57"/>
+      <c r="R43" s="57"/>
+      <c r="S43" s="46"/>
+      <c r="T43" s="47"/>
       <c r="U43" s="10"/>
       <c r="V43" s="10"/>
       <c r="W43" s="10"/>
@@ -3502,25 +3223,25 @@
     </row>
     <row r="44" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="68"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="98"/>
-      <c r="L44" s="101"/>
-      <c r="M44" s="101"/>
-      <c r="N44" s="101"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="51"/>
+      <c r="N44" s="51"/>
       <c r="O44" s="39"/>
-      <c r="P44" s="94"/>
-      <c r="Q44" s="72"/>
-      <c r="R44" s="72"/>
-      <c r="S44" s="90"/>
-      <c r="T44" s="91"/>
+      <c r="P44" s="65"/>
+      <c r="Q44" s="58"/>
+      <c r="R44" s="58"/>
+      <c r="S44" s="48"/>
+      <c r="T44" s="49"/>
       <c r="U44" s="10"/>
       <c r="V44" s="10"/>
       <c r="W44" s="10"/>
@@ -3536,1184 +3257,329 @@
       <c r="AG44" s="10"/>
     </row>
     <row r="45" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
-      <c r="B45" s="70">
-        <v>45725</v>
-      </c>
-      <c r="C45" s="66">
-        <v>6</v>
-      </c>
-      <c r="D45" s="66">
-        <v>2</v>
-      </c>
-      <c r="E45" s="66">
-        <v>5</v>
-      </c>
-      <c r="F45" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="G45" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="H45" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="I45" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="J45" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="K45" s="96" t="s">
-        <v>71</v>
-      </c>
-      <c r="L45" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="M45" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="N45" s="102" t="s">
-        <v>15</v>
-      </c>
-      <c r="O45" s="39"/>
-      <c r="P45" s="92" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q45" s="70">
-        <v>45725</v>
-      </c>
-      <c r="R45" s="70">
-        <v>45725</v>
-      </c>
-      <c r="S45" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="T45" s="87"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
-      <c r="AA45" s="6"/>
-      <c r="AB45" s="6"/>
-      <c r="AC45" s="6"/>
-      <c r="AD45" s="6"/>
-      <c r="AE45" s="6"/>
-      <c r="AF45" s="6"/>
-      <c r="AG45" s="6"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
     </row>
     <row r="46" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
-      <c r="B46" s="71"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="67"/>
-      <c r="J46" s="67"/>
-      <c r="K46" s="97"/>
-      <c r="L46" s="100"/>
-      <c r="M46" s="100"/>
-      <c r="N46" s="103"/>
-      <c r="O46" s="39"/>
-      <c r="P46" s="93"/>
-      <c r="Q46" s="71"/>
-      <c r="R46" s="71"/>
-      <c r="S46" s="88"/>
-      <c r="T46" s="89"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="10"/>
-      <c r="W46" s="10"/>
-      <c r="X46" s="10"/>
-      <c r="Y46" s="10"/>
-      <c r="Z46" s="10"/>
-      <c r="AA46" s="10"/>
-      <c r="AB46" s="10"/>
-      <c r="AC46" s="10"/>
-      <c r="AD46" s="10"/>
-      <c r="AE46" s="10"/>
-      <c r="AF46" s="10"/>
-      <c r="AG46" s="10"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
-      <c r="B47" s="71"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="67"/>
-      <c r="K47" s="97"/>
-      <c r="L47" s="100"/>
-      <c r="M47" s="100"/>
-      <c r="N47" s="103"/>
-      <c r="O47" s="39"/>
-      <c r="P47" s="93"/>
-      <c r="Q47" s="71"/>
-      <c r="R47" s="71"/>
-      <c r="S47" s="88"/>
-      <c r="T47" s="89"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6"/>
-      <c r="W47" s="6"/>
-      <c r="X47" s="6"/>
-      <c r="Y47" s="6"/>
-      <c r="Z47" s="6"/>
-      <c r="AA47" s="6"/>
-      <c r="AB47" s="6"/>
-      <c r="AC47" s="6"/>
-      <c r="AD47" s="6"/>
-      <c r="AE47" s="6"/>
-      <c r="AF47" s="6"/>
-      <c r="AG47" s="6"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
     </row>
     <row r="48" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
-      <c r="B48" s="71"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="67"/>
-      <c r="K48" s="97"/>
-      <c r="L48" s="100"/>
-      <c r="M48" s="100"/>
-      <c r="N48" s="103"/>
-      <c r="O48" s="39"/>
-      <c r="P48" s="93"/>
-      <c r="Q48" s="71"/>
-      <c r="R48" s="71"/>
-      <c r="S48" s="88"/>
-      <c r="T48" s="89"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="10"/>
-      <c r="W48" s="10"/>
-      <c r="X48" s="10"/>
-      <c r="Y48" s="10"/>
-      <c r="Z48" s="10"/>
-      <c r="AA48" s="10"/>
-      <c r="AB48" s="10"/>
-      <c r="AC48" s="10"/>
-      <c r="AD48" s="10"/>
-      <c r="AE48" s="10"/>
-      <c r="AF48" s="10"/>
-      <c r="AG48" s="10"/>
-    </row>
-    <row r="49" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
-      <c r="B49" s="71"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="67"/>
-      <c r="J49" s="67"/>
-      <c r="K49" s="97"/>
-      <c r="L49" s="100"/>
-      <c r="M49" s="100"/>
-      <c r="N49" s="103"/>
-      <c r="O49" s="39"/>
-      <c r="P49" s="93"/>
-      <c r="Q49" s="71"/>
-      <c r="R49" s="71"/>
-      <c r="S49" s="88"/>
-      <c r="T49" s="89"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
-      <c r="W49" s="6"/>
-      <c r="X49" s="6"/>
-      <c r="Y49" s="6"/>
-      <c r="Z49" s="6"/>
-      <c r="AA49" s="6"/>
-      <c r="AB49" s="6"/>
-      <c r="AC49" s="6"/>
-      <c r="AD49" s="6"/>
-      <c r="AE49" s="6"/>
-      <c r="AF49" s="6"/>
-      <c r="AG49" s="6"/>
-    </row>
-    <row r="50" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
-      <c r="B50" s="71"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="67"/>
-      <c r="K50" s="98"/>
-      <c r="L50" s="101"/>
-      <c r="M50" s="101"/>
-      <c r="N50" s="104"/>
-      <c r="O50" s="39"/>
-      <c r="P50" s="93"/>
-      <c r="Q50" s="71"/>
-      <c r="R50" s="71"/>
-      <c r="S50" s="88"/>
-      <c r="T50" s="89"/>
-      <c r="U50" s="10"/>
-      <c r="V50" s="10"/>
-      <c r="W50" s="10"/>
-      <c r="X50" s="10"/>
-      <c r="Y50" s="10"/>
-      <c r="Z50" s="10"/>
-      <c r="AA50" s="10"/>
-      <c r="AB50" s="10"/>
-      <c r="AC50" s="10"/>
-      <c r="AD50" s="10"/>
-      <c r="AE50" s="10"/>
-      <c r="AF50" s="10"/>
-      <c r="AG50" s="10"/>
-    </row>
-    <row r="51" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
-      <c r="B51" s="71"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="67"/>
-      <c r="J51" s="67"/>
-      <c r="K51" s="96" t="s">
-        <v>72</v>
-      </c>
-      <c r="L51" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="M51" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="N51" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="O51" s="39"/>
-      <c r="P51" s="93"/>
-      <c r="Q51" s="71"/>
-      <c r="R51" s="71"/>
-      <c r="S51" s="88"/>
-      <c r="T51" s="89"/>
-      <c r="U51" s="10"/>
-      <c r="V51" s="10"/>
-      <c r="W51" s="10"/>
-      <c r="X51" s="10"/>
-      <c r="Y51" s="10"/>
-      <c r="Z51" s="10"/>
-      <c r="AA51" s="10"/>
-      <c r="AB51" s="10"/>
-      <c r="AC51" s="10"/>
-      <c r="AD51" s="10"/>
-      <c r="AE51" s="10"/>
-      <c r="AF51" s="10"/>
-      <c r="AG51" s="10"/>
-    </row>
-    <row r="52" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
-      <c r="B52" s="71"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="67"/>
-      <c r="I52" s="67"/>
-      <c r="J52" s="67"/>
-      <c r="K52" s="97"/>
-      <c r="L52" s="100"/>
-      <c r="M52" s="100"/>
-      <c r="N52" s="100"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="93"/>
-      <c r="Q52" s="71"/>
-      <c r="R52" s="71"/>
-      <c r="S52" s="88"/>
-      <c r="T52" s="89"/>
-      <c r="U52" s="10"/>
-      <c r="V52" s="10"/>
-      <c r="W52" s="10"/>
-      <c r="X52" s="10"/>
-      <c r="Y52" s="10"/>
-      <c r="Z52" s="10"/>
-      <c r="AA52" s="10"/>
-      <c r="AB52" s="10"/>
-      <c r="AC52" s="10"/>
-      <c r="AD52" s="10"/>
-      <c r="AE52" s="10"/>
-      <c r="AF52" s="10"/>
-      <c r="AG52" s="10"/>
-    </row>
-    <row r="53" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
-      <c r="B53" s="71"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="67"/>
-      <c r="J53" s="67"/>
-      <c r="K53" s="97"/>
-      <c r="L53" s="100"/>
-      <c r="M53" s="100"/>
-      <c r="N53" s="100"/>
-      <c r="O53" s="39"/>
-      <c r="P53" s="93"/>
-      <c r="Q53" s="71"/>
-      <c r="R53" s="71"/>
-      <c r="S53" s="88"/>
-      <c r="T53" s="89"/>
-      <c r="U53" s="10"/>
-      <c r="V53" s="10"/>
-      <c r="W53" s="10"/>
-      <c r="X53" s="10"/>
-      <c r="Y53" s="10"/>
-      <c r="Z53" s="10"/>
-      <c r="AA53" s="10"/>
-      <c r="AB53" s="10"/>
-      <c r="AC53" s="10"/>
-      <c r="AD53" s="10"/>
-      <c r="AE53" s="10"/>
-      <c r="AF53" s="10"/>
-      <c r="AG53" s="10"/>
-    </row>
-    <row r="54" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
-      <c r="B54" s="71"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
-      <c r="K54" s="98"/>
-      <c r="L54" s="101"/>
-      <c r="M54" s="101"/>
-      <c r="N54" s="101"/>
-      <c r="O54" s="39"/>
-      <c r="P54" s="93"/>
-      <c r="Q54" s="71"/>
-      <c r="R54" s="71"/>
-      <c r="S54" s="88"/>
-      <c r="T54" s="89"/>
-      <c r="U54" s="10"/>
-      <c r="V54" s="10"/>
-      <c r="W54" s="10"/>
-      <c r="X54" s="10"/>
-      <c r="Y54" s="10"/>
-      <c r="Z54" s="10"/>
-      <c r="AA54" s="10"/>
-      <c r="AB54" s="10"/>
-      <c r="AC54" s="10"/>
-      <c r="AD54" s="10"/>
-      <c r="AE54" s="10"/>
-      <c r="AF54" s="10"/>
-      <c r="AG54" s="10"/>
-    </row>
-    <row r="55" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
-      <c r="B55" s="71"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="67"/>
-      <c r="J55" s="67"/>
-      <c r="K55" s="96" t="s">
-        <v>73</v>
-      </c>
-      <c r="L55" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="M55" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="N55" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="O55" s="39"/>
-      <c r="P55" s="93"/>
-      <c r="Q55" s="71"/>
-      <c r="R55" s="71"/>
-      <c r="S55" s="88"/>
-      <c r="T55" s="89"/>
-      <c r="U55" s="10"/>
-      <c r="V55" s="10"/>
-      <c r="W55" s="10"/>
-      <c r="X55" s="10"/>
-      <c r="Y55" s="10"/>
-      <c r="Z55" s="10"/>
-      <c r="AA55" s="10"/>
-      <c r="AB55" s="10"/>
-      <c r="AC55" s="10"/>
-      <c r="AD55" s="10"/>
-      <c r="AE55" s="10"/>
-      <c r="AF55" s="10"/>
-      <c r="AG55" s="10"/>
-    </row>
-    <row r="56" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="40"/>
-      <c r="B56" s="71"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="67"/>
-      <c r="J56" s="67"/>
-      <c r="K56" s="97"/>
-      <c r="L56" s="100"/>
-      <c r="M56" s="100"/>
-      <c r="N56" s="100"/>
-      <c r="O56" s="39"/>
-      <c r="P56" s="93"/>
-      <c r="Q56" s="71"/>
-      <c r="R56" s="71"/>
-      <c r="S56" s="88"/>
-      <c r="T56" s="89"/>
-      <c r="U56" s="10"/>
-      <c r="V56" s="10"/>
-      <c r="W56" s="10"/>
-      <c r="X56" s="10"/>
-      <c r="Y56" s="10"/>
-      <c r="Z56" s="10"/>
-      <c r="AA56" s="10"/>
-      <c r="AB56" s="10"/>
-      <c r="AC56" s="10"/>
-      <c r="AD56" s="10"/>
-      <c r="AE56" s="10"/>
-      <c r="AF56" s="10"/>
-      <c r="AG56" s="10"/>
-    </row>
-    <row r="57" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
-      <c r="B57" s="71"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="67"/>
-      <c r="K57" s="97"/>
-      <c r="L57" s="100"/>
-      <c r="M57" s="100"/>
-      <c r="N57" s="100"/>
-      <c r="O57" s="39"/>
-      <c r="P57" s="93"/>
-      <c r="Q57" s="71"/>
-      <c r="R57" s="71"/>
-      <c r="S57" s="88"/>
-      <c r="T57" s="89"/>
-      <c r="U57" s="10"/>
-      <c r="V57" s="10"/>
-      <c r="W57" s="10"/>
-      <c r="X57" s="10"/>
-      <c r="Y57" s="10"/>
-      <c r="Z57" s="10"/>
-      <c r="AA57" s="10"/>
-      <c r="AB57" s="10"/>
-      <c r="AC57" s="10"/>
-      <c r="AD57" s="10"/>
-      <c r="AE57" s="10"/>
-      <c r="AF57" s="10"/>
-      <c r="AG57" s="10"/>
-    </row>
-    <row r="58" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
-      <c r="B58" s="72"/>
-      <c r="C58" s="68"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="68"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="67"/>
-      <c r="K58" s="98"/>
-      <c r="L58" s="101"/>
-      <c r="M58" s="101"/>
-      <c r="N58" s="101"/>
-      <c r="O58" s="39"/>
-      <c r="P58" s="94"/>
-      <c r="Q58" s="72"/>
-      <c r="R58" s="72"/>
-      <c r="S58" s="90"/>
-      <c r="T58" s="91"/>
-      <c r="U58" s="10"/>
-      <c r="V58" s="10"/>
-      <c r="W58" s="10"/>
-      <c r="X58" s="10"/>
-      <c r="Y58" s="10"/>
-      <c r="Z58" s="10"/>
-      <c r="AA58" s="10"/>
-      <c r="AB58" s="10"/>
-      <c r="AC58" s="10"/>
-      <c r="AD58" s="10"/>
-      <c r="AE58" s="10"/>
-      <c r="AF58" s="10"/>
-      <c r="AG58" s="10"/>
-    </row>
-    <row r="59" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="40"/>
-      <c r="B59" s="70">
-        <v>45725</v>
-      </c>
-      <c r="C59" s="66">
-        <v>7</v>
-      </c>
-      <c r="D59" s="66">
-        <v>2</v>
-      </c>
-      <c r="E59" s="66">
-        <v>6</v>
-      </c>
-      <c r="F59" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="G59" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="H59" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="I59" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="J59" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="K59" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="L59" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="M59" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="N59" s="102" t="s">
-        <v>15</v>
-      </c>
-      <c r="O59" s="39"/>
-      <c r="P59" s="92" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q59" s="70">
-        <v>45725</v>
-      </c>
-      <c r="R59" s="70">
-        <v>45725</v>
-      </c>
-      <c r="S59" s="95" t="s">
-        <v>93</v>
-      </c>
-      <c r="T59" s="87"/>
-      <c r="U59" s="10"/>
-      <c r="V59" s="10"/>
-      <c r="W59" s="10"/>
-      <c r="X59" s="10"/>
-      <c r="Y59" s="10"/>
-      <c r="Z59" s="10"/>
-      <c r="AA59" s="10"/>
-      <c r="AB59" s="10"/>
-      <c r="AC59" s="10"/>
-      <c r="AD59" s="10"/>
-      <c r="AE59" s="10"/>
-      <c r="AF59" s="10"/>
-      <c r="AG59" s="10"/>
-    </row>
-    <row r="60" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
-      <c r="B60" s="71"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="67"/>
-      <c r="J60" s="67"/>
-      <c r="K60" s="97"/>
-      <c r="L60" s="100"/>
-      <c r="M60" s="100"/>
-      <c r="N60" s="103"/>
-      <c r="O60" s="39"/>
-      <c r="P60" s="93"/>
-      <c r="Q60" s="71"/>
-      <c r="R60" s="71"/>
-      <c r="S60" s="88"/>
-      <c r="T60" s="89"/>
-      <c r="U60" s="10"/>
-      <c r="V60" s="10"/>
-      <c r="W60" s="10"/>
-      <c r="X60" s="10"/>
-      <c r="Y60" s="10"/>
-      <c r="Z60" s="10"/>
-      <c r="AA60" s="10"/>
-      <c r="AB60" s="10"/>
-      <c r="AC60" s="10"/>
-      <c r="AD60" s="10"/>
-      <c r="AE60" s="10"/>
-      <c r="AF60" s="10"/>
-      <c r="AG60" s="10"/>
-    </row>
-    <row r="61" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
-      <c r="B61" s="71"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="67"/>
-      <c r="I61" s="67"/>
-      <c r="J61" s="67"/>
-      <c r="K61" s="97"/>
-      <c r="L61" s="100"/>
-      <c r="M61" s="100"/>
-      <c r="N61" s="103"/>
-      <c r="O61" s="39"/>
-      <c r="P61" s="93"/>
-      <c r="Q61" s="71"/>
-      <c r="R61" s="71"/>
-      <c r="S61" s="88"/>
-      <c r="T61" s="89"/>
-      <c r="U61" s="10"/>
-      <c r="V61" s="10"/>
-      <c r="W61" s="10"/>
-      <c r="X61" s="10"/>
-      <c r="Y61" s="10"/>
-      <c r="Z61" s="10"/>
-      <c r="AA61" s="10"/>
-      <c r="AB61" s="10"/>
-      <c r="AC61" s="10"/>
-      <c r="AD61" s="10"/>
-      <c r="AE61" s="10"/>
-      <c r="AF61" s="10"/>
-      <c r="AG61" s="10"/>
-    </row>
-    <row r="62" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
-      <c r="B62" s="71"/>
-      <c r="C62" s="67"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="67"/>
-      <c r="H62" s="67"/>
-      <c r="I62" s="67"/>
-      <c r="J62" s="67"/>
-      <c r="K62" s="97"/>
-      <c r="L62" s="100"/>
-      <c r="M62" s="100"/>
-      <c r="N62" s="103"/>
-      <c r="O62" s="39"/>
-      <c r="P62" s="93"/>
-      <c r="Q62" s="71"/>
-      <c r="R62" s="71"/>
-      <c r="S62" s="88"/>
-      <c r="T62" s="89"/>
-      <c r="U62" s="10"/>
-      <c r="V62" s="10"/>
-      <c r="W62" s="10"/>
-      <c r="X62" s="10"/>
-      <c r="Y62" s="10"/>
-      <c r="Z62" s="10"/>
-      <c r="AA62" s="10"/>
-      <c r="AB62" s="10"/>
-      <c r="AC62" s="10"/>
-      <c r="AD62" s="10"/>
-      <c r="AE62" s="10"/>
-      <c r="AF62" s="10"/>
-      <c r="AG62" s="10"/>
-    </row>
-    <row r="63" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
-      <c r="B63" s="71"/>
-      <c r="C63" s="67"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="67"/>
-      <c r="I63" s="67"/>
-      <c r="J63" s="67"/>
-      <c r="K63" s="98"/>
-      <c r="L63" s="101"/>
-      <c r="M63" s="101"/>
-      <c r="N63" s="104"/>
-      <c r="O63" s="39"/>
-      <c r="P63" s="93"/>
-      <c r="Q63" s="71"/>
-      <c r="R63" s="71"/>
-      <c r="S63" s="88"/>
-      <c r="T63" s="89"/>
-      <c r="U63" s="6"/>
-      <c r="V63" s="6"/>
-      <c r="W63" s="6"/>
-      <c r="X63" s="6"/>
-      <c r="Y63" s="6"/>
-      <c r="Z63" s="6"/>
-      <c r="AA63" s="6"/>
-      <c r="AB63" s="6"/>
-      <c r="AC63" s="6"/>
-      <c r="AD63" s="6"/>
-      <c r="AE63" s="6"/>
-      <c r="AF63" s="6"/>
-      <c r="AG63" s="6"/>
-    </row>
-    <row r="64" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
-      <c r="B64" s="71"/>
-      <c r="C64" s="67"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="67"/>
-      <c r="J64" s="67"/>
-      <c r="K64" s="96" t="s">
-        <v>78</v>
-      </c>
-      <c r="L64" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="M64" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="N64" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="O64" s="39"/>
-      <c r="P64" s="93"/>
-      <c r="Q64" s="71"/>
-      <c r="R64" s="71"/>
-      <c r="S64" s="88"/>
-      <c r="T64" s="89"/>
-      <c r="U64" s="10"/>
-      <c r="V64" s="10"/>
-      <c r="W64" s="10"/>
-      <c r="X64" s="10"/>
-      <c r="Y64" s="10"/>
-      <c r="Z64" s="10"/>
-      <c r="AA64" s="10"/>
-      <c r="AB64" s="10"/>
-      <c r="AC64" s="10"/>
-      <c r="AD64" s="10"/>
-      <c r="AE64" s="10"/>
-      <c r="AF64" s="10"/>
-      <c r="AG64" s="10"/>
-    </row>
-    <row r="65" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
-      <c r="B65" s="71"/>
-      <c r="C65" s="67"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="67"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="67"/>
-      <c r="I65" s="67"/>
-      <c r="J65" s="67"/>
-      <c r="K65" s="97"/>
-      <c r="L65" s="100"/>
-      <c r="M65" s="100"/>
-      <c r="N65" s="100"/>
-      <c r="O65" s="39"/>
-      <c r="P65" s="93"/>
-      <c r="Q65" s="71"/>
-      <c r="R65" s="71"/>
-      <c r="S65" s="88"/>
-      <c r="T65" s="89"/>
-      <c r="U65" s="6"/>
-      <c r="V65" s="6"/>
-      <c r="W65" s="6"/>
-      <c r="X65" s="6"/>
-      <c r="Y65" s="6"/>
-      <c r="Z65" s="6"/>
-      <c r="AA65" s="6"/>
-      <c r="AB65" s="6"/>
-      <c r="AC65" s="6"/>
-      <c r="AD65" s="6"/>
-      <c r="AE65" s="6"/>
-      <c r="AF65" s="6"/>
-      <c r="AG65" s="6"/>
-      <c r="AH65" s="6"/>
-    </row>
-    <row r="66" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
-      <c r="B66" s="71"/>
-      <c r="C66" s="67"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="67"/>
-      <c r="I66" s="67"/>
-      <c r="J66" s="67"/>
-      <c r="K66" s="97"/>
-      <c r="L66" s="100"/>
-      <c r="M66" s="100"/>
-      <c r="N66" s="100"/>
-      <c r="O66" s="39"/>
-      <c r="P66" s="93"/>
-      <c r="Q66" s="71"/>
-      <c r="R66" s="71"/>
-      <c r="S66" s="88"/>
-      <c r="T66" s="89"/>
-      <c r="U66" s="10"/>
-      <c r="V66" s="10"/>
-      <c r="W66" s="10"/>
-      <c r="X66" s="10"/>
-      <c r="Y66" s="10"/>
-      <c r="Z66" s="10"/>
-      <c r="AA66" s="10"/>
-      <c r="AB66" s="10"/>
-      <c r="AC66" s="10"/>
-      <c r="AD66" s="10"/>
-      <c r="AE66" s="10"/>
-      <c r="AF66" s="10"/>
-      <c r="AG66" s="10"/>
-      <c r="AH66" s="10"/>
-    </row>
-    <row r="67" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
-      <c r="B67" s="72"/>
-      <c r="C67" s="68"/>
-      <c r="D67" s="68"/>
-      <c r="E67" s="68"/>
-      <c r="F67" s="68"/>
-      <c r="G67" s="68"/>
-      <c r="H67" s="68"/>
-      <c r="I67" s="68"/>
-      <c r="J67" s="68"/>
-      <c r="K67" s="98"/>
-      <c r="L67" s="101"/>
-      <c r="M67" s="101"/>
-      <c r="N67" s="101"/>
-      <c r="O67" s="39"/>
-      <c r="P67" s="94"/>
-      <c r="Q67" s="72"/>
-      <c r="R67" s="72"/>
-      <c r="S67" s="90"/>
-      <c r="T67" s="91"/>
-      <c r="U67" s="10"/>
-      <c r="V67" s="10"/>
-      <c r="W67" s="10"/>
-      <c r="X67" s="10"/>
-      <c r="Y67" s="10"/>
-      <c r="Z67" s="10"/>
-      <c r="AA67" s="10"/>
-      <c r="AB67" s="10"/>
-      <c r="AC67" s="10"/>
-      <c r="AD67" s="10"/>
-      <c r="AE67" s="10"/>
-      <c r="AF67" s="10"/>
-      <c r="AG67" s="10"/>
-      <c r="AH67" s="10"/>
-    </row>
-    <row r="68" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
-      <c r="B68" s="70">
-        <v>45725</v>
-      </c>
-      <c r="C68" s="66">
-        <v>8</v>
-      </c>
-      <c r="D68" s="66">
-        <v>2</v>
-      </c>
-      <c r="E68" s="66">
-        <v>7</v>
-      </c>
-      <c r="F68" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="G68" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="H68" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="I68" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="J68" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="K68" s="96" t="s">
-        <v>82</v>
-      </c>
-      <c r="L68" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="M68" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="N68" s="102" t="s">
-        <v>15</v>
-      </c>
-      <c r="O68" s="39"/>
-      <c r="P68" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q68" s="80">
-        <v>45725</v>
-      </c>
-      <c r="R68" s="80">
-        <v>45725</v>
-      </c>
-      <c r="S68" s="119" t="s">
-        <v>92</v>
-      </c>
-      <c r="T68" s="87"/>
-      <c r="U68" s="10"/>
-      <c r="V68" s="10"/>
-      <c r="W68" s="10"/>
-      <c r="X68" s="10"/>
-      <c r="Y68" s="10"/>
-      <c r="Z68" s="10"/>
-      <c r="AA68" s="10"/>
-      <c r="AB68" s="10"/>
-      <c r="AC68" s="10"/>
-      <c r="AD68" s="10"/>
-      <c r="AE68" s="10"/>
-      <c r="AF68" s="10"/>
-      <c r="AG68" s="10"/>
-      <c r="AH68" s="10"/>
-    </row>
-    <row r="69" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
-      <c r="B69" s="71"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="67"/>
-      <c r="H69" s="67"/>
-      <c r="I69" s="67"/>
-      <c r="J69" s="67"/>
-      <c r="K69" s="97"/>
-      <c r="L69" s="100"/>
-      <c r="M69" s="100"/>
-      <c r="N69" s="103"/>
-      <c r="O69" s="39"/>
-      <c r="P69" s="88"/>
-      <c r="Q69" s="81"/>
-      <c r="R69" s="81"/>
-      <c r="S69" s="113"/>
-      <c r="T69" s="89"/>
-      <c r="U69" s="10"/>
-      <c r="V69" s="10"/>
-      <c r="W69" s="10"/>
-      <c r="X69" s="10"/>
-      <c r="Y69" s="10"/>
-      <c r="Z69" s="10"/>
-      <c r="AA69" s="10"/>
-      <c r="AB69" s="10"/>
-      <c r="AC69" s="10"/>
-      <c r="AD69" s="10"/>
-      <c r="AE69" s="10"/>
-      <c r="AF69" s="10"/>
-      <c r="AG69" s="10"/>
-      <c r="AH69" s="10"/>
-    </row>
-    <row r="70" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
-      <c r="B70" s="71"/>
-      <c r="C70" s="67"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67"/>
-      <c r="H70" s="67"/>
-      <c r="I70" s="67"/>
-      <c r="J70" s="67"/>
-      <c r="K70" s="97"/>
-      <c r="L70" s="100"/>
-      <c r="M70" s="100"/>
-      <c r="N70" s="103"/>
-      <c r="O70" s="39"/>
-      <c r="P70" s="88"/>
-      <c r="Q70" s="81"/>
-      <c r="R70" s="81"/>
-      <c r="S70" s="113"/>
-      <c r="T70" s="89"/>
-      <c r="U70" s="10"/>
-      <c r="V70" s="10"/>
-      <c r="W70" s="10"/>
-      <c r="X70" s="10"/>
-      <c r="Y70" s="10"/>
-      <c r="Z70" s="10"/>
-      <c r="AA70" s="10"/>
-      <c r="AB70" s="10"/>
-      <c r="AC70" s="10"/>
-      <c r="AD70" s="10"/>
-      <c r="AE70" s="10"/>
-      <c r="AF70" s="10"/>
-      <c r="AG70" s="10"/>
-      <c r="AH70" s="10"/>
-    </row>
-    <row r="71" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
-      <c r="B71" s="71"/>
-      <c r="C71" s="67"/>
-      <c r="D71" s="67"/>
-      <c r="E71" s="67"/>
-      <c r="F71" s="67"/>
-      <c r="G71" s="67"/>
-      <c r="H71" s="67"/>
-      <c r="I71" s="67"/>
-      <c r="J71" s="67"/>
-      <c r="K71" s="97"/>
-      <c r="L71" s="100"/>
-      <c r="M71" s="100"/>
-      <c r="N71" s="103"/>
-      <c r="O71" s="39"/>
-      <c r="P71" s="88"/>
-      <c r="Q71" s="81"/>
-      <c r="R71" s="81"/>
-      <c r="S71" s="113"/>
-      <c r="T71" s="89"/>
-      <c r="U71" s="10"/>
-      <c r="V71" s="10"/>
-      <c r="W71" s="10"/>
-      <c r="X71" s="10"/>
-      <c r="Y71" s="10"/>
-      <c r="Z71" s="10"/>
-      <c r="AA71" s="10"/>
-      <c r="AB71" s="10"/>
-      <c r="AC71" s="10"/>
-      <c r="AD71" s="10"/>
-      <c r="AE71" s="10"/>
-      <c r="AF71" s="10"/>
-      <c r="AG71" s="10"/>
-      <c r="AH71" s="10"/>
-    </row>
-    <row r="72" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
-      <c r="B72" s="71"/>
-      <c r="C72" s="67"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="67"/>
-      <c r="H72" s="67"/>
-      <c r="I72" s="67"/>
-      <c r="J72" s="67"/>
-      <c r="K72" s="98"/>
-      <c r="L72" s="101"/>
-      <c r="M72" s="101"/>
-      <c r="N72" s="104"/>
-      <c r="O72" s="39"/>
-      <c r="P72" s="88"/>
-      <c r="Q72" s="81"/>
-      <c r="R72" s="81"/>
-      <c r="S72" s="113"/>
-      <c r="T72" s="89"/>
-      <c r="U72" s="10"/>
-      <c r="V72" s="10"/>
-      <c r="W72" s="10"/>
-      <c r="X72" s="10"/>
-      <c r="Y72" s="10"/>
-      <c r="Z72" s="10"/>
-      <c r="AA72" s="10"/>
-      <c r="AB72" s="10"/>
-      <c r="AC72" s="10"/>
-      <c r="AD72" s="10"/>
-      <c r="AE72" s="10"/>
-      <c r="AF72" s="10"/>
-      <c r="AG72" s="10"/>
-      <c r="AH72" s="10"/>
-    </row>
-    <row r="73" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="11"/>
-      <c r="B73" s="71"/>
-      <c r="C73" s="67"/>
-      <c r="D73" s="67"/>
-      <c r="E73" s="67"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="67"/>
-      <c r="H73" s="67"/>
-      <c r="I73" s="67"/>
-      <c r="J73" s="67"/>
-      <c r="K73" s="96" t="s">
-        <v>83</v>
-      </c>
-      <c r="L73" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="M73" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="N73" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="O73" s="39"/>
-      <c r="P73" s="88"/>
-      <c r="Q73" s="81"/>
-      <c r="R73" s="81"/>
-      <c r="S73" s="113"/>
-      <c r="T73" s="89"/>
-      <c r="U73" s="6"/>
-      <c r="V73" s="6"/>
-      <c r="W73" s="6"/>
-      <c r="X73" s="6"/>
-      <c r="Y73" s="6"/>
-      <c r="Z73" s="6"/>
-      <c r="AA73" s="6"/>
-      <c r="AB73" s="6"/>
-      <c r="AC73" s="6"/>
-      <c r="AD73" s="6"/>
-      <c r="AE73" s="6"/>
-      <c r="AF73" s="6"/>
-      <c r="AG73" s="6"/>
-      <c r="AH73" s="6"/>
-    </row>
-    <row r="74" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+    </row>
+    <row r="52" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+    </row>
+    <row r="54" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+    </row>
+    <row r="56" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+    </row>
+    <row r="57" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+    </row>
+    <row r="58" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+    </row>
+    <row r="59" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+    </row>
+    <row r="60" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+    </row>
+    <row r="61" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+    </row>
+    <row r="62" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+    </row>
+    <row r="63" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+    </row>
+    <row r="64" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+    </row>
+    <row r="65" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+    </row>
+    <row r="66" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+    </row>
+    <row r="67" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+    </row>
+    <row r="68" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+    </row>
+    <row r="69" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+    </row>
+    <row r="70" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+    </row>
+    <row r="71" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+    </row>
+    <row r="72" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+    </row>
+    <row r="73" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
-      <c r="B74" s="71"/>
-      <c r="C74" s="67"/>
-      <c r="D74" s="67"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="67"/>
-      <c r="H74" s="67"/>
-      <c r="I74" s="67"/>
-      <c r="J74" s="67"/>
-      <c r="K74" s="97"/>
-      <c r="L74" s="100"/>
-      <c r="M74" s="100"/>
-      <c r="N74" s="100"/>
-      <c r="O74" s="39"/>
-      <c r="P74" s="88"/>
-      <c r="Q74" s="81"/>
-      <c r="R74" s="81"/>
-      <c r="S74" s="113"/>
-      <c r="T74" s="89"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="10"/>
       <c r="U74" s="10"/>
       <c r="V74" s="10"/>
       <c r="W74" s="10"/>
@@ -4726,30 +3592,28 @@
       <c r="AD74" s="10"/>
       <c r="AE74" s="10"/>
       <c r="AF74" s="10"/>
-      <c r="AG74" s="10"/>
-      <c r="AH74" s="10"/>
-    </row>
-    <row r="75" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
-      <c r="B75" s="71"/>
-      <c r="C75" s="67"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="67"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="67"/>
-      <c r="H75" s="67"/>
-      <c r="I75" s="67"/>
-      <c r="J75" s="67"/>
-      <c r="K75" s="97"/>
-      <c r="L75" s="100"/>
-      <c r="M75" s="100"/>
-      <c r="N75" s="100"/>
-      <c r="O75" s="39"/>
-      <c r="P75" s="88"/>
-      <c r="Q75" s="81"/>
-      <c r="R75" s="81"/>
-      <c r="S75" s="113"/>
-      <c r="T75" s="89"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
       <c r="U75" s="10"/>
       <c r="V75" s="10"/>
       <c r="W75" s="10"/>
@@ -4762,30 +3626,28 @@
       <c r="AD75" s="10"/>
       <c r="AE75" s="10"/>
       <c r="AF75" s="10"/>
-      <c r="AG75" s="10"/>
-      <c r="AH75" s="10"/>
-    </row>
-    <row r="76" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
-      <c r="B76" s="71"/>
-      <c r="C76" s="67"/>
-      <c r="D76" s="67"/>
-      <c r="E76" s="67"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="67"/>
-      <c r="H76" s="67"/>
-      <c r="I76" s="67"/>
-      <c r="J76" s="67"/>
-      <c r="K76" s="97"/>
-      <c r="L76" s="100"/>
-      <c r="M76" s="100"/>
-      <c r="N76" s="100"/>
-      <c r="O76" s="39"/>
-      <c r="P76" s="88"/>
-      <c r="Q76" s="81"/>
-      <c r="R76" s="81"/>
-      <c r="S76" s="113"/>
-      <c r="T76" s="89"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="10"/>
+      <c r="T76" s="10"/>
       <c r="U76" s="10"/>
       <c r="V76" s="10"/>
       <c r="W76" s="10"/>
@@ -4798,30 +3660,28 @@
       <c r="AD76" s="10"/>
       <c r="AE76" s="10"/>
       <c r="AF76" s="10"/>
-      <c r="AG76" s="10"/>
-      <c r="AH76" s="10"/>
-    </row>
-    <row r="77" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
-      <c r="B77" s="72"/>
-      <c r="C77" s="68"/>
-      <c r="D77" s="68"/>
-      <c r="E77" s="68"/>
-      <c r="F77" s="68"/>
-      <c r="G77" s="68"/>
-      <c r="H77" s="68"/>
-      <c r="I77" s="68"/>
-      <c r="J77" s="68"/>
-      <c r="K77" s="98"/>
-      <c r="L77" s="101"/>
-      <c r="M77" s="101"/>
-      <c r="N77" s="101"/>
-      <c r="O77" s="39"/>
-      <c r="P77" s="114"/>
-      <c r="Q77" s="115"/>
-      <c r="R77" s="115"/>
-      <c r="S77" s="113"/>
-      <c r="T77" s="89"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="10"/>
+      <c r="T77" s="10"/>
       <c r="U77" s="10"/>
       <c r="V77" s="10"/>
       <c r="W77" s="10"/>
@@ -4834,64 +3694,28 @@
       <c r="AD77" s="10"/>
       <c r="AE77" s="10"/>
       <c r="AF77" s="10"/>
-      <c r="AG77" s="10"/>
-      <c r="AH77" s="10"/>
-    </row>
-    <row r="78" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
-      <c r="B78" s="80">
-        <v>45725</v>
-      </c>
-      <c r="C78" s="78">
-        <v>9</v>
-      </c>
-      <c r="D78" s="78">
-        <v>2</v>
-      </c>
-      <c r="E78" s="78">
-        <v>8</v>
-      </c>
-      <c r="F78" s="78" t="s">
-        <v>84</v>
-      </c>
-      <c r="G78" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="H78" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="I78" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="J78" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="K78" s="116" t="s">
-        <v>87</v>
-      </c>
-      <c r="L78" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="M78" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="N78" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="O78" s="39"/>
-      <c r="P78" s="108" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q78" s="110">
-        <v>45725</v>
-      </c>
-      <c r="R78" s="110">
-        <v>45725</v>
-      </c>
-      <c r="S78" s="112" t="s">
-        <v>91</v>
-      </c>
-      <c r="T78" s="113"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
       <c r="U78" s="6"/>
       <c r="V78" s="6"/>
       <c r="W78" s="6"/>
@@ -4904,30 +3728,28 @@
       <c r="AD78" s="6"/>
       <c r="AE78" s="6"/>
       <c r="AF78" s="6"/>
-      <c r="AG78" s="6"/>
-      <c r="AH78" s="6"/>
-    </row>
-    <row r="79" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
-      <c r="B79" s="81"/>
-      <c r="C79" s="79"/>
-      <c r="D79" s="79"/>
-      <c r="E79" s="79"/>
-      <c r="F79" s="79"/>
-      <c r="G79" s="79"/>
-      <c r="H79" s="79"/>
-      <c r="I79" s="79"/>
-      <c r="J79" s="79"/>
-      <c r="K79" s="117"/>
-      <c r="L79" s="100"/>
-      <c r="M79" s="100"/>
-      <c r="N79" s="100"/>
-      <c r="O79" s="39"/>
-      <c r="P79" s="109"/>
-      <c r="Q79" s="111"/>
-      <c r="R79" s="111"/>
-      <c r="S79" s="113"/>
-      <c r="T79" s="113"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="10"/>
+      <c r="T79" s="10"/>
       <c r="U79" s="10"/>
       <c r="V79" s="10"/>
       <c r="W79" s="10"/>
@@ -4940,30 +3762,28 @@
       <c r="AD79" s="10"/>
       <c r="AE79" s="10"/>
       <c r="AF79" s="10"/>
-      <c r="AG79" s="10"/>
-      <c r="AH79" s="10"/>
-    </row>
-    <row r="80" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
-      <c r="B80" s="81"/>
-      <c r="C80" s="79"/>
-      <c r="D80" s="79"/>
-      <c r="E80" s="79"/>
-      <c r="F80" s="79"/>
-      <c r="G80" s="79"/>
-      <c r="H80" s="79"/>
-      <c r="I80" s="79"/>
-      <c r="J80" s="79"/>
-      <c r="K80" s="117"/>
-      <c r="L80" s="100"/>
-      <c r="M80" s="100"/>
-      <c r="N80" s="100"/>
-      <c r="O80" s="39"/>
-      <c r="P80" s="109"/>
-      <c r="Q80" s="111"/>
-      <c r="R80" s="111"/>
-      <c r="S80" s="113"/>
-      <c r="T80" s="113"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="10"/>
+      <c r="T80" s="10"/>
       <c r="U80" s="10"/>
       <c r="V80" s="10"/>
       <c r="W80" s="10"/>
@@ -4976,30 +3796,28 @@
       <c r="AD80" s="10"/>
       <c r="AE80" s="10"/>
       <c r="AF80" s="10"/>
-      <c r="AG80" s="10"/>
-      <c r="AH80" s="10"/>
     </row>
     <row r="81" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
-      <c r="B81" s="81"/>
-      <c r="C81" s="79"/>
-      <c r="D81" s="79"/>
-      <c r="E81" s="79"/>
-      <c r="F81" s="79"/>
-      <c r="G81" s="79"/>
-      <c r="H81" s="79"/>
-      <c r="I81" s="79"/>
-      <c r="J81" s="79"/>
-      <c r="K81" s="117"/>
-      <c r="L81" s="100"/>
-      <c r="M81" s="100"/>
-      <c r="N81" s="100"/>
-      <c r="O81" s="39"/>
-      <c r="P81" s="109"/>
-      <c r="Q81" s="111"/>
-      <c r="R81" s="111"/>
-      <c r="S81" s="113"/>
-      <c r="T81" s="113"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="10"/>
+      <c r="T81" s="10"/>
       <c r="U81" s="10"/>
       <c r="V81" s="10"/>
       <c r="W81" s="10"/>
@@ -5012,30 +3830,28 @@
       <c r="AD81" s="10"/>
       <c r="AE81" s="10"/>
       <c r="AF81" s="10"/>
-      <c r="AG81" s="10"/>
-      <c r="AH81" s="10"/>
     </row>
     <row r="82" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
-      <c r="B82" s="81"/>
-      <c r="C82" s="79"/>
-      <c r="D82" s="79"/>
-      <c r="E82" s="79"/>
-      <c r="F82" s="79"/>
-      <c r="G82" s="79"/>
-      <c r="H82" s="79"/>
-      <c r="I82" s="79"/>
-      <c r="J82" s="79"/>
-      <c r="K82" s="118"/>
-      <c r="L82" s="101"/>
-      <c r="M82" s="101"/>
-      <c r="N82" s="101"/>
-      <c r="O82" s="39"/>
-      <c r="P82" s="109"/>
-      <c r="Q82" s="111"/>
-      <c r="R82" s="111"/>
-      <c r="S82" s="113"/>
-      <c r="T82" s="113"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="10"/>
+      <c r="T82" s="10"/>
       <c r="U82" s="10"/>
       <c r="V82" s="10"/>
       <c r="W82" s="10"/>
@@ -5048,38 +3864,28 @@
       <c r="AD82" s="10"/>
       <c r="AE82" s="10"/>
       <c r="AF82" s="10"/>
-      <c r="AG82" s="10"/>
-      <c r="AH82" s="10"/>
     </row>
     <row r="83" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
-      <c r="B83" s="81"/>
-      <c r="C83" s="79"/>
-      <c r="D83" s="79"/>
-      <c r="E83" s="79"/>
-      <c r="F83" s="79"/>
-      <c r="G83" s="79"/>
-      <c r="H83" s="79"/>
-      <c r="I83" s="79"/>
-      <c r="J83" s="79"/>
-      <c r="K83" s="116" t="s">
-        <v>88</v>
-      </c>
-      <c r="L83" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="M83" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="N83" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="O83" s="39"/>
-      <c r="P83" s="109"/>
-      <c r="Q83" s="111"/>
-      <c r="R83" s="111"/>
-      <c r="S83" s="113"/>
-      <c r="T83" s="113"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
+      <c r="T83" s="6"/>
       <c r="U83" s="6"/>
       <c r="V83" s="6"/>
       <c r="W83" s="6"/>
@@ -5091,30 +3897,28 @@
       <c r="AC83" s="6"/>
       <c r="AD83" s="6"/>
       <c r="AE83" s="6"/>
-      <c r="AF83" s="6"/>
-      <c r="AG83" s="6"/>
     </row>
     <row r="84" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
-      <c r="B84" s="81"/>
-      <c r="C84" s="79"/>
-      <c r="D84" s="79"/>
-      <c r="E84" s="79"/>
-      <c r="F84" s="79"/>
-      <c r="G84" s="79"/>
-      <c r="H84" s="79"/>
-      <c r="I84" s="79"/>
-      <c r="J84" s="79"/>
-      <c r="K84" s="117"/>
-      <c r="L84" s="100"/>
-      <c r="M84" s="100"/>
-      <c r="N84" s="100"/>
-      <c r="O84" s="39"/>
-      <c r="P84" s="109"/>
-      <c r="Q84" s="111"/>
-      <c r="R84" s="111"/>
-      <c r="S84" s="113"/>
-      <c r="T84" s="113"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="10"/>
+      <c r="T84" s="10"/>
       <c r="U84" s="10"/>
       <c r="V84" s="10"/>
       <c r="W84" s="10"/>
@@ -5126,30 +3930,28 @@
       <c r="AC84" s="10"/>
       <c r="AD84" s="10"/>
       <c r="AE84" s="10"/>
-      <c r="AF84" s="10"/>
-      <c r="AG84" s="10"/>
     </row>
     <row r="85" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
-      <c r="B85" s="81"/>
-      <c r="C85" s="79"/>
-      <c r="D85" s="79"/>
-      <c r="E85" s="79"/>
-      <c r="F85" s="79"/>
-      <c r="G85" s="79"/>
-      <c r="H85" s="79"/>
-      <c r="I85" s="79"/>
-      <c r="J85" s="79"/>
-      <c r="K85" s="117"/>
-      <c r="L85" s="100"/>
-      <c r="M85" s="100"/>
-      <c r="N85" s="100"/>
-      <c r="O85" s="39"/>
-      <c r="P85" s="109"/>
-      <c r="Q85" s="111"/>
-      <c r="R85" s="111"/>
-      <c r="S85" s="113"/>
-      <c r="T85" s="113"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+      <c r="T85" s="6"/>
       <c r="U85" s="6"/>
       <c r="V85" s="6"/>
       <c r="W85" s="6"/>
@@ -5161,30 +3963,28 @@
       <c r="AC85" s="6"/>
       <c r="AD85" s="6"/>
       <c r="AE85" s="6"/>
-      <c r="AF85" s="6"/>
-      <c r="AG85" s="6"/>
     </row>
     <row r="86" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
-      <c r="B86" s="81"/>
-      <c r="C86" s="79"/>
-      <c r="D86" s="79"/>
-      <c r="E86" s="79"/>
-      <c r="F86" s="79"/>
-      <c r="G86" s="79"/>
-      <c r="H86" s="79"/>
-      <c r="I86" s="79"/>
-      <c r="J86" s="79"/>
-      <c r="K86" s="117"/>
-      <c r="L86" s="100"/>
-      <c r="M86" s="100"/>
-      <c r="N86" s="100"/>
-      <c r="O86" s="39"/>
-      <c r="P86" s="109"/>
-      <c r="Q86" s="111"/>
-      <c r="R86" s="111"/>
-      <c r="S86" s="113"/>
-      <c r="T86" s="113"/>
+      <c r="B86" s="31"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="10"/>
+      <c r="T86" s="10"/>
       <c r="U86" s="10"/>
       <c r="V86" s="10"/>
       <c r="W86" s="10"/>
@@ -5196,30 +3996,28 @@
       <c r="AC86" s="10"/>
       <c r="AD86" s="10"/>
       <c r="AE86" s="10"/>
-      <c r="AF86" s="10"/>
-      <c r="AG86" s="10"/>
     </row>
     <row r="87" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
-      <c r="B87" s="81"/>
-      <c r="C87" s="79"/>
-      <c r="D87" s="79"/>
-      <c r="E87" s="79"/>
-      <c r="F87" s="79"/>
-      <c r="G87" s="79"/>
-      <c r="H87" s="79"/>
-      <c r="I87" s="79"/>
-      <c r="J87" s="79"/>
-      <c r="K87" s="117"/>
-      <c r="L87" s="101"/>
-      <c r="M87" s="101"/>
-      <c r="N87" s="101"/>
-      <c r="O87" s="39"/>
-      <c r="P87" s="109"/>
-      <c r="Q87" s="111"/>
-      <c r="R87" s="111"/>
-      <c r="S87" s="113"/>
-      <c r="T87" s="113"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
+      <c r="T87" s="6"/>
       <c r="U87" s="6"/>
       <c r="V87" s="6"/>
       <c r="W87" s="6"/>
@@ -5232,21 +4030,19 @@
       <c r="AD87" s="6"/>
       <c r="AE87" s="6"/>
       <c r="AF87" s="6"/>
-      <c r="AG87" s="6"/>
-      <c r="AH87" s="6"/>
     </row>
     <row r="88" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="31"/>
       <c r="C88" s="31"/>
       <c r="D88" s="31"/>
-      <c r="E88" s="9"/>
+      <c r="E88" s="31"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
-      <c r="K88" s="6"/>
+      <c r="K88" s="9"/>
       <c r="L88" s="6"/>
       <c r="M88" s="6"/>
       <c r="N88" s="6"/>
@@ -5276,13 +4072,13 @@
       <c r="B89" s="31"/>
       <c r="C89" s="31"/>
       <c r="D89" s="31"/>
-      <c r="E89" s="9"/>
+      <c r="E89" s="31"/>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
-      <c r="K89" s="6"/>
+      <c r="K89" s="9"/>
       <c r="L89" s="6"/>
       <c r="M89" s="6"/>
       <c r="N89" s="6"/>
@@ -5312,13 +4108,13 @@
       <c r="B90" s="31"/>
       <c r="C90" s="31"/>
       <c r="D90" s="31"/>
-      <c r="E90" s="9"/>
+      <c r="E90" s="31"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
-      <c r="K90" s="6"/>
+      <c r="K90" s="9"/>
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
       <c r="N90" s="6"/>
@@ -8557,7 +7353,7 @@
       <c r="C181" s="31"/>
       <c r="D181" s="31"/>
       <c r="E181" s="31"/>
-      <c r="F181" s="9"/>
+      <c r="F181" s="12"/>
       <c r="G181" s="9"/>
       <c r="H181" s="9"/>
       <c r="I181" s="9"/>
@@ -8593,10 +7389,10 @@
       <c r="C182" s="31"/>
       <c r="D182" s="31"/>
       <c r="E182" s="31"/>
-      <c r="F182" s="9"/>
-      <c r="G182" s="9"/>
-      <c r="H182" s="9"/>
-      <c r="I182" s="9"/>
+      <c r="F182" s="12"/>
+      <c r="G182" s="12"/>
+      <c r="H182" s="12"/>
+      <c r="I182" s="2"/>
       <c r="J182" s="9"/>
       <c r="K182" s="9"/>
       <c r="L182" s="6"/>
@@ -8629,10 +7425,10 @@
       <c r="C183" s="31"/>
       <c r="D183" s="31"/>
       <c r="E183" s="31"/>
-      <c r="F183" s="9"/>
-      <c r="G183" s="9"/>
-      <c r="H183" s="9"/>
-      <c r="I183" s="9"/>
+      <c r="F183" s="12"/>
+      <c r="G183" s="12"/>
+      <c r="H183" s="12"/>
+      <c r="I183" s="2"/>
       <c r="J183" s="9"/>
       <c r="K183" s="9"/>
       <c r="L183" s="6"/>
@@ -8665,10 +7461,10 @@
       <c r="C184" s="31"/>
       <c r="D184" s="31"/>
       <c r="E184" s="31"/>
-      <c r="F184" s="9"/>
-      <c r="G184" s="9"/>
-      <c r="H184" s="9"/>
-      <c r="I184" s="9"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="12"/>
+      <c r="H184" s="12"/>
+      <c r="I184" s="2"/>
       <c r="J184" s="9"/>
       <c r="K184" s="9"/>
       <c r="L184" s="6"/>
@@ -8701,10 +7497,10 @@
       <c r="C185" s="31"/>
       <c r="D185" s="31"/>
       <c r="E185" s="31"/>
-      <c r="F185" s="9"/>
-      <c r="G185" s="9"/>
-      <c r="H185" s="9"/>
-      <c r="I185" s="9"/>
+      <c r="F185" s="12"/>
+      <c r="G185" s="12"/>
+      <c r="H185" s="12"/>
+      <c r="I185" s="2"/>
       <c r="J185" s="9"/>
       <c r="K185" s="9"/>
       <c r="L185" s="6"/>
@@ -8737,10 +7533,10 @@
       <c r="C186" s="31"/>
       <c r="D186" s="31"/>
       <c r="E186" s="31"/>
-      <c r="F186" s="9"/>
-      <c r="G186" s="9"/>
-      <c r="H186" s="9"/>
-      <c r="I186" s="9"/>
+      <c r="F186" s="12"/>
+      <c r="G186" s="12"/>
+      <c r="H186" s="12"/>
+      <c r="I186" s="2"/>
       <c r="J186" s="9"/>
       <c r="K186" s="9"/>
       <c r="L186" s="6"/>
@@ -8773,10 +7569,10 @@
       <c r="C187" s="31"/>
       <c r="D187" s="31"/>
       <c r="E187" s="31"/>
-      <c r="F187" s="9"/>
-      <c r="G187" s="9"/>
-      <c r="H187" s="9"/>
-      <c r="I187" s="9"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="12"/>
+      <c r="H187" s="12"/>
+      <c r="I187" s="2"/>
       <c r="J187" s="9"/>
       <c r="K187" s="9"/>
       <c r="L187" s="6"/>
@@ -8809,10 +7605,10 @@
       <c r="C188" s="31"/>
       <c r="D188" s="31"/>
       <c r="E188" s="31"/>
-      <c r="F188" s="9"/>
-      <c r="G188" s="9"/>
-      <c r="H188" s="9"/>
-      <c r="I188" s="9"/>
+      <c r="F188" s="12"/>
+      <c r="G188" s="12"/>
+      <c r="H188" s="12"/>
+      <c r="I188" s="2"/>
       <c r="J188" s="9"/>
       <c r="K188" s="9"/>
       <c r="L188" s="6"/>
@@ -8845,10 +7641,10 @@
       <c r="C189" s="31"/>
       <c r="D189" s="31"/>
       <c r="E189" s="31"/>
-      <c r="F189" s="9"/>
-      <c r="G189" s="9"/>
-      <c r="H189" s="9"/>
-      <c r="I189" s="9"/>
+      <c r="F189" s="12"/>
+      <c r="G189" s="12"/>
+      <c r="H189" s="12"/>
+      <c r="I189" s="2"/>
       <c r="J189" s="9"/>
       <c r="K189" s="9"/>
       <c r="L189" s="6"/>
@@ -8881,10 +7677,10 @@
       <c r="C190" s="31"/>
       <c r="D190" s="31"/>
       <c r="E190" s="31"/>
-      <c r="F190" s="9"/>
-      <c r="G190" s="9"/>
-      <c r="H190" s="9"/>
-      <c r="I190" s="9"/>
+      <c r="F190" s="12"/>
+      <c r="G190" s="12"/>
+      <c r="H190" s="12"/>
+      <c r="I190" s="2"/>
       <c r="J190" s="9"/>
       <c r="K190" s="9"/>
       <c r="L190" s="6"/>
@@ -8917,10 +7713,10 @@
       <c r="C191" s="31"/>
       <c r="D191" s="31"/>
       <c r="E191" s="31"/>
-      <c r="F191" s="9"/>
-      <c r="G191" s="9"/>
-      <c r="H191" s="9"/>
-      <c r="I191" s="9"/>
+      <c r="F191" s="12"/>
+      <c r="G191" s="12"/>
+      <c r="H191" s="12"/>
+      <c r="I191" s="2"/>
       <c r="J191" s="9"/>
       <c r="K191" s="9"/>
       <c r="L191" s="6"/>
@@ -8953,10 +7749,10 @@
       <c r="C192" s="31"/>
       <c r="D192" s="31"/>
       <c r="E192" s="31"/>
-      <c r="F192" s="9"/>
-      <c r="G192" s="9"/>
-      <c r="H192" s="9"/>
-      <c r="I192" s="9"/>
+      <c r="F192" s="12"/>
+      <c r="G192" s="12"/>
+      <c r="H192" s="12"/>
+      <c r="I192" s="2"/>
       <c r="J192" s="9"/>
       <c r="K192" s="9"/>
       <c r="L192" s="6"/>
@@ -8989,10 +7785,10 @@
       <c r="C193" s="31"/>
       <c r="D193" s="31"/>
       <c r="E193" s="31"/>
-      <c r="F193" s="9"/>
-      <c r="G193" s="9"/>
-      <c r="H193" s="9"/>
-      <c r="I193" s="9"/>
+      <c r="F193" s="12"/>
+      <c r="G193" s="12"/>
+      <c r="H193" s="12"/>
+      <c r="I193" s="2"/>
       <c r="J193" s="9"/>
       <c r="K193" s="9"/>
       <c r="L193" s="6"/>
@@ -9025,10 +7821,10 @@
       <c r="C194" s="31"/>
       <c r="D194" s="31"/>
       <c r="E194" s="31"/>
-      <c r="F194" s="9"/>
-      <c r="G194" s="9"/>
-      <c r="H194" s="9"/>
-      <c r="I194" s="9"/>
+      <c r="F194" s="12"/>
+      <c r="G194" s="12"/>
+      <c r="H194" s="12"/>
+      <c r="I194" s="2"/>
       <c r="J194" s="9"/>
       <c r="K194" s="9"/>
       <c r="L194" s="6"/>
@@ -9062,9 +7858,9 @@
       <c r="D195" s="31"/>
       <c r="E195" s="31"/>
       <c r="F195" s="12"/>
-      <c r="G195" s="9"/>
-      <c r="H195" s="9"/>
-      <c r="I195" s="9"/>
+      <c r="G195" s="12"/>
+      <c r="H195" s="12"/>
+      <c r="I195" s="2"/>
       <c r="J195" s="9"/>
       <c r="K195" s="9"/>
       <c r="L195" s="6"/>
@@ -11649,23 +10445,7 @@
     </row>
     <row r="267" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="11"/>
-      <c r="B267" s="31"/>
-      <c r="C267" s="31"/>
-      <c r="D267" s="31"/>
-      <c r="E267" s="31"/>
-      <c r="F267" s="12"/>
-      <c r="G267" s="12"/>
-      <c r="H267" s="12"/>
-      <c r="I267" s="2"/>
-      <c r="J267" s="9"/>
-      <c r="K267" s="9"/>
-      <c r="L267" s="6"/>
-      <c r="M267" s="6"/>
-      <c r="N267" s="6"/>
-      <c r="O267" s="6"/>
-      <c r="P267" s="6"/>
-      <c r="Q267" s="6"/>
-      <c r="R267" s="6"/>
+      <c r="N267" s="43"/>
       <c r="S267" s="6"/>
       <c r="T267" s="6"/>
       <c r="U267" s="6"/>
@@ -11685,23 +10465,7 @@
     </row>
     <row r="268" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="11"/>
-      <c r="B268" s="31"/>
-      <c r="C268" s="31"/>
-      <c r="D268" s="31"/>
-      <c r="E268" s="31"/>
-      <c r="F268" s="12"/>
-      <c r="G268" s="12"/>
-      <c r="H268" s="12"/>
-      <c r="I268" s="2"/>
-      <c r="J268" s="9"/>
-      <c r="K268" s="9"/>
-      <c r="L268" s="6"/>
-      <c r="M268" s="6"/>
-      <c r="N268" s="6"/>
-      <c r="O268" s="6"/>
-      <c r="P268" s="6"/>
-      <c r="Q268" s="6"/>
-      <c r="R268" s="6"/>
+      <c r="N268" s="43"/>
       <c r="S268" s="6"/>
       <c r="T268" s="6"/>
       <c r="U268" s="6"/>
@@ -11721,23 +10485,7 @@
     </row>
     <row r="269" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="11"/>
-      <c r="B269" s="31"/>
-      <c r="C269" s="31"/>
-      <c r="D269" s="31"/>
-      <c r="E269" s="31"/>
-      <c r="F269" s="12"/>
-      <c r="G269" s="12"/>
-      <c r="H269" s="12"/>
-      <c r="I269" s="2"/>
-      <c r="J269" s="9"/>
-      <c r="K269" s="9"/>
-      <c r="L269" s="6"/>
-      <c r="M269" s="6"/>
-      <c r="N269" s="6"/>
-      <c r="O269" s="6"/>
-      <c r="P269" s="6"/>
-      <c r="Q269" s="6"/>
-      <c r="R269" s="6"/>
+      <c r="N269" s="43"/>
       <c r="S269" s="6"/>
       <c r="T269" s="6"/>
       <c r="U269" s="6"/>
@@ -11757,23 +10505,7 @@
     </row>
     <row r="270" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="11"/>
-      <c r="B270" s="31"/>
-      <c r="C270" s="31"/>
-      <c r="D270" s="31"/>
-      <c r="E270" s="31"/>
-      <c r="F270" s="12"/>
-      <c r="G270" s="12"/>
-      <c r="H270" s="12"/>
-      <c r="I270" s="2"/>
-      <c r="J270" s="9"/>
-      <c r="K270" s="9"/>
-      <c r="L270" s="6"/>
-      <c r="M270" s="6"/>
-      <c r="N270" s="6"/>
-      <c r="O270" s="6"/>
-      <c r="P270" s="6"/>
-      <c r="Q270" s="6"/>
-      <c r="R270" s="6"/>
+      <c r="N270" s="43"/>
       <c r="S270" s="6"/>
       <c r="T270" s="6"/>
       <c r="U270" s="6"/>
@@ -11793,23 +10525,7 @@
     </row>
     <row r="271" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="11"/>
-      <c r="B271" s="31"/>
-      <c r="C271" s="31"/>
-      <c r="D271" s="31"/>
-      <c r="E271" s="31"/>
-      <c r="F271" s="12"/>
-      <c r="G271" s="12"/>
-      <c r="H271" s="12"/>
-      <c r="I271" s="2"/>
-      <c r="J271" s="9"/>
-      <c r="K271" s="9"/>
-      <c r="L271" s="6"/>
-      <c r="M271" s="6"/>
-      <c r="N271" s="6"/>
-      <c r="O271" s="6"/>
-      <c r="P271" s="6"/>
-      <c r="Q271" s="6"/>
-      <c r="R271" s="6"/>
+      <c r="N271" s="43"/>
       <c r="S271" s="6"/>
       <c r="T271" s="6"/>
       <c r="U271" s="6"/>
@@ -11829,23 +10545,7 @@
     </row>
     <row r="272" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="11"/>
-      <c r="B272" s="31"/>
-      <c r="C272" s="31"/>
-      <c r="D272" s="31"/>
-      <c r="E272" s="31"/>
-      <c r="F272" s="12"/>
-      <c r="G272" s="12"/>
-      <c r="H272" s="12"/>
-      <c r="I272" s="2"/>
-      <c r="J272" s="9"/>
-      <c r="K272" s="9"/>
-      <c r="L272" s="6"/>
-      <c r="M272" s="6"/>
-      <c r="N272" s="6"/>
-      <c r="O272" s="6"/>
-      <c r="P272" s="6"/>
-      <c r="Q272" s="6"/>
-      <c r="R272" s="6"/>
+      <c r="N272" s="43"/>
       <c r="S272" s="6"/>
       <c r="T272" s="6"/>
       <c r="U272" s="6"/>
@@ -11865,23 +10565,7 @@
     </row>
     <row r="273" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="11"/>
-      <c r="B273" s="31"/>
-      <c r="C273" s="31"/>
-      <c r="D273" s="31"/>
-      <c r="E273" s="31"/>
-      <c r="F273" s="12"/>
-      <c r="G273" s="12"/>
-      <c r="H273" s="12"/>
-      <c r="I273" s="2"/>
-      <c r="J273" s="9"/>
-      <c r="K273" s="9"/>
-      <c r="L273" s="6"/>
-      <c r="M273" s="6"/>
-      <c r="N273" s="6"/>
-      <c r="O273" s="6"/>
-      <c r="P273" s="6"/>
-      <c r="Q273" s="6"/>
-      <c r="R273" s="6"/>
+      <c r="N273" s="43"/>
       <c r="S273" s="6"/>
       <c r="T273" s="6"/>
       <c r="U273" s="6"/>
@@ -11901,23 +10585,7 @@
     </row>
     <row r="274" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="11"/>
-      <c r="B274" s="31"/>
-      <c r="C274" s="31"/>
-      <c r="D274" s="31"/>
-      <c r="E274" s="31"/>
-      <c r="F274" s="12"/>
-      <c r="G274" s="12"/>
-      <c r="H274" s="12"/>
-      <c r="I274" s="2"/>
-      <c r="J274" s="9"/>
-      <c r="K274" s="9"/>
-      <c r="L274" s="6"/>
-      <c r="M274" s="6"/>
-      <c r="N274" s="6"/>
-      <c r="O274" s="6"/>
-      <c r="P274" s="6"/>
-      <c r="Q274" s="6"/>
-      <c r="R274" s="6"/>
+      <c r="N274" s="43"/>
       <c r="S274" s="6"/>
       <c r="T274" s="6"/>
       <c r="U274" s="6"/>
@@ -11937,23 +10605,7 @@
     </row>
     <row r="275" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="11"/>
-      <c r="B275" s="31"/>
-      <c r="C275" s="31"/>
-      <c r="D275" s="31"/>
-      <c r="E275" s="31"/>
-      <c r="F275" s="12"/>
-      <c r="G275" s="12"/>
-      <c r="H275" s="12"/>
-      <c r="I275" s="2"/>
-      <c r="J275" s="9"/>
-      <c r="K275" s="9"/>
-      <c r="L275" s="6"/>
-      <c r="M275" s="6"/>
-      <c r="N275" s="6"/>
-      <c r="O275" s="6"/>
-      <c r="P275" s="6"/>
-      <c r="Q275" s="6"/>
-      <c r="R275" s="6"/>
+      <c r="N275" s="43"/>
       <c r="S275" s="6"/>
       <c r="T275" s="6"/>
       <c r="U275" s="6"/>
@@ -11973,23 +10625,7 @@
     </row>
     <row r="276" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="11"/>
-      <c r="B276" s="31"/>
-      <c r="C276" s="31"/>
-      <c r="D276" s="31"/>
-      <c r="E276" s="31"/>
-      <c r="F276" s="12"/>
-      <c r="G276" s="12"/>
-      <c r="H276" s="12"/>
-      <c r="I276" s="2"/>
-      <c r="J276" s="9"/>
-      <c r="K276" s="9"/>
-      <c r="L276" s="6"/>
-      <c r="M276" s="6"/>
-      <c r="N276" s="6"/>
-      <c r="O276" s="6"/>
-      <c r="P276" s="6"/>
-      <c r="Q276" s="6"/>
-      <c r="R276" s="6"/>
+      <c r="N276" s="43"/>
       <c r="S276" s="6"/>
       <c r="T276" s="6"/>
       <c r="U276" s="6"/>
@@ -12009,23 +10645,7 @@
     </row>
     <row r="277" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="11"/>
-      <c r="B277" s="31"/>
-      <c r="C277" s="31"/>
-      <c r="D277" s="31"/>
-      <c r="E277" s="31"/>
-      <c r="F277" s="12"/>
-      <c r="G277" s="12"/>
-      <c r="H277" s="12"/>
-      <c r="I277" s="2"/>
-      <c r="J277" s="9"/>
-      <c r="K277" s="9"/>
-      <c r="L277" s="6"/>
-      <c r="M277" s="6"/>
-      <c r="N277" s="6"/>
-      <c r="O277" s="6"/>
-      <c r="P277" s="6"/>
-      <c r="Q277" s="6"/>
-      <c r="R277" s="6"/>
+      <c r="N277" s="43"/>
       <c r="S277" s="6"/>
       <c r="T277" s="6"/>
       <c r="U277" s="6"/>
@@ -12045,23 +10665,7 @@
     </row>
     <row r="278" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="11"/>
-      <c r="B278" s="31"/>
-      <c r="C278" s="31"/>
-      <c r="D278" s="31"/>
-      <c r="E278" s="31"/>
-      <c r="F278" s="12"/>
-      <c r="G278" s="12"/>
-      <c r="H278" s="12"/>
-      <c r="I278" s="2"/>
-      <c r="J278" s="9"/>
-      <c r="K278" s="9"/>
-      <c r="L278" s="6"/>
-      <c r="M278" s="6"/>
-      <c r="N278" s="6"/>
-      <c r="O278" s="6"/>
-      <c r="P278" s="6"/>
-      <c r="Q278" s="6"/>
-      <c r="R278" s="6"/>
+      <c r="N278" s="43"/>
       <c r="S278" s="6"/>
       <c r="T278" s="6"/>
       <c r="U278" s="6"/>
@@ -12081,23 +10685,7 @@
     </row>
     <row r="279" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="11"/>
-      <c r="B279" s="31"/>
-      <c r="C279" s="31"/>
-      <c r="D279" s="31"/>
-      <c r="E279" s="31"/>
-      <c r="F279" s="12"/>
-      <c r="G279" s="12"/>
-      <c r="H279" s="12"/>
-      <c r="I279" s="2"/>
-      <c r="J279" s="9"/>
-      <c r="K279" s="9"/>
-      <c r="L279" s="6"/>
-      <c r="M279" s="6"/>
-      <c r="N279" s="6"/>
-      <c r="O279" s="6"/>
-      <c r="P279" s="6"/>
-      <c r="Q279" s="6"/>
-      <c r="R279" s="6"/>
+      <c r="N279" s="43"/>
       <c r="S279" s="6"/>
       <c r="T279" s="6"/>
       <c r="U279" s="6"/>
@@ -12117,23 +10705,7 @@
     </row>
     <row r="280" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="11"/>
-      <c r="B280" s="31"/>
-      <c r="C280" s="31"/>
-      <c r="D280" s="31"/>
-      <c r="E280" s="31"/>
-      <c r="F280" s="12"/>
-      <c r="G280" s="12"/>
-      <c r="H280" s="12"/>
-      <c r="I280" s="2"/>
-      <c r="J280" s="9"/>
-      <c r="K280" s="9"/>
-      <c r="L280" s="6"/>
-      <c r="M280" s="6"/>
-      <c r="N280" s="6"/>
-      <c r="O280" s="6"/>
-      <c r="P280" s="6"/>
-      <c r="Q280" s="6"/>
-      <c r="R280" s="6"/>
+      <c r="N280" s="43"/>
       <c r="S280" s="6"/>
       <c r="T280" s="6"/>
       <c r="U280" s="6"/>
@@ -14593,239 +13165,60 @@
     <row r="1029" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N1029" s="43"/>
     </row>
-    <row r="1030" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N1030" s="43"/>
-    </row>
-    <row r="1031" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N1031" s="43"/>
-    </row>
-    <row r="1032" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N1032" s="43"/>
-    </row>
-    <row r="1033" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N1033" s="43"/>
-    </row>
-    <row r="1034" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N1034" s="43"/>
-    </row>
-    <row r="1035" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N1035" s="43"/>
-    </row>
-    <row r="1036" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N1036" s="43"/>
-    </row>
-    <row r="1037" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N1037" s="43"/>
-    </row>
-    <row r="1038" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N1038" s="43"/>
-    </row>
-    <row r="1039" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N1039" s="43"/>
-    </row>
-    <row r="1040" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N1040" s="43"/>
-    </row>
-    <row r="1041" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N1041" s="43"/>
-    </row>
-    <row r="1042" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N1042" s="43"/>
-    </row>
-    <row r="1043" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N1043" s="43"/>
-    </row>
-    <row r="1044" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1045" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1046" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1047" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1049" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1050" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1051" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1052" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1053" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1054" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1055" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1056" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1030" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1031" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1032" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1033" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1034" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1035" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1036" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1037" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1038" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1039" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1040" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1041" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1042" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1043" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1044" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1045" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1046" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1047" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1049" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1050" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1051" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1052" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1053" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1054" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1055" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1056" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="222">
-    <mergeCell ref="S36:T44"/>
-    <mergeCell ref="S45:T58"/>
-    <mergeCell ref="S59:T67"/>
-    <mergeCell ref="S68:T77"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="N29:N32"/>
-    <mergeCell ref="L33:L35"/>
-    <mergeCell ref="M33:M35"/>
-    <mergeCell ref="N33:N35"/>
-    <mergeCell ref="Q59:Q67"/>
-    <mergeCell ref="R59:R67"/>
-    <mergeCell ref="Q45:Q58"/>
-    <mergeCell ref="R45:R58"/>
-    <mergeCell ref="Q29:Q35"/>
-    <mergeCell ref="R29:R35"/>
-    <mergeCell ref="Q36:Q44"/>
-    <mergeCell ref="R36:R44"/>
-    <mergeCell ref="S29:T35"/>
-    <mergeCell ref="B8:B20"/>
-    <mergeCell ref="C8:C20"/>
-    <mergeCell ref="D8:D20"/>
-    <mergeCell ref="E8:E20"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="C21:C28"/>
-    <mergeCell ref="D21:D28"/>
-    <mergeCell ref="E21:E28"/>
-    <mergeCell ref="L83:L87"/>
-    <mergeCell ref="L68:L72"/>
-    <mergeCell ref="L73:L77"/>
-    <mergeCell ref="L78:L82"/>
-    <mergeCell ref="K78:K82"/>
-    <mergeCell ref="K83:K87"/>
-    <mergeCell ref="I68:I77"/>
-    <mergeCell ref="H68:H77"/>
-    <mergeCell ref="I78:I87"/>
-    <mergeCell ref="H78:H87"/>
-    <mergeCell ref="G78:G87"/>
-    <mergeCell ref="F78:F87"/>
-    <mergeCell ref="F68:F77"/>
-    <mergeCell ref="G68:G77"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M83:M87"/>
-    <mergeCell ref="N83:N87"/>
-    <mergeCell ref="P78:P87"/>
-    <mergeCell ref="Q78:Q87"/>
-    <mergeCell ref="R78:R87"/>
-    <mergeCell ref="S78:T87"/>
-    <mergeCell ref="P68:P77"/>
-    <mergeCell ref="Q68:Q77"/>
-    <mergeCell ref="R68:R77"/>
-    <mergeCell ref="M68:M72"/>
-    <mergeCell ref="N68:N72"/>
-    <mergeCell ref="M73:M77"/>
-    <mergeCell ref="N73:N77"/>
-    <mergeCell ref="M78:M82"/>
-    <mergeCell ref="N78:N82"/>
-    <mergeCell ref="N51:N54"/>
-    <mergeCell ref="L55:L58"/>
-    <mergeCell ref="M55:M58"/>
-    <mergeCell ref="N55:N58"/>
-    <mergeCell ref="L59:L63"/>
-    <mergeCell ref="M59:M63"/>
-    <mergeCell ref="N59:N63"/>
-    <mergeCell ref="L29:L32"/>
-    <mergeCell ref="M29:M32"/>
-    <mergeCell ref="R8:R20"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="J59:J67"/>
-    <mergeCell ref="J45:J58"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="P8:P20"/>
-    <mergeCell ref="Q8:Q20"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="K45:K50"/>
-    <mergeCell ref="K51:K54"/>
-    <mergeCell ref="K55:K58"/>
-    <mergeCell ref="K59:K63"/>
-    <mergeCell ref="K64:K67"/>
-    <mergeCell ref="L41:L44"/>
-    <mergeCell ref="M41:M44"/>
-    <mergeCell ref="N41:N44"/>
-    <mergeCell ref="L45:L50"/>
-    <mergeCell ref="M45:M50"/>
-    <mergeCell ref="N45:N50"/>
-    <mergeCell ref="L51:L54"/>
-    <mergeCell ref="M51:M54"/>
-    <mergeCell ref="S8:T20"/>
-    <mergeCell ref="P21:P28"/>
-    <mergeCell ref="Q21:Q28"/>
-    <mergeCell ref="R21:R28"/>
-    <mergeCell ref="S21:T28"/>
-    <mergeCell ref="J68:J77"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="K68:K72"/>
-    <mergeCell ref="K73:K77"/>
-    <mergeCell ref="L64:L67"/>
-    <mergeCell ref="M64:M67"/>
-    <mergeCell ref="N64:N67"/>
-    <mergeCell ref="P59:P67"/>
-    <mergeCell ref="P45:P58"/>
-    <mergeCell ref="P29:P35"/>
-    <mergeCell ref="P36:P44"/>
-    <mergeCell ref="K36:K40"/>
-    <mergeCell ref="K41:K44"/>
-    <mergeCell ref="L36:L40"/>
-    <mergeCell ref="M36:M40"/>
-    <mergeCell ref="N36:N40"/>
-    <mergeCell ref="J29:J35"/>
-    <mergeCell ref="J36:J44"/>
-    <mergeCell ref="E29:E35"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="D45:D58"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:T7"/>
-    <mergeCell ref="J78:J87"/>
-    <mergeCell ref="E78:E87"/>
-    <mergeCell ref="D78:D87"/>
-    <mergeCell ref="C78:C87"/>
-    <mergeCell ref="B78:B87"/>
-    <mergeCell ref="F36:F44"/>
-    <mergeCell ref="G36:G44"/>
-    <mergeCell ref="H36:H44"/>
-    <mergeCell ref="I36:I44"/>
-    <mergeCell ref="B36:B44"/>
-    <mergeCell ref="C36:C44"/>
-    <mergeCell ref="D36:D44"/>
-    <mergeCell ref="E36:E44"/>
-    <mergeCell ref="F29:F35"/>
-    <mergeCell ref="G29:G35"/>
-    <mergeCell ref="H29:H35"/>
-    <mergeCell ref="I29:I35"/>
-    <mergeCell ref="B29:B35"/>
-    <mergeCell ref="C29:C35"/>
-    <mergeCell ref="D29:D35"/>
-    <mergeCell ref="B68:B77"/>
-    <mergeCell ref="C68:C77"/>
-    <mergeCell ref="D68:D77"/>
-    <mergeCell ref="E68:E77"/>
-    <mergeCell ref="F59:F67"/>
-    <mergeCell ref="G59:G67"/>
-    <mergeCell ref="H59:H67"/>
-    <mergeCell ref="I59:I67"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="D59:D67"/>
-    <mergeCell ref="E59:E67"/>
+  <mergeCells count="134">
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="E45:E58"/>
     <mergeCell ref="J8:J20"/>
     <mergeCell ref="I8:I20"/>
     <mergeCell ref="H8:H20"/>
@@ -14842,38 +13235,101 @@
     <mergeCell ref="G21:G28"/>
     <mergeCell ref="H21:H28"/>
     <mergeCell ref="I21:I28"/>
-    <mergeCell ref="F45:F58"/>
-    <mergeCell ref="G45:G58"/>
-    <mergeCell ref="H45:H58"/>
-    <mergeCell ref="I45:I58"/>
-    <mergeCell ref="B45:B58"/>
-    <mergeCell ref="C45:C58"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:T7"/>
+    <mergeCell ref="F36:F44"/>
+    <mergeCell ref="G36:G44"/>
+    <mergeCell ref="H36:H44"/>
+    <mergeCell ref="I36:I44"/>
+    <mergeCell ref="B36:B44"/>
+    <mergeCell ref="C36:C44"/>
+    <mergeCell ref="D36:D44"/>
+    <mergeCell ref="E36:E44"/>
+    <mergeCell ref="F29:F35"/>
+    <mergeCell ref="G29:G35"/>
+    <mergeCell ref="H29:H35"/>
+    <mergeCell ref="I29:I35"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="C29:C35"/>
+    <mergeCell ref="D29:D35"/>
+    <mergeCell ref="E29:E35"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="S8:T20"/>
+    <mergeCell ref="P21:P28"/>
+    <mergeCell ref="Q21:Q28"/>
+    <mergeCell ref="R21:R28"/>
+    <mergeCell ref="S21:T28"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="P29:P35"/>
+    <mergeCell ref="P36:P44"/>
+    <mergeCell ref="K36:K40"/>
+    <mergeCell ref="K41:K44"/>
+    <mergeCell ref="L36:L40"/>
+    <mergeCell ref="M36:M40"/>
+    <mergeCell ref="N36:N40"/>
+    <mergeCell ref="J29:J35"/>
+    <mergeCell ref="J36:J44"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="P8:P20"/>
+    <mergeCell ref="Q8:Q20"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="L41:L44"/>
+    <mergeCell ref="M41:M44"/>
+    <mergeCell ref="N41:N44"/>
+    <mergeCell ref="L29:L32"/>
+    <mergeCell ref="M29:M32"/>
+    <mergeCell ref="R8:R20"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="B8:B20"/>
+    <mergeCell ref="C8:C20"/>
+    <mergeCell ref="D8:D20"/>
+    <mergeCell ref="E8:E20"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="C21:C28"/>
+    <mergeCell ref="D21:D28"/>
+    <mergeCell ref="E21:E28"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="S36:T44"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="N29:N32"/>
+    <mergeCell ref="L33:L35"/>
+    <mergeCell ref="M33:M35"/>
+    <mergeCell ref="N33:N35"/>
+    <mergeCell ref="Q29:Q35"/>
+    <mergeCell ref="R29:R35"/>
+    <mergeCell ref="Q36:Q44"/>
+    <mergeCell ref="R36:R44"/>
+    <mergeCell ref="S29:T35"/>
   </mergeCells>
-  <conditionalFormatting sqref="K88:L90 L91:M1043">
+  <conditionalFormatting sqref="K74:L76 L77:M1029">
     <cfRule type="cellIs" dxfId="14" priority="32" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -14881,7 +13337,7 @@
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:N8 L10:N11 L13:N15 L17:N17 L19:N19 L21:N22 L24:N25 L27:N27 L29:N29 L33:N33 L36:N36 L41:N41 L45:N45 L51:N51 L55:N55 L59:N59 L64:N64 L68:N68 L73:N73 L78:N78">
+  <conditionalFormatting sqref="L8:N8 L10:N11 L13:N15 L17:N17 L19:N19 L21:N22 L24:N25 L27:N27 L29:N29 L33:N33 L36:N36 L41:N41">
     <cfRule type="cellIs" dxfId="12" priority="34" operator="equal">
       <formula>"Not Applicable"</formula>
     </cfRule>
@@ -14898,38 +13354,21 @@
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(L8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L83:N83">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
-      <formula>"Not Applicable"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="PASSED">
-      <formula>NOT(ISERROR(SEARCH(("PASSED"),(L83))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="FAILED">
-      <formula>NOT(ISERROR(SEARCH(("FAILED"),(L83))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L8:O8 L10:O11 L13:O15 L17:N17 L19:O19 L21:O22 L24:O25 L27:O27 L29:O29 L33:O33 L36:O36 L41:O41 L45:O45 L51:O51 L55:O55 L59:O59 L64:O64 L68:O68 L73:O73 L78:N78 L83:N83 O9 O12 O16:O18 O20 O23 O26 O28 O30:O32 O34:O35 O37:O40 O42:O44 O46:O50 O52:O54 O56:O58 O60:O63 O65:O67 O69:O72 O74:O87 M88:Q90 N91:S1043">
+  <conditionalFormatting sqref="L8:O8 L10:O11 L13:O15 L17:N17 L19:O19 L21:O22 L24:O25 L27:O27 L29:O29 L33:O33 L36:O36 L41:O41 O9 O12 O16:O18 O20 O23 O26 O28 O30:O32 O34:O35 O37:O40 O42:O44 M74:Q76 S91:S1043 N77:R1029">
     <cfRule type="cellIs" dxfId="2" priority="39" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q88:Q90 R91:S1043">
+  <conditionalFormatting sqref="Q74:Q76 S91:S1043 R77:R1029">
     <cfRule type="containsText" dxfId="1" priority="40" operator="containsText" text="PASSED">
-      <formula>NOT(ISERROR(SEARCH(("PASSED"),(Q88))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("PASSED"),(Q74))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="41" operator="containsText" text="FAILED">
-      <formula>NOT(ISERROR(SEARCH(("FAILED"),(Q88))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("FAILED"),(Q74))))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L33:N33 L36:N36 L8:N8 L10:N11 L13:N15 L17:N17 L19:N19 L21:N22 L78:N78 L41:N41 L45:N45 L51:N51 L55:N55 L59:N59 L64:N64 L68:N68 L73:N73 L29:N29 L24:N25 L27:N27 L83:N83" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L33:N33 L36:N36 L8:N8 L10:N11 L13:N15 L17:N17 L19:N19 L21:N22 L41:N41 L29:N29 L24:N25 L27:N27" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Passed,Failed,NA"</formula1>
     </dataValidation>
   </dataValidations>
